--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-08-23T23:59:47+02:00</t>
+    <t>2023-09-05T10:10:09+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2101,16 +2101,16 @@
     <t>The appointment is part of recurring session.</t>
   </si>
   <si>
-    <t>hn-basis-scedule</t>
-  </si>
-  <si>
-    <t>http://example.org/StructureDefinition/hn-basis-scedule</t>
-  </si>
-  <si>
-    <t>HnBasisScedule</t>
-  </si>
-  <si>
-    <t>Profile used for Sceduler in HN. Based on FHIR Schedule (R4)</t>
+    <t>hn-basis-schedule</t>
+  </si>
+  <si>
+    <t>http://example.org/StructureDefinition/hn-basis-schedule</t>
+  </si>
+  <si>
+    <t>HnBasisSchedule</t>
+  </si>
+  <si>
+    <t>Profile used for Scheduler in HN. Based on FHIR Schedule (R4)</t>
   </si>
   <si>
     <t>Schedule</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -30,7 +30,7 @@
     <t>URL</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-appointment</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-appointment</t>
   </si>
   <si>
     <t>Version</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-05T10:10:09+02:00</t>
+    <t>2023-09-20T09:32:23+02:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -108,7 +108,7 @@
     <t>Base Definition</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-Appointment</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-Appointment</t>
   </si>
   <si>
     <t>Abstract</t>
@@ -322,7 +322,7 @@
     <t>virtualService</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-virtual-service}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-virtual-service}
 </t>
   </si>
   <si>
@@ -342,7 +342,7 @@
     <t>group</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-group}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-group}
 </t>
   </si>
   <si>
@@ -358,7 +358,7 @@
     <t>partOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-partof}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-partof}
 </t>
   </si>
   <si>
@@ -374,7 +374,7 @@
     <t>recurring</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/hn-basis-Recurring}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-Recurring}
 </t>
   </si>
   <si>
@@ -390,7 +390,7 @@
     <t>postponementReason</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/hn-basis-postponementreason}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-postponementreason}
 </t>
   </si>
   <si>
@@ -406,7 +406,7 @@
     <t>consultationType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/hn-basis-consultationType}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-consultationType}
 </t>
   </si>
   <si>
@@ -705,7 +705,7 @@
     <t>A broad categorization of the service that is to be performed during this appointment.</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-ServiceCategory-code-vs</t>
   </si>
   <si>
     <t>Appointment.serviceCategory.id</t>
@@ -783,7 +783,7 @@
     <t>The style of appointment or patient that has been booked in the slot (not service type).</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hn-appointment-AppointmentType-code-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-AppointmentType-code-vs</t>
   </si>
   <si>
     <t>Appointment.appointmentType.id</t>
@@ -1281,7 +1281,7 @@
     <t>hn-basis-AppointmentResponse</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-AppointmentResponse</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-AppointmentResponse</t>
   </si>
   <si>
     <t>HnBasisAppointmentResponse</t>
@@ -1293,7 +1293,7 @@
     <t>AppointmentResponse</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-AppointmentResponse</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-AppointmentResponse</t>
   </si>
   <si>
     <t>A reply to an appointment request for a patient and/or practitioner(s), such as a confirmation or rejection</t>
@@ -1339,7 +1339,7 @@
     <t>shortNotice</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/no-basis-shortnotice}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/no-basis-shortnotice}
 </t>
   </si>
   <si>
@@ -1376,7 +1376,7 @@
     <t>The definition may point directly to a computable or human-readable definition of the extensibility codes, or it may be a logical URI as declared in some other specification. The definition SHALL be a URI for the Structure Definition defining the extension.</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-shortnotice</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-shortnotice</t>
   </si>
   <si>
     <t>Extension.url</t>
@@ -1400,7 +1400,7 @@
     <t>changeConferenceType</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/hn-basis-changeConferenceType}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-changeConferenceType}
 </t>
   </si>
   <si>
@@ -1419,7 +1419,7 @@
     <t>AppointmentResponse.extension:changeConferenceType.url</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-changeConferenceType</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-changeConferenceType</t>
   </si>
   <si>
     <t>AppointmentResponse.extension:changeConferenceType.value[x]</t>
@@ -1431,7 +1431,7 @@
     <t>Type of conference that Patient askes for</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/no-basis-virtual-service-type-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/no-basis-virtual-service-type-vs</t>
   </si>
   <si>
     <t>AppointmentResponse.modifierExtension</t>
@@ -1741,7 +1741,7 @@
     <t>Value of extension - must be one of a constrained set of the data types (see [Extensibility](http://hl7.org/fhir/R4/extensibility.html) for a list).</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-consultationType</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-consultationType</t>
   </si>
   <si>
     <t>HnBasisConsultationType</t>
@@ -1780,7 +1780,7 @@
     <t>hn-basis-Flag</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-Flag</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-Flag</t>
   </si>
   <si>
     <t>HnBasisFlag</t>
@@ -1911,7 +1911,7 @@
     <t>statusPeriod</t>
   </si>
   <si>
-    <t xml:space="preserve">Extension {http://example.org/StructureDefinition/hn-basis-flagStatusPeriod}
+    <t xml:space="preserve">Extension {http://helsenorge.no/fhir/StructureDefinition/hn-basis-flagStatusPeriod}
 </t>
   </si>
   <si>
@@ -1939,7 +1939,7 @@
     <t>Flag.status.extension.url</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-flagStatusPeriod</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-flagStatusPeriod</t>
   </si>
   <si>
     <t>Flag.status.extension:statusPeriod.value[x]</t>
@@ -2002,7 +2002,7 @@
     <t>If non-coded, use CodeableConcept.text.  This element should always be included in the narrative.</t>
   </si>
   <si>
-    <t>http://example.org/ValueSet/hn-appointment-flag-code-vs</t>
+    <t>http://helsenorge.no/fhir/ValueSet/hn-appointment-flag-code-vs</t>
   </si>
   <si>
     <t>Flag.code.id</t>
@@ -2074,7 +2074,7 @@
     <t>The basis extension for status period in flag. Creating valid period for flag status</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-postponementreason</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-postponementreason</t>
   </si>
   <si>
     <t>HnBasisPostponementReason</t>
@@ -2089,7 +2089,7 @@
     <t>hn-basis-Recurring</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-Recurring</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-Recurring</t>
   </si>
   <si>
     <t>HnBasisRecurring</t>
@@ -2104,7 +2104,7 @@
     <t>hn-basis-schedule</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-schedule</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-schedule</t>
   </si>
   <si>
     <t>HnBasisSchedule</t>
@@ -2286,7 +2286,7 @@
     <t>hn-basis-slot</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/hn-basis-slot</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/hn-basis-slot</t>
   </si>
   <si>
     <t>HnBasisSlot</t>
@@ -2556,19 +2556,19 @@
     <t>A Person, Location, HealthcareService, or Device that is participating in the appointment.</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-group</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-group</t>
   </si>
   <si>
     <t>NoBasisGroup</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-partof</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-partof</t>
   </si>
   <si>
     <t>NoBasisPartOf</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://example.org/StructureDefinition/no-basis-Appointment)
+    <t xml:space="preserve">Reference(http://helsenorge.no/fhir/StructureDefinition/no-basis-Appointment)
 </t>
   </si>
   <si>
@@ -2587,7 +2587,7 @@
     <t>no-basis-virtual-service</t>
   </si>
   <si>
-    <t>http://example.org/StructureDefinition/no-basis-virtual-service</t>
+    <t>http://helsenorge.no/fhir/StructureDefinition/no-basis-virtual-service</t>
   </si>
   <si>
     <t>NoBasisVirtualService</t>
@@ -5470,7 +5470,7 @@
     <col min="24" max="24" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="25" max="25" width="10.19140625" customWidth="true" bestFit="true"/>
     <col min="26" max="26" width="117.21484375" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="66.91796875" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="72.52734375" customWidth="true" bestFit="true"/>
     <col min="28" max="28" width="1.0390625" customWidth="true" bestFit="true"/>
     <col min="29" max="29" width="11.4921875" customWidth="true" bestFit="true"/>
     <col min="30" max="30" width="40.0390625" customWidth="true" bestFit="true"/>
@@ -8639,7 +8639,7 @@
       </c>
       <c r="F31" s="2"/>
       <c r="G31" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H31" t="s" s="2">
         <v>44</v>
@@ -10258,7 +10258,7 @@
         <v>36</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>151</v>
+        <v>68</v>
       </c>
       <c r="Z46" s="2"/>
       <c r="AA46" t="s" s="2">
@@ -12828,7 +12828,7 @@
         <v>44</v>
       </c>
       <c r="H71" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I71" t="s" s="2">
         <v>36</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T00:16:31+02:00</t>
+    <t>2023-09-25T11:50:22+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T11:50:22+02:00</t>
+    <t>2023-09-25T15:31:18+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-09-25T15:31:18+02:00</t>
+    <t>2023-09-25T15:44:07+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-05T16:09:33+02:00</t>
+    <t>2023-10-09T22:41:16+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-10-09T22:41:16+02:00</t>
+    <t>2023-10-11T00:03:21+02:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T00:53:28+01:00</t>
+    <t>2023-11-08T01:12:56+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-08T01:12:56+01:00</t>
+    <t>2023-11-08T15:53:02+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14053" uniqueCount="1050">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14186" uniqueCount="1054">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-11-27T12:35:55+01:00</t>
+    <t>2023-12-04T09:08:22+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2541,6 +2541,18 @@
   </si>
   <si>
     <t>Slot.serviceCategory</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory.id</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory.extension</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory.coding</t>
+  </si>
+  <si>
+    <t>Slot.serviceCategory.text</t>
   </si>
   <si>
     <t>Slot.serviceType</t>
@@ -5025,7 +5037,7 @@
         <v>2</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="208">
@@ -5033,7 +5045,7 @@
         <v>4</v>
       </c>
       <c r="B208" t="s" s="2">
-        <v>849</v>
+        <v>853</v>
       </c>
     </row>
     <row r="209">
@@ -5049,7 +5061,7 @@
         <v>8</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>850</v>
+        <v>854</v>
       </c>
     </row>
     <row r="211">
@@ -5057,7 +5069,7 @@
         <v>10</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
     </row>
     <row r="212">
@@ -5079,7 +5091,7 @@
         <v>14</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="215">
@@ -5103,7 +5115,7 @@
         <v>20</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>852</v>
+        <v>856</v>
       </c>
     </row>
     <row r="218">
@@ -5139,7 +5151,7 @@
         <v>28</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>853</v>
+        <v>857</v>
       </c>
     </row>
     <row r="223">
@@ -5147,7 +5159,7 @@
         <v>30</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>854</v>
+        <v>858</v>
       </c>
     </row>
     <row r="224">
@@ -5179,7 +5191,7 @@
         <v>2</v>
       </c>
       <c r="B227" t="s" s="2">
-        <v>1045</v>
+        <v>1049</v>
       </c>
     </row>
     <row r="228">
@@ -5187,7 +5199,7 @@
         <v>4</v>
       </c>
       <c r="B228" t="s" s="2">
-        <v>1046</v>
+        <v>1050</v>
       </c>
     </row>
     <row r="229">
@@ -5203,7 +5215,7 @@
         <v>8</v>
       </c>
       <c r="B230" t="s" s="2">
-        <v>1047</v>
+        <v>1051</v>
       </c>
     </row>
     <row r="231">
@@ -5231,7 +5243,7 @@
         <v>14</v>
       </c>
       <c r="B234" t="s" s="2">
-        <v>851</v>
+        <v>855</v>
       </c>
     </row>
     <row r="235">
@@ -5255,7 +5267,7 @@
         <v>20</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>871</v>
+        <v>875</v>
       </c>
     </row>
     <row r="238">
@@ -5323,7 +5335,7 @@
         <v>387</v>
       </c>
       <c r="B246" t="s" s="2">
-        <v>1048</v>
+        <v>1052</v>
       </c>
     </row>
   </sheetData>
@@ -5333,7 +5345,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:AK412"/>
+  <dimension ref="A1:AK416"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2.0" ySplit="1.0" state="frozen" topLeftCell="C2" activePane="bottomRight"/>
@@ -24044,7 +24056,7 @@
       </c>
       <c r="F179" s="2"/>
       <c r="G179" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H179" t="s" s="2">
         <v>38</v>
@@ -24154,7 +24166,7 @@
         <v>37</v>
       </c>
       <c r="H180" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I180" t="s" s="2">
         <v>36</v>
@@ -24263,7 +24275,7 @@
         <v>37</v>
       </c>
       <c r="H181" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I181" t="s" s="2">
         <v>36</v>
@@ -24372,7 +24384,7 @@
         <v>37</v>
       </c>
       <c r="H182" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I182" t="s" s="2">
         <v>36</v>
@@ -24478,7 +24490,7 @@
       </c>
       <c r="F183" s="2"/>
       <c r="G183" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>44</v>
@@ -37265,7 +37277,7 @@
         <v>37</v>
       </c>
       <c r="H305" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I305" t="s" s="2">
         <v>36</v>
@@ -37274,20 +37286,18 @@
         <v>36</v>
       </c>
       <c r="K305" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L305" t="s" s="2">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="M305" t="s" s="2">
-        <v>812</v>
+        <v>106</v>
       </c>
       <c r="N305" t="s" s="2">
-        <v>813</v>
-      </c>
-      <c r="O305" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O305" s="2"/>
       <c r="P305" s="2"/>
       <c r="Q305" t="s" s="2">
         <v>36</v>
@@ -37312,11 +37322,13 @@
         <v>36</v>
       </c>
       <c r="Y305" t="s" s="2">
-        <v>348</v>
-      </c>
-      <c r="Z305" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="Z305" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AA305" t="s" s="2">
-        <v>537</v>
+        <v>36</v>
       </c>
       <c r="AB305" t="s" s="2">
         <v>36</v>
@@ -37334,19 +37346,19 @@
         <v>36</v>
       </c>
       <c r="AG305" t="s" s="2">
-        <v>811</v>
+        <v>108</v>
       </c>
       <c r="AH305" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI305" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ305" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK305" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="306">
@@ -37354,21 +37366,21 @@
         <v>785</v>
       </c>
       <c r="B306" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="C306" t="s" s="2">
-        <v>814</v>
+        <v>812</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F306" s="2"/>
       <c r="G306" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H306" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I306" t="s" s="2">
         <v>36</v>
@@ -37380,15 +37392,17 @@
         <v>36</v>
       </c>
       <c r="L306" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M306" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="N306" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O306" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="O306" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="P306" s="2"/>
       <c r="Q306" t="s" s="2">
         <v>36</v>
@@ -37425,31 +37439,31 @@
         <v>36</v>
       </c>
       <c r="AC306" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD306" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE306" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF306" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI306" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ306" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK306" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="307">
@@ -37457,14 +37471,14 @@
         <v>785</v>
       </c>
       <c r="B307" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="C307" t="s" s="2">
-        <v>815</v>
+        <v>813</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F307" s="2"/>
       <c r="G307" t="s" s="2">
@@ -37480,21 +37494,23 @@
         <v>36</v>
       </c>
       <c r="K307" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L307" t="s" s="2">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="M307" t="s" s="2">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="N307" t="s" s="2">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="O307" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="P307" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="P307" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="Q307" t="s" s="2">
         <v>36</v>
       </c>
@@ -37530,19 +37546,19 @@
         <v>36</v>
       </c>
       <c r="AC307" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD307" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE307" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF307" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>37</v>
@@ -37554,7 +37570,7 @@
         <v>56</v>
       </c>
       <c r="AK307" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
     </row>
     <row r="308">
@@ -37562,10 +37578,10 @@
         <v>785</v>
       </c>
       <c r="B308" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="C308" t="s" s="2">
-        <v>816</v>
+        <v>814</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -37576,7 +37592,7 @@
         <v>37</v>
       </c>
       <c r="H308" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I308" t="s" s="2">
         <v>36</v>
@@ -37588,19 +37604,19 @@
         <v>45</v>
       </c>
       <c r="L308" t="s" s="2">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="M308" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="N308" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="O308" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P308" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q308" t="s" s="2">
         <v>36</v>
@@ -37649,19 +37665,19 @@
         <v>36</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI308" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ308" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK308" t="s" s="2">
-        <v>251</v>
+        <v>57</v>
       </c>
     </row>
     <row r="309">
@@ -37669,10 +37685,10 @@
         <v>785</v>
       </c>
       <c r="B309" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="C309" t="s" s="2">
-        <v>817</v>
+        <v>815</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -37683,7 +37699,7 @@
         <v>37</v>
       </c>
       <c r="H309" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I309" t="s" s="2">
         <v>36</v>
@@ -37695,20 +37711,18 @@
         <v>45</v>
       </c>
       <c r="L309" t="s" s="2">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="M309" t="s" s="2">
-        <v>253</v>
+        <v>816</v>
       </c>
       <c r="N309" t="s" s="2">
-        <v>254</v>
+        <v>817</v>
       </c>
       <c r="O309" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="P309" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="P309" s="2"/>
       <c r="Q309" t="s" s="2">
         <v>36</v>
       </c>
@@ -37732,13 +37746,11 @@
         <v>36</v>
       </c>
       <c r="Y309" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z309" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>348</v>
+      </c>
+      <c r="Z309" s="2"/>
       <c r="AA309" t="s" s="2">
-        <v>36</v>
+        <v>537</v>
       </c>
       <c r="AB309" t="s" s="2">
         <v>36</v>
@@ -37756,13 +37768,13 @@
         <v>36</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>257</v>
+        <v>815</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI309" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ309" t="s" s="2">
         <v>56</v>
@@ -37790,7 +37802,7 @@
         <v>37</v>
       </c>
       <c r="H310" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I310" t="s" s="2">
         <v>36</v>
@@ -37799,20 +37811,18 @@
         <v>36</v>
       </c>
       <c r="K310" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L310" t="s" s="2">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="M310" t="s" s="2">
-        <v>543</v>
+        <v>106</v>
       </c>
       <c r="N310" t="s" s="2">
-        <v>544</v>
-      </c>
-      <c r="O310" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O310" s="2"/>
       <c r="P310" s="2"/>
       <c r="Q310" t="s" s="2">
         <v>36</v>
@@ -37837,13 +37847,13 @@
         <v>36</v>
       </c>
       <c r="Y310" t="s" s="2">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="Z310" t="s" s="2">
-        <v>762</v>
+        <v>36</v>
       </c>
       <c r="AA310" t="s" s="2">
-        <v>545</v>
+        <v>36</v>
       </c>
       <c r="AB310" t="s" s="2">
         <v>36</v>
@@ -37861,19 +37871,19 @@
         <v>36</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>818</v>
+        <v>108</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI310" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ310" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK310" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="311">
@@ -37888,14 +37898,14 @@
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F311" s="2"/>
       <c r="G311" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H311" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I311" t="s" s="2">
         <v>36</v>
@@ -37907,15 +37917,17 @@
         <v>36</v>
       </c>
       <c r="L311" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M311" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="N311" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O311" s="2"/>
+        <v>111</v>
+      </c>
+      <c r="O311" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="P311" s="2"/>
       <c r="Q311" t="s" s="2">
         <v>36</v>
@@ -37952,31 +37964,31 @@
         <v>36</v>
       </c>
       <c r="AC311" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD311" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE311" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF311" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG311" t="s" s="2">
-        <v>108</v>
+        <v>112</v>
       </c>
       <c r="AH311" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI311" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ311" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK311" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="312">
@@ -37991,7 +38003,7 @@
       </c>
       <c r="D312" s="2"/>
       <c r="E312" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F312" s="2"/>
       <c r="G312" t="s" s="2">
@@ -38007,21 +38019,23 @@
         <v>36</v>
       </c>
       <c r="K312" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L312" t="s" s="2">
-        <v>89</v>
+        <v>137</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>90</v>
+        <v>246</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>111</v>
+        <v>247</v>
       </c>
       <c r="O312" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="P312" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="P312" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="Q312" t="s" s="2">
         <v>36</v>
       </c>
@@ -38057,19 +38071,19 @@
         <v>36</v>
       </c>
       <c r="AC312" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD312" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE312" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF312" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>112</v>
+        <v>250</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>37</v>
@@ -38081,7 +38095,7 @@
         <v>56</v>
       </c>
       <c r="AK312" t="s" s="2">
-        <v>97</v>
+        <v>251</v>
       </c>
     </row>
     <row r="313">
@@ -38103,7 +38117,7 @@
         <v>37</v>
       </c>
       <c r="H313" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I313" t="s" s="2">
         <v>36</v>
@@ -38115,19 +38129,19 @@
         <v>45</v>
       </c>
       <c r="L313" t="s" s="2">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="M313" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="N313" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="O313" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P313" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q313" t="s" s="2">
         <v>36</v>
@@ -38176,19 +38190,19 @@
         <v>36</v>
       </c>
       <c r="AG313" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AH313" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI313" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ313" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK313" t="s" s="2">
-        <v>251</v>
+        <v>57</v>
       </c>
     </row>
     <row r="314">
@@ -38210,7 +38224,7 @@
         <v>37</v>
       </c>
       <c r="H314" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I314" t="s" s="2">
         <v>36</v>
@@ -38222,20 +38236,18 @@
         <v>45</v>
       </c>
       <c r="L314" t="s" s="2">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="M314" t="s" s="2">
-        <v>253</v>
+        <v>543</v>
       </c>
       <c r="N314" t="s" s="2">
-        <v>254</v>
+        <v>544</v>
       </c>
       <c r="O314" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="P314" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>519</v>
+      </c>
+      <c r="P314" s="2"/>
       <c r="Q314" t="s" s="2">
         <v>36</v>
       </c>
@@ -38259,13 +38271,13 @@
         <v>36</v>
       </c>
       <c r="Y314" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z314" t="s" s="2">
-        <v>36</v>
+        <v>762</v>
       </c>
       <c r="AA314" t="s" s="2">
-        <v>36</v>
+        <v>545</v>
       </c>
       <c r="AB314" t="s" s="2">
         <v>36</v>
@@ -38283,13 +38295,13 @@
         <v>36</v>
       </c>
       <c r="AG314" t="s" s="2">
-        <v>257</v>
+        <v>822</v>
       </c>
       <c r="AH314" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI314" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ314" t="s" s="2">
         <v>56</v>
@@ -38326,20 +38338,18 @@
         <v>36</v>
       </c>
       <c r="K315" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L315" t="s" s="2">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="M315" t="s" s="2">
-        <v>824</v>
+        <v>106</v>
       </c>
       <c r="N315" t="s" s="2">
-        <v>825</v>
-      </c>
-      <c r="O315" t="s" s="2">
-        <v>519</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O315" s="2"/>
       <c r="P315" s="2"/>
       <c r="Q315" t="s" s="2">
         <v>36</v>
@@ -38364,11 +38374,13 @@
         <v>36</v>
       </c>
       <c r="Y315" t="s" s="2">
-        <v>69</v>
-      </c>
-      <c r="Z315" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="Z315" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AA315" t="s" s="2">
-        <v>579</v>
+        <v>36</v>
       </c>
       <c r="AB315" t="s" s="2">
         <v>36</v>
@@ -38386,7 +38398,7 @@
         <v>36</v>
       </c>
       <c r="AG315" t="s" s="2">
-        <v>823</v>
+        <v>108</v>
       </c>
       <c r="AH315" t="s" s="2">
         <v>37</v>
@@ -38395,10 +38407,10 @@
         <v>44</v>
       </c>
       <c r="AJ315" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK315" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="316">
@@ -38406,21 +38418,21 @@
         <v>785</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>826</v>
+        <v>824</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F316" s="2"/>
       <c r="G316" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H316" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I316" t="s" s="2">
         <v>36</v>
@@ -38429,19 +38441,19 @@
         <v>36</v>
       </c>
       <c r="K316" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L316" t="s" s="2">
-        <v>827</v>
+        <v>89</v>
       </c>
       <c r="M316" t="s" s="2">
-        <v>828</v>
+        <v>90</v>
       </c>
       <c r="N316" t="s" s="2">
-        <v>829</v>
+        <v>111</v>
       </c>
       <c r="O316" t="s" s="2">
-        <v>202</v>
+        <v>92</v>
       </c>
       <c r="P316" s="2"/>
       <c r="Q316" t="s" s="2">
@@ -38479,31 +38491,31 @@
         <v>36</v>
       </c>
       <c r="AC316" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD316" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE316" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF316" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG316" t="s" s="2">
-        <v>826</v>
+        <v>112</v>
       </c>
       <c r="AH316" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AI316" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ316" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK316" t="s" s="2">
-        <v>197</v>
+        <v>97</v>
       </c>
     </row>
     <row r="317">
@@ -38511,10 +38523,10 @@
         <v>785</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>830</v>
+        <v>825</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38522,10 +38534,10 @@
       </c>
       <c r="F317" s="2"/>
       <c r="G317" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H317" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I317" t="s" s="2">
         <v>36</v>
@@ -38537,18 +38549,20 @@
         <v>45</v>
       </c>
       <c r="L317" t="s" s="2">
-        <v>65</v>
+        <v>137</v>
       </c>
       <c r="M317" t="s" s="2">
-        <v>831</v>
+        <v>246</v>
       </c>
       <c r="N317" t="s" s="2">
-        <v>832</v>
+        <v>247</v>
       </c>
       <c r="O317" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="P317" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="P317" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="Q317" t="s" s="2">
         <v>36</v>
       </c>
@@ -38572,13 +38586,13 @@
         <v>36</v>
       </c>
       <c r="Y317" t="s" s="2">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="Z317" t="s" s="2">
-        <v>833</v>
+        <v>36</v>
       </c>
       <c r="AA317" t="s" s="2">
-        <v>834</v>
+        <v>36</v>
       </c>
       <c r="AB317" t="s" s="2">
         <v>36</v>
@@ -38596,19 +38610,19 @@
         <v>36</v>
       </c>
       <c r="AG317" t="s" s="2">
-        <v>830</v>
+        <v>250</v>
       </c>
       <c r="AH317" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AI317" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ317" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK317" t="s" s="2">
-        <v>57</v>
+        <v>251</v>
       </c>
     </row>
     <row r="318">
@@ -38616,10 +38630,10 @@
         <v>785</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>835</v>
+        <v>826</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -38627,7 +38641,7 @@
       </c>
       <c r="F318" s="2"/>
       <c r="G318" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H318" t="s" s="2">
         <v>44</v>
@@ -38642,18 +38656,20 @@
         <v>45</v>
       </c>
       <c r="L318" t="s" s="2">
-        <v>229</v>
+        <v>105</v>
       </c>
       <c r="M318" t="s" s="2">
-        <v>836</v>
+        <v>253</v>
       </c>
       <c r="N318" t="s" s="2">
-        <v>837</v>
+        <v>254</v>
       </c>
       <c r="O318" t="s" s="2">
-        <v>236</v>
-      </c>
-      <c r="P318" s="2"/>
+        <v>255</v>
+      </c>
+      <c r="P318" t="s" s="2">
+        <v>256</v>
+      </c>
       <c r="Q318" t="s" s="2">
         <v>36</v>
       </c>
@@ -38701,10 +38717,10 @@
         <v>36</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>835</v>
+        <v>257</v>
       </c>
       <c r="AH318" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AI318" t="s" s="2">
         <v>44</v>
@@ -38721,10 +38737,10 @@
         <v>785</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -38732,7 +38748,7 @@
       </c>
       <c r="F319" s="2"/>
       <c r="G319" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H319" t="s" s="2">
         <v>44</v>
@@ -38747,16 +38763,16 @@
         <v>45</v>
       </c>
       <c r="L319" t="s" s="2">
-        <v>229</v>
+        <v>162</v>
       </c>
       <c r="M319" t="s" s="2">
-        <v>839</v>
+        <v>828</v>
       </c>
       <c r="N319" t="s" s="2">
-        <v>840</v>
+        <v>829</v>
       </c>
       <c r="O319" t="s" s="2">
-        <v>236</v>
+        <v>519</v>
       </c>
       <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
@@ -38782,13 +38798,11 @@
         <v>36</v>
       </c>
       <c r="Y319" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z319" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>69</v>
+      </c>
+      <c r="Z319" s="2"/>
       <c r="AA319" t="s" s="2">
-        <v>36</v>
+        <v>579</v>
       </c>
       <c r="AB319" t="s" s="2">
         <v>36</v>
@@ -38806,10 +38820,10 @@
         <v>36</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>838</v>
+        <v>827</v>
       </c>
       <c r="AH319" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AI319" t="s" s="2">
         <v>44</v>
@@ -38826,10 +38840,10 @@
         <v>785</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38837,7 +38851,7 @@
       </c>
       <c r="F320" s="2"/>
       <c r="G320" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H320" t="s" s="2">
         <v>44</v>
@@ -38849,25 +38863,25 @@
         <v>36</v>
       </c>
       <c r="K320" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L320" t="s" s="2">
-        <v>122</v>
+        <v>831</v>
       </c>
       <c r="M320" t="s" s="2">
-        <v>842</v>
+        <v>832</v>
       </c>
       <c r="N320" t="s" s="2">
-        <v>843</v>
-      </c>
-      <c r="O320" s="2"/>
+        <v>833</v>
+      </c>
+      <c r="O320" t="s" s="2">
+        <v>202</v>
+      </c>
       <c r="P320" s="2"/>
       <c r="Q320" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="R320" t="s" s="2">
-        <v>844</v>
-      </c>
+      <c r="R320" s="2"/>
       <c r="S320" t="s" s="2">
         <v>36</v>
       </c>
@@ -38911,10 +38925,10 @@
         <v>36</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>841</v>
+        <v>830</v>
       </c>
       <c r="AH320" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AI320" t="s" s="2">
         <v>44</v>
@@ -38923,7 +38937,7 @@
         <v>56</v>
       </c>
       <c r="AK320" t="s" s="2">
-        <v>57</v>
+        <v>197</v>
       </c>
     </row>
     <row r="321">
@@ -38931,10 +38945,10 @@
         <v>785</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38942,7 +38956,7 @@
       </c>
       <c r="F321" s="2"/>
       <c r="G321" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H321" t="s" s="2">
         <v>44</v>
@@ -38954,16 +38968,16 @@
         <v>36</v>
       </c>
       <c r="K321" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L321" t="s" s="2">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="M321" t="s" s="2">
-        <v>846</v>
+        <v>835</v>
       </c>
       <c r="N321" t="s" s="2">
-        <v>847</v>
+        <v>836</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>602</v>
@@ -38992,13 +39006,13 @@
         <v>36</v>
       </c>
       <c r="Y321" t="s" s="2">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="Z321" t="s" s="2">
-        <v>36</v>
+        <v>837</v>
       </c>
       <c r="AA321" t="s" s="2">
-        <v>36</v>
+        <v>838</v>
       </c>
       <c r="AB321" t="s" s="2">
         <v>36</v>
@@ -39016,10 +39030,10 @@
         <v>36</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>845</v>
+        <v>834</v>
       </c>
       <c r="AH321" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AI321" t="s" s="2">
         <v>44</v>
@@ -39033,24 +39047,24 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>848</v>
+        <v>785</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
-        <v>855</v>
+        <v>36</v>
       </c>
       <c r="F322" s="2"/>
       <c r="G322" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H322" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I322" t="s" s="2">
         <v>36</v>
@@ -39059,19 +39073,19 @@
         <v>36</v>
       </c>
       <c r="K322" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L322" t="s" s="2">
-        <v>39</v>
+        <v>229</v>
       </c>
       <c r="M322" t="s" s="2">
-        <v>856</v>
+        <v>840</v>
       </c>
       <c r="N322" t="s" s="2">
-        <v>857</v>
+        <v>841</v>
       </c>
       <c r="O322" t="s" s="2">
-        <v>858</v>
+        <v>236</v>
       </c>
       <c r="P322" s="2"/>
       <c r="Q322" t="s" s="2">
@@ -39121,30 +39135,30 @@
         <v>36</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>853</v>
+        <v>839</v>
       </c>
       <c r="AH322" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AI322" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ322" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK322" t="s" s="2">
-        <v>859</v>
+        <v>57</v>
       </c>
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>848</v>
+        <v>785</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>860</v>
+        <v>842</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -39152,7 +39166,7 @@
       </c>
       <c r="F323" s="2"/>
       <c r="G323" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H323" t="s" s="2">
         <v>44</v>
@@ -39167,16 +39181,16 @@
         <v>45</v>
       </c>
       <c r="L323" t="s" s="2">
-        <v>46</v>
+        <v>229</v>
       </c>
       <c r="M323" t="s" s="2">
-        <v>47</v>
+        <v>843</v>
       </c>
       <c r="N323" t="s" s="2">
-        <v>48</v>
+        <v>844</v>
       </c>
       <c r="O323" t="s" s="2">
-        <v>49</v>
+        <v>236</v>
       </c>
       <c r="P323" s="2"/>
       <c r="Q323" t="s" s="2">
@@ -39226,30 +39240,30 @@
         <v>36</v>
       </c>
       <c r="AG323" t="s" s="2">
-        <v>50</v>
+        <v>842</v>
       </c>
       <c r="AH323" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="AI323" t="s" s="2">
         <v>44</v>
       </c>
       <c r="AJ323" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK323" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>848</v>
+        <v>785</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>861</v>
+        <v>845</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -39269,23 +39283,25 @@
         <v>36</v>
       </c>
       <c r="K324" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L324" t="s" s="2">
-        <v>52</v>
+        <v>122</v>
       </c>
       <c r="M324" t="s" s="2">
-        <v>53</v>
+        <v>846</v>
       </c>
       <c r="N324" t="s" s="2">
-        <v>54</v>
+        <v>847</v>
       </c>
       <c r="O324" s="2"/>
       <c r="P324" s="2"/>
       <c r="Q324" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="R324" s="2"/>
+      <c r="R324" t="s" s="2">
+        <v>848</v>
+      </c>
       <c r="S324" t="s" s="2">
         <v>36</v>
       </c>
@@ -39329,7 +39345,7 @@
         <v>36</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>55</v>
+        <v>845</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>37</v>
@@ -39346,13 +39362,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>848</v>
+        <v>785</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>862</v>
+        <v>849</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -39369,22 +39385,22 @@
         <v>36</v>
       </c>
       <c r="J325" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K325" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L325" t="s" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="M325" t="s" s="2">
-        <v>60</v>
+        <v>850</v>
       </c>
       <c r="N325" t="s" s="2">
-        <v>61</v>
+        <v>851</v>
       </c>
       <c r="O325" t="s" s="2">
-        <v>62</v>
+        <v>602</v>
       </c>
       <c r="P325" s="2"/>
       <c r="Q325" t="s" s="2">
@@ -39434,7 +39450,7 @@
         <v>36</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>63</v>
+        <v>849</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>37</v>
@@ -39451,24 +39467,24 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>863</v>
+        <v>857</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
-        <v>36</v>
+        <v>859</v>
       </c>
       <c r="F326" s="2"/>
       <c r="G326" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H326" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I326" t="s" s="2">
         <v>36</v>
@@ -39480,16 +39496,16 @@
         <v>36</v>
       </c>
       <c r="L326" t="s" s="2">
-        <v>65</v>
+        <v>39</v>
       </c>
       <c r="M326" t="s" s="2">
-        <v>66</v>
+        <v>860</v>
       </c>
       <c r="N326" t="s" s="2">
-        <v>67</v>
+        <v>861</v>
       </c>
       <c r="O326" t="s" s="2">
-        <v>68</v>
+        <v>862</v>
       </c>
       <c r="P326" s="2"/>
       <c r="Q326" t="s" s="2">
@@ -39515,13 +39531,13 @@
         <v>36</v>
       </c>
       <c r="Y326" t="s" s="2">
-        <v>69</v>
+        <v>36</v>
       </c>
       <c r="Z326" t="s" s="2">
-        <v>70</v>
+        <v>36</v>
       </c>
       <c r="AA326" t="s" s="2">
-        <v>71</v>
+        <v>36</v>
       </c>
       <c r="AB326" t="s" s="2">
         <v>36</v>
@@ -39539,24 +39555,24 @@
         <v>36</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>72</v>
+        <v>857</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI326" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ326" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK326" t="s" s="2">
-        <v>57</v>
+        <v>863</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B327" t="s" s="2">
         <v>864</v>
@@ -39566,7 +39582,7 @@
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
-        <v>74</v>
+        <v>36</v>
       </c>
       <c r="F327" s="2"/>
       <c r="G327" t="s" s="2">
@@ -39582,19 +39598,19 @@
         <v>36</v>
       </c>
       <c r="K327" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L327" t="s" s="2">
-        <v>75</v>
+        <v>46</v>
       </c>
       <c r="M327" t="s" s="2">
-        <v>76</v>
+        <v>47</v>
       </c>
       <c r="N327" t="s" s="2">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="O327" t="s" s="2">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="P327" s="2"/>
       <c r="Q327" t="s" s="2">
@@ -39644,7 +39660,7 @@
         <v>36</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>37</v>
@@ -39653,15 +39669,15 @@
         <v>44</v>
       </c>
       <c r="AJ327" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK327" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B328" t="s" s="2">
         <v>865</v>
@@ -39671,14 +39687,14 @@
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
-        <v>81</v>
+        <v>36</v>
       </c>
       <c r="F328" s="2"/>
       <c r="G328" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H328" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I328" t="s" s="2">
         <v>36</v>
@@ -39687,20 +39703,18 @@
         <v>36</v>
       </c>
       <c r="K328" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L328" t="s" s="2">
-        <v>82</v>
+        <v>52</v>
       </c>
       <c r="M328" t="s" s="2">
-        <v>83</v>
+        <v>53</v>
       </c>
       <c r="N328" t="s" s="2">
-        <v>84</v>
-      </c>
-      <c r="O328" t="s" s="2">
-        <v>85</v>
-      </c>
+        <v>54</v>
+      </c>
+      <c r="O328" s="2"/>
       <c r="P328" s="2"/>
       <c r="Q328" t="s" s="2">
         <v>36</v>
@@ -39749,24 +39763,24 @@
         <v>36</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>86</v>
+        <v>55</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI328" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ328" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK328" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B329" t="s" s="2">
         <v>866</v>
@@ -39776,35 +39790,35 @@
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F329" s="2"/>
       <c r="G329" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H329" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I329" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J329" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K329" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="M329" t="s" s="2">
-        <v>90</v>
+        <v>60</v>
       </c>
       <c r="N329" t="s" s="2">
-        <v>91</v>
+        <v>61</v>
       </c>
       <c r="O329" t="s" s="2">
-        <v>92</v>
+        <v>62</v>
       </c>
       <c r="P329" s="2"/>
       <c r="Q329" t="s" s="2">
@@ -39842,55 +39856,53 @@
         <v>36</v>
       </c>
       <c r="AC329" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD329" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE329" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF329" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>96</v>
+        <v>63</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI329" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ329" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK329" t="s" s="2">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B330" t="s" s="2">
         <v>867</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>866</v>
-      </c>
-      <c r="D330" t="s" s="2">
-        <v>868</v>
-      </c>
+        <v>867</v>
+      </c>
+      <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
-        <v>869</v>
+        <v>36</v>
       </c>
       <c r="F330" s="2"/>
       <c r="G330" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H330" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I330" t="s" s="2">
         <v>36</v>
@@ -39902,15 +39914,17 @@
         <v>36</v>
       </c>
       <c r="L330" t="s" s="2">
-        <v>870</v>
+        <v>65</v>
       </c>
       <c r="M330" t="s" s="2">
-        <v>132</v>
+        <v>66</v>
       </c>
       <c r="N330" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="O330" s="2"/>
+        <v>67</v>
+      </c>
+      <c r="O330" t="s" s="2">
+        <v>68</v>
+      </c>
       <c r="P330" s="2"/>
       <c r="Q330" t="s" s="2">
         <v>36</v>
@@ -39935,13 +39949,13 @@
         <v>36</v>
       </c>
       <c r="Y330" t="s" s="2">
-        <v>36</v>
+        <v>69</v>
       </c>
       <c r="Z330" t="s" s="2">
-        <v>36</v>
+        <v>70</v>
       </c>
       <c r="AA330" t="s" s="2">
-        <v>36</v>
+        <v>71</v>
       </c>
       <c r="AB330" t="s" s="2">
         <v>36</v>
@@ -39959,66 +39973,64 @@
         <v>36</v>
       </c>
       <c r="AG330" t="s" s="2">
-        <v>96</v>
+        <v>72</v>
       </c>
       <c r="AH330" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI330" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ330" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK330" t="s" s="2">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>872</v>
+        <v>868</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="F331" s="2"/>
       <c r="G331" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H331" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I331" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J331" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K331" t="s" s="2">
         <v>36</v>
       </c>
       <c r="L331" t="s" s="2">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="M331" t="s" s="2">
-        <v>143</v>
+        <v>76</v>
       </c>
       <c r="N331" t="s" s="2">
-        <v>144</v>
+        <v>77</v>
       </c>
       <c r="O331" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="P331" t="s" s="2">
-        <v>145</v>
-      </c>
+        <v>78</v>
+      </c>
+      <c r="P331" s="2"/>
       <c r="Q331" t="s" s="2">
         <v>36</v>
       </c>
@@ -40054,53 +40066,53 @@
         <v>36</v>
       </c>
       <c r="AC331" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD331" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE331" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF331" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG331" t="s" s="2">
-        <v>146</v>
+        <v>79</v>
       </c>
       <c r="AH331" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI331" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ331" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK331" t="s" s="2">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>873</v>
+        <v>869</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
-        <v>36</v>
+        <v>81</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H332" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I332" t="s" s="2">
         <v>36</v>
@@ -40109,21 +40121,21 @@
         <v>36</v>
       </c>
       <c r="K332" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L332" t="s" s="2">
-        <v>148</v>
+        <v>82</v>
       </c>
       <c r="M332" t="s" s="2">
-        <v>874</v>
+        <v>83</v>
       </c>
       <c r="N332" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="O332" s="2"/>
-      <c r="P332" t="s" s="2">
-        <v>876</v>
-      </c>
+        <v>84</v>
+      </c>
+      <c r="O332" t="s" s="2">
+        <v>85</v>
+      </c>
+      <c r="P332" s="2"/>
       <c r="Q332" t="s" s="2">
         <v>36</v>
       </c>
@@ -40159,17 +40171,19 @@
         <v>36</v>
       </c>
       <c r="AC332" t="s" s="2">
-        <v>877</v>
-      </c>
-      <c r="AD332" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AD332" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AE332" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF332" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>873</v>
+        <v>86</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>37</v>
@@ -40178,32 +40192,32 @@
         <v>38</v>
       </c>
       <c r="AJ332" t="s" s="2">
-        <v>878</v>
+        <v>36</v>
       </c>
       <c r="AK332" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>879</v>
+        <v>870</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F333" s="2"/>
       <c r="G333" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H333" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I333" t="s" s="2">
         <v>36</v>
@@ -40215,15 +40229,17 @@
         <v>36</v>
       </c>
       <c r="L333" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M333" t="s" s="2">
-        <v>106</v>
+        <v>90</v>
       </c>
       <c r="N333" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O333" s="2"/>
+        <v>91</v>
+      </c>
+      <c r="O333" t="s" s="2">
+        <v>92</v>
+      </c>
       <c r="P333" s="2"/>
       <c r="Q333" t="s" s="2">
         <v>36</v>
@@ -40260,46 +40276,48 @@
         <v>36</v>
       </c>
       <c r="AC333" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD333" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE333" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF333" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI333" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ333" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK333" t="s" s="2">
-        <v>36</v>
+        <v>97</v>
       </c>
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>880</v>
+        <v>871</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>880</v>
-      </c>
-      <c r="D334" s="2"/>
+        <v>870</v>
+      </c>
+      <c r="D334" t="s" s="2">
+        <v>872</v>
+      </c>
       <c r="E334" t="s" s="2">
-        <v>88</v>
+        <v>873</v>
       </c>
       <c r="F334" s="2"/>
       <c r="G334" t="s" s="2">
@@ -40318,17 +40336,15 @@
         <v>36</v>
       </c>
       <c r="L334" t="s" s="2">
-        <v>89</v>
+        <v>874</v>
       </c>
       <c r="M334" t="s" s="2">
-        <v>90</v>
+        <v>132</v>
       </c>
       <c r="N334" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O334" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>875</v>
+      </c>
+      <c r="O334" s="2"/>
       <c r="P334" s="2"/>
       <c r="Q334" t="s" s="2">
         <v>36</v>
@@ -40365,19 +40381,19 @@
         <v>36</v>
       </c>
       <c r="AC334" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD334" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE334" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF334" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>112</v>
+        <v>96</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>37</v>
@@ -40394,24 +40410,24 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>881</v>
+        <v>876</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F335" s="2"/>
       <c r="G335" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H335" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I335" t="s" s="2">
         <v>36</v>
@@ -40420,22 +40436,22 @@
         <v>45</v>
       </c>
       <c r="K335" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>65</v>
+        <v>89</v>
       </c>
       <c r="M335" t="s" s="2">
-        <v>154</v>
+        <v>143</v>
       </c>
       <c r="N335" t="s" s="2">
-        <v>155</v>
+        <v>144</v>
       </c>
       <c r="O335" t="s" s="2">
-        <v>156</v>
+        <v>92</v>
       </c>
       <c r="P335" t="s" s="2">
-        <v>157</v>
+        <v>145</v>
       </c>
       <c r="Q335" t="s" s="2">
         <v>36</v>
@@ -40460,54 +40476,54 @@
         <v>36</v>
       </c>
       <c r="Y335" t="s" s="2">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="Z335" t="s" s="2">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="AA335" t="s" s="2">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="AB335" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AC335" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD335" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE335" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF335" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>160</v>
+        <v>146</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI335" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ335" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK335" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>882</v>
+        <v>877</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40515,7 +40531,7 @@
       </c>
       <c r="F336" s="2"/>
       <c r="G336" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H336" t="s" s="2">
         <v>44</v>
@@ -40530,19 +40546,17 @@
         <v>45</v>
       </c>
       <c r="L336" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M336" t="s" s="2">
-        <v>163</v>
+        <v>878</v>
       </c>
       <c r="N336" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O336" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="O336" s="2"/>
       <c r="P336" t="s" s="2">
-        <v>166</v>
+        <v>880</v>
       </c>
       <c r="Q336" t="s" s="2">
         <v>36</v>
@@ -40567,40 +40581,38 @@
         <v>36</v>
       </c>
       <c r="Y336" t="s" s="2">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="Z336" t="s" s="2">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="AA336" t="s" s="2">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="AB336" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AC336" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD336" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>881</v>
+      </c>
+      <c r="AD336" s="2"/>
       <c r="AE336" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF336" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>170</v>
+        <v>877</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI336" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ336" t="s" s="2">
-        <v>56</v>
+        <v>882</v>
       </c>
       <c r="AK336" t="s" s="2">
         <v>57</v>
@@ -40608,7 +40620,7 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B337" t="s" s="2">
         <v>883</v>
@@ -40634,23 +40646,19 @@
         <v>36</v>
       </c>
       <c r="K337" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L337" t="s" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="M337" t="s" s="2">
-        <v>884</v>
+        <v>106</v>
       </c>
       <c r="N337" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O337" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P337" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O337" s="2"/>
+      <c r="P337" s="2"/>
       <c r="Q337" t="s" s="2">
         <v>36</v>
       </c>
@@ -40662,7 +40670,7 @@
         <v>36</v>
       </c>
       <c r="U337" t="s" s="2">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="V337" t="s" s="2">
         <v>36</v>
@@ -40698,7 +40706,7 @@
         <v>36</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>37</v>
@@ -40707,32 +40715,32 @@
         <v>44</v>
       </c>
       <c r="AJ337" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK337" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B338" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="C338" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D338" s="2"/>
       <c r="E338" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F338" s="2"/>
       <c r="G338" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H338" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I338" t="s" s="2">
         <v>36</v>
@@ -40741,19 +40749,19 @@
         <v>36</v>
       </c>
       <c r="K338" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L338" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M338" t="s" s="2">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="O338" t="s" s="2">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="P338" s="2"/>
       <c r="Q338" t="s" s="2">
@@ -40767,7 +40775,7 @@
         <v>36</v>
       </c>
       <c r="U338" t="s" s="2">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="V338" t="s" s="2">
         <v>36</v>
@@ -40791,42 +40799,42 @@
         <v>36</v>
       </c>
       <c r="AC338" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD338" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE338" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF338" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG338" t="s" s="2">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="AH338" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI338" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ338" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK338" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B339" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="C339" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D339" s="2"/>
       <c r="E339" t="s" s="2">
@@ -40843,24 +40851,26 @@
         <v>36</v>
       </c>
       <c r="J339" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K339" t="s" s="2">
         <v>45</v>
       </c>
       <c r="L339" t="s" s="2">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="M339" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="N339" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="O339" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P339" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="P339" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="Q339" t="s" s="2">
         <v>36</v>
       </c>
@@ -40884,13 +40894,13 @@
         <v>36</v>
       </c>
       <c r="Y339" t="s" s="2">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="Z339" t="s" s="2">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="AA339" t="s" s="2">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="AB339" t="s" s="2">
         <v>36</v>
@@ -40908,7 +40918,7 @@
         <v>36</v>
       </c>
       <c r="AG339" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="AH339" t="s" s="2">
         <v>37</v>
@@ -40920,18 +40930,18 @@
         <v>56</v>
       </c>
       <c r="AK339" t="s" s="2">
-        <v>190</v>
+        <v>57</v>
       </c>
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B340" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="C340" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D340" s="2"/>
       <c r="E340" t="s" s="2">
@@ -40954,18 +40964,20 @@
         <v>45</v>
       </c>
       <c r="L340" t="s" s="2">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="M340" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="N340" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="O340" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="P340" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="P340" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Q340" t="s" s="2">
         <v>36</v>
       </c>
@@ -40989,13 +41001,13 @@
         <v>36</v>
       </c>
       <c r="Y340" t="s" s="2">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="Z340" t="s" s="2">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="AA340" t="s" s="2">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="AB340" t="s" s="2">
         <v>36</v>
@@ -41013,7 +41025,7 @@
         <v>36</v>
       </c>
       <c r="AG340" t="s" s="2">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="AH340" t="s" s="2">
         <v>37</v>
@@ -41025,24 +41037,22 @@
         <v>56</v>
       </c>
       <c r="AK340" t="s" s="2">
-        <v>197</v>
+        <v>57</v>
       </c>
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B341" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="C341" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="D341" t="s" s="2">
-        <v>889</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c r="D341" s="2"/>
       <c r="E341" t="s" s="2">
-        <v>890</v>
+        <v>36</v>
       </c>
       <c r="F341" s="2"/>
       <c r="G341" t="s" s="2">
@@ -41061,17 +41071,19 @@
         <v>45</v>
       </c>
       <c r="L341" t="s" s="2">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="M341" t="s" s="2">
-        <v>891</v>
+        <v>888</v>
       </c>
       <c r="N341" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="O341" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O341" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P341" t="s" s="2">
-        <v>876</v>
+        <v>175</v>
       </c>
       <c r="Q341" t="s" s="2">
         <v>36</v>
@@ -41084,7 +41096,7 @@
         <v>36</v>
       </c>
       <c r="U341" t="s" s="2">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="V341" t="s" s="2">
         <v>36</v>
@@ -41120,16 +41132,16 @@
         <v>36</v>
       </c>
       <c r="AG341" t="s" s="2">
-        <v>873</v>
+        <v>177</v>
       </c>
       <c r="AH341" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI341" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ341" t="s" s="2">
-        <v>878</v>
+        <v>56</v>
       </c>
       <c r="AK341" t="s" s="2">
         <v>57</v>
@@ -41137,13 +41149,13 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B342" t="s" s="2">
-        <v>892</v>
+        <v>889</v>
       </c>
       <c r="C342" t="s" s="2">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="D342" s="2"/>
       <c r="E342" t="s" s="2">
@@ -41163,18 +41175,20 @@
         <v>36</v>
       </c>
       <c r="K342" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L342" t="s" s="2">
         <v>105</v>
       </c>
       <c r="M342" t="s" s="2">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="N342" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O342" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O342" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P342" s="2"/>
       <c r="Q342" t="s" s="2">
         <v>36</v>
@@ -41187,7 +41201,7 @@
         <v>36</v>
       </c>
       <c r="U342" t="s" s="2">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="V342" t="s" s="2">
         <v>36</v>
@@ -41223,7 +41237,7 @@
         <v>36</v>
       </c>
       <c r="AG342" t="s" s="2">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="AH342" t="s" s="2">
         <v>37</v>
@@ -41232,32 +41246,32 @@
         <v>44</v>
       </c>
       <c r="AJ342" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK342" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="343">
       <c r="A343" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B343" t="s" s="2">
-        <v>893</v>
+        <v>890</v>
       </c>
       <c r="C343" t="s" s="2">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="D343" s="2"/>
       <c r="E343" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F343" s="2"/>
       <c r="G343" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H343" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I343" t="s" s="2">
         <v>36</v>
@@ -41266,19 +41280,19 @@
         <v>36</v>
       </c>
       <c r="K343" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L343" t="s" s="2">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="M343" t="s" s="2">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="N343" t="s" s="2">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="O343" t="s" s="2">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="P343" s="2"/>
       <c r="Q343" t="s" s="2">
@@ -41316,42 +41330,42 @@
         <v>36</v>
       </c>
       <c r="AC343" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD343" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE343" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF343" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG343" t="s" s="2">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="AH343" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI343" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ343" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK343" t="s" s="2">
-        <v>97</v>
+        <v>190</v>
       </c>
     </row>
     <row r="344">
       <c r="A344" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B344" t="s" s="2">
-        <v>894</v>
+        <v>891</v>
       </c>
       <c r="C344" t="s" s="2">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="D344" s="2"/>
       <c r="E344" t="s" s="2">
@@ -41368,26 +41382,24 @@
         <v>36</v>
       </c>
       <c r="J344" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K344" t="s" s="2">
         <v>45</v>
       </c>
       <c r="L344" t="s" s="2">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="M344" t="s" s="2">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="N344" t="s" s="2">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="O344" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="P344" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="P344" s="2"/>
       <c r="Q344" t="s" s="2">
         <v>36</v>
       </c>
@@ -41411,13 +41423,13 @@
         <v>36</v>
       </c>
       <c r="Y344" t="s" s="2">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="Z344" t="s" s="2">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="AA344" t="s" s="2">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="AB344" t="s" s="2">
         <v>36</v>
@@ -41435,7 +41447,7 @@
         <v>36</v>
       </c>
       <c r="AG344" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="AH344" t="s" s="2">
         <v>37</v>
@@ -41447,22 +41459,24 @@
         <v>56</v>
       </c>
       <c r="AK344" t="s" s="2">
-        <v>57</v>
+        <v>197</v>
       </c>
     </row>
     <row r="345">
       <c r="A345" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B345" t="s" s="2">
-        <v>895</v>
+        <v>892</v>
       </c>
       <c r="C345" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="D345" s="2"/>
+        <v>877</v>
+      </c>
+      <c r="D345" t="s" s="2">
+        <v>893</v>
+      </c>
       <c r="E345" t="s" s="2">
-        <v>36</v>
+        <v>894</v>
       </c>
       <c r="F345" s="2"/>
       <c r="G345" t="s" s="2">
@@ -41481,19 +41495,17 @@
         <v>45</v>
       </c>
       <c r="L345" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M345" t="s" s="2">
-        <v>163</v>
+        <v>895</v>
       </c>
       <c r="N345" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O345" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="O345" s="2"/>
       <c r="P345" t="s" s="2">
-        <v>166</v>
+        <v>880</v>
       </c>
       <c r="Q345" t="s" s="2">
         <v>36</v>
@@ -41518,13 +41530,13 @@
         <v>36</v>
       </c>
       <c r="Y345" t="s" s="2">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="Z345" t="s" s="2">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="AA345" t="s" s="2">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="AB345" t="s" s="2">
         <v>36</v>
@@ -41542,16 +41554,16 @@
         <v>36</v>
       </c>
       <c r="AG345" t="s" s="2">
-        <v>170</v>
+        <v>877</v>
       </c>
       <c r="AH345" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI345" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ345" t="s" s="2">
-        <v>56</v>
+        <v>882</v>
       </c>
       <c r="AK345" t="s" s="2">
         <v>57</v>
@@ -41559,7 +41571,7 @@
     </row>
     <row r="346">
       <c r="A346" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B346" t="s" s="2">
         <v>896</v>
@@ -41573,7 +41585,7 @@
       </c>
       <c r="F346" s="2"/>
       <c r="G346" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H346" t="s" s="2">
         <v>44</v>
@@ -41585,35 +41597,31 @@
         <v>36</v>
       </c>
       <c r="K346" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L346" t="s" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="M346" t="s" s="2">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="N346" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O346" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P346" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O346" s="2"/>
+      <c r="P346" s="2"/>
       <c r="Q346" t="s" s="2">
         <v>36</v>
       </c>
       <c r="R346" s="2"/>
       <c r="S346" t="s" s="2">
-        <v>897</v>
+        <v>36</v>
       </c>
       <c r="T346" t="s" s="2">
         <v>36</v>
       </c>
       <c r="U346" t="s" s="2">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="V346" t="s" s="2">
         <v>36</v>
@@ -41649,7 +41657,7 @@
         <v>36</v>
       </c>
       <c r="AG346" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="AH346" t="s" s="2">
         <v>37</v>
@@ -41658,32 +41666,32 @@
         <v>44</v>
       </c>
       <c r="AJ346" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK346" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="347">
       <c r="A347" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B347" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="C347" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D347" s="2"/>
       <c r="E347" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F347" s="2"/>
       <c r="G347" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H347" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I347" t="s" s="2">
         <v>36</v>
@@ -41692,19 +41700,19 @@
         <v>36</v>
       </c>
       <c r="K347" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L347" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M347" t="s" s="2">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="N347" t="s" s="2">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="O347" t="s" s="2">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="P347" s="2"/>
       <c r="Q347" t="s" s="2">
@@ -41718,7 +41726,7 @@
         <v>36</v>
       </c>
       <c r="U347" t="s" s="2">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="V347" t="s" s="2">
         <v>36</v>
@@ -41742,42 +41750,42 @@
         <v>36</v>
       </c>
       <c r="AC347" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD347" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE347" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF347" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG347" t="s" s="2">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="AH347" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI347" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ347" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK347" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="348">
       <c r="A348" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B348" t="s" s="2">
-        <v>899</v>
+        <v>898</v>
       </c>
       <c r="C348" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D348" s="2"/>
       <c r="E348" t="s" s="2">
@@ -41794,24 +41802,26 @@
         <v>36</v>
       </c>
       <c r="J348" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K348" t="s" s="2">
         <v>45</v>
       </c>
       <c r="L348" t="s" s="2">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="M348" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="N348" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="O348" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P348" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="P348" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="Q348" t="s" s="2">
         <v>36</v>
       </c>
@@ -41835,13 +41845,13 @@
         <v>36</v>
       </c>
       <c r="Y348" t="s" s="2">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="Z348" t="s" s="2">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="AA348" t="s" s="2">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="AB348" t="s" s="2">
         <v>36</v>
@@ -41859,7 +41869,7 @@
         <v>36</v>
       </c>
       <c r="AG348" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="AH348" t="s" s="2">
         <v>37</v>
@@ -41871,18 +41881,18 @@
         <v>56</v>
       </c>
       <c r="AK348" t="s" s="2">
-        <v>190</v>
+        <v>57</v>
       </c>
     </row>
     <row r="349">
       <c r="A349" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B349" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="C349" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D349" s="2"/>
       <c r="E349" t="s" s="2">
@@ -41905,18 +41915,20 @@
         <v>45</v>
       </c>
       <c r="L349" t="s" s="2">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="M349" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="N349" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="O349" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="P349" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="P349" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Q349" t="s" s="2">
         <v>36</v>
       </c>
@@ -41940,13 +41952,13 @@
         <v>36</v>
       </c>
       <c r="Y349" t="s" s="2">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="Z349" t="s" s="2">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="AA349" t="s" s="2">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="AB349" t="s" s="2">
         <v>36</v>
@@ -41964,7 +41976,7 @@
         <v>36</v>
       </c>
       <c r="AG349" t="s" s="2">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="AH349" t="s" s="2">
         <v>37</v>
@@ -41976,28 +41988,26 @@
         <v>56</v>
       </c>
       <c r="AK349" t="s" s="2">
-        <v>197</v>
+        <v>57</v>
       </c>
     </row>
     <row r="350">
       <c r="A350" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B350" t="s" s="2">
-        <v>901</v>
+        <v>900</v>
       </c>
       <c r="C350" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="D350" t="s" s="2">
-        <v>902</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c r="D350" s="2"/>
       <c r="E350" t="s" s="2">
         <v>36</v>
       </c>
       <c r="F350" s="2"/>
       <c r="G350" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H350" t="s" s="2">
         <v>44</v>
@@ -42012,30 +42022,32 @@
         <v>45</v>
       </c>
       <c r="L350" t="s" s="2">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="M350" t="s" s="2">
-        <v>903</v>
+        <v>172</v>
       </c>
       <c r="N350" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="O350" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O350" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P350" t="s" s="2">
-        <v>876</v>
+        <v>175</v>
       </c>
       <c r="Q350" t="s" s="2">
         <v>36</v>
       </c>
       <c r="R350" s="2"/>
       <c r="S350" t="s" s="2">
-        <v>36</v>
+        <v>901</v>
       </c>
       <c r="T350" t="s" s="2">
         <v>36</v>
       </c>
       <c r="U350" t="s" s="2">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="V350" t="s" s="2">
         <v>36</v>
@@ -42071,16 +42083,16 @@
         <v>36</v>
       </c>
       <c r="AG350" t="s" s="2">
-        <v>873</v>
+        <v>177</v>
       </c>
       <c r="AH350" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI350" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ350" t="s" s="2">
-        <v>878</v>
+        <v>56</v>
       </c>
       <c r="AK350" t="s" s="2">
         <v>57</v>
@@ -42088,13 +42100,13 @@
     </row>
     <row r="351">
       <c r="A351" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B351" t="s" s="2">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="C351" t="s" s="2">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="D351" s="2"/>
       <c r="E351" t="s" s="2">
@@ -42102,7 +42114,7 @@
       </c>
       <c r="F351" s="2"/>
       <c r="G351" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H351" t="s" s="2">
         <v>44</v>
@@ -42114,18 +42126,20 @@
         <v>36</v>
       </c>
       <c r="K351" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L351" t="s" s="2">
         <v>105</v>
       </c>
       <c r="M351" t="s" s="2">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="N351" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O351" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O351" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P351" s="2"/>
       <c r="Q351" t="s" s="2">
         <v>36</v>
@@ -42138,7 +42152,7 @@
         <v>36</v>
       </c>
       <c r="U351" t="s" s="2">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="V351" t="s" s="2">
         <v>36</v>
@@ -42174,7 +42188,7 @@
         <v>36</v>
       </c>
       <c r="AG351" t="s" s="2">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="AH351" t="s" s="2">
         <v>37</v>
@@ -42183,32 +42197,32 @@
         <v>44</v>
       </c>
       <c r="AJ351" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK351" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="352">
       <c r="A352" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B352" t="s" s="2">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="C352" t="s" s="2">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="D352" s="2"/>
       <c r="E352" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F352" s="2"/>
       <c r="G352" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H352" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I352" t="s" s="2">
         <v>36</v>
@@ -42217,19 +42231,19 @@
         <v>36</v>
       </c>
       <c r="K352" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L352" t="s" s="2">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="M352" t="s" s="2">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="N352" t="s" s="2">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="O352" t="s" s="2">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="P352" s="2"/>
       <c r="Q352" t="s" s="2">
@@ -42267,42 +42281,42 @@
         <v>36</v>
       </c>
       <c r="AC352" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD352" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE352" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF352" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG352" t="s" s="2">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="AH352" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI352" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ352" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK352" t="s" s="2">
-        <v>97</v>
+        <v>190</v>
       </c>
     </row>
     <row r="353">
       <c r="A353" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B353" t="s" s="2">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="C353" t="s" s="2">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="D353" s="2"/>
       <c r="E353" t="s" s="2">
@@ -42319,26 +42333,24 @@
         <v>36</v>
       </c>
       <c r="J353" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K353" t="s" s="2">
         <v>45</v>
       </c>
       <c r="L353" t="s" s="2">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="M353" t="s" s="2">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="N353" t="s" s="2">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="O353" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="P353" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="P353" s="2"/>
       <c r="Q353" t="s" s="2">
         <v>36</v>
       </c>
@@ -42362,13 +42374,13 @@
         <v>36</v>
       </c>
       <c r="Y353" t="s" s="2">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="Z353" t="s" s="2">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="AA353" t="s" s="2">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="AB353" t="s" s="2">
         <v>36</v>
@@ -42386,7 +42398,7 @@
         <v>36</v>
       </c>
       <c r="AG353" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="AH353" t="s" s="2">
         <v>37</v>
@@ -42398,20 +42410,22 @@
         <v>56</v>
       </c>
       <c r="AK353" t="s" s="2">
-        <v>57</v>
+        <v>197</v>
       </c>
     </row>
     <row r="354">
       <c r="A354" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B354" t="s" s="2">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="C354" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="D354" s="2"/>
+        <v>877</v>
+      </c>
+      <c r="D354" t="s" s="2">
+        <v>906</v>
+      </c>
       <c r="E354" t="s" s="2">
         <v>36</v>
       </c>
@@ -42432,19 +42446,17 @@
         <v>45</v>
       </c>
       <c r="L354" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M354" t="s" s="2">
-        <v>163</v>
+        <v>907</v>
       </c>
       <c r="N354" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O354" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>879</v>
+      </c>
+      <c r="O354" s="2"/>
       <c r="P354" t="s" s="2">
-        <v>166</v>
+        <v>880</v>
       </c>
       <c r="Q354" t="s" s="2">
         <v>36</v>
@@ -42469,13 +42481,13 @@
         <v>36</v>
       </c>
       <c r="Y354" t="s" s="2">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="Z354" t="s" s="2">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="AA354" t="s" s="2">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="AB354" t="s" s="2">
         <v>36</v>
@@ -42493,16 +42505,16 @@
         <v>36</v>
       </c>
       <c r="AG354" t="s" s="2">
-        <v>170</v>
+        <v>877</v>
       </c>
       <c r="AH354" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI354" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ354" t="s" s="2">
-        <v>56</v>
+        <v>882</v>
       </c>
       <c r="AK354" t="s" s="2">
         <v>57</v>
@@ -42510,7 +42522,7 @@
     </row>
     <row r="355">
       <c r="A355" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B355" t="s" s="2">
         <v>908</v>
@@ -42524,7 +42536,7 @@
       </c>
       <c r="F355" s="2"/>
       <c r="G355" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H355" t="s" s="2">
         <v>44</v>
@@ -42536,35 +42548,31 @@
         <v>36</v>
       </c>
       <c r="K355" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L355" t="s" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="M355" t="s" s="2">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="N355" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O355" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P355" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O355" s="2"/>
+      <c r="P355" s="2"/>
       <c r="Q355" t="s" s="2">
         <v>36</v>
       </c>
       <c r="R355" s="2"/>
       <c r="S355" t="s" s="2">
-        <v>909</v>
+        <v>36</v>
       </c>
       <c r="T355" t="s" s="2">
         <v>36</v>
       </c>
       <c r="U355" t="s" s="2">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="V355" t="s" s="2">
         <v>36</v>
@@ -42600,7 +42608,7 @@
         <v>36</v>
       </c>
       <c r="AG355" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="AH355" t="s" s="2">
         <v>37</v>
@@ -42609,32 +42617,32 @@
         <v>44</v>
       </c>
       <c r="AJ355" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK355" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="356">
       <c r="A356" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B356" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="C356" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D356" s="2"/>
       <c r="E356" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F356" s="2"/>
       <c r="G356" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H356" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I356" t="s" s="2">
         <v>36</v>
@@ -42643,19 +42651,19 @@
         <v>36</v>
       </c>
       <c r="K356" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L356" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M356" t="s" s="2">
-        <v>179</v>
+        <v>90</v>
       </c>
       <c r="N356" t="s" s="2">
-        <v>180</v>
+        <v>111</v>
       </c>
       <c r="O356" t="s" s="2">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="P356" s="2"/>
       <c r="Q356" t="s" s="2">
@@ -42669,7 +42677,7 @@
         <v>36</v>
       </c>
       <c r="U356" t="s" s="2">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="V356" t="s" s="2">
         <v>36</v>
@@ -42693,42 +42701,42 @@
         <v>36</v>
       </c>
       <c r="AC356" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD356" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE356" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF356" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG356" t="s" s="2">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="AH356" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI356" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ356" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK356" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="357">
       <c r="A357" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B357" t="s" s="2">
-        <v>911</v>
+        <v>910</v>
       </c>
       <c r="C357" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D357" s="2"/>
       <c r="E357" t="s" s="2">
@@ -42745,24 +42753,26 @@
         <v>36</v>
       </c>
       <c r="J357" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K357" t="s" s="2">
         <v>45</v>
       </c>
       <c r="L357" t="s" s="2">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="M357" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="N357" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="O357" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P357" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="P357" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="Q357" t="s" s="2">
         <v>36</v>
       </c>
@@ -42786,13 +42796,13 @@
         <v>36</v>
       </c>
       <c r="Y357" t="s" s="2">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="Z357" t="s" s="2">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="AA357" t="s" s="2">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="AB357" t="s" s="2">
         <v>36</v>
@@ -42810,7 +42820,7 @@
         <v>36</v>
       </c>
       <c r="AG357" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="AH357" t="s" s="2">
         <v>37</v>
@@ -42822,18 +42832,18 @@
         <v>56</v>
       </c>
       <c r="AK357" t="s" s="2">
-        <v>190</v>
+        <v>57</v>
       </c>
     </row>
     <row r="358">
       <c r="A358" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B358" t="s" s="2">
-        <v>912</v>
+        <v>911</v>
       </c>
       <c r="C358" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D358" s="2"/>
       <c r="E358" t="s" s="2">
@@ -42856,18 +42866,20 @@
         <v>45</v>
       </c>
       <c r="L358" t="s" s="2">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="M358" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="N358" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="O358" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="P358" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="P358" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Q358" t="s" s="2">
         <v>36</v>
       </c>
@@ -42891,13 +42903,13 @@
         <v>36</v>
       </c>
       <c r="Y358" t="s" s="2">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="Z358" t="s" s="2">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="AA358" t="s" s="2">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="AB358" t="s" s="2">
         <v>36</v>
@@ -42915,7 +42927,7 @@
         <v>36</v>
       </c>
       <c r="AG358" t="s" s="2">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="AH358" t="s" s="2">
         <v>37</v>
@@ -42927,22 +42939,20 @@
         <v>56</v>
       </c>
       <c r="AK358" t="s" s="2">
-        <v>197</v>
+        <v>57</v>
       </c>
     </row>
     <row r="359">
       <c r="A359" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B359" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="C359" t="s" s="2">
-        <v>873</v>
-      </c>
-      <c r="D359" t="s" s="2">
-        <v>914</v>
-      </c>
+        <v>887</v>
+      </c>
+      <c r="D359" s="2"/>
       <c r="E359" t="s" s="2">
         <v>36</v>
       </c>
@@ -42963,30 +42973,32 @@
         <v>45</v>
       </c>
       <c r="L359" t="s" s="2">
-        <v>148</v>
+        <v>59</v>
       </c>
       <c r="M359" t="s" s="2">
-        <v>874</v>
+        <v>172</v>
       </c>
       <c r="N359" t="s" s="2">
-        <v>915</v>
-      </c>
-      <c r="O359" s="2"/>
+        <v>173</v>
+      </c>
+      <c r="O359" t="s" s="2">
+        <v>174</v>
+      </c>
       <c r="P359" t="s" s="2">
-        <v>876</v>
+        <v>175</v>
       </c>
       <c r="Q359" t="s" s="2">
         <v>36</v>
       </c>
       <c r="R359" s="2"/>
       <c r="S359" t="s" s="2">
-        <v>36</v>
+        <v>913</v>
       </c>
       <c r="T359" t="s" s="2">
         <v>36</v>
       </c>
       <c r="U359" t="s" s="2">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="V359" t="s" s="2">
         <v>36</v>
@@ -43022,16 +43034,16 @@
         <v>36</v>
       </c>
       <c r="AG359" t="s" s="2">
-        <v>873</v>
+        <v>177</v>
       </c>
       <c r="AH359" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI359" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ359" t="s" s="2">
-        <v>878</v>
+        <v>56</v>
       </c>
       <c r="AK359" t="s" s="2">
         <v>57</v>
@@ -43039,13 +43051,13 @@
     </row>
     <row r="360">
       <c r="A360" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B360" t="s" s="2">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="C360" t="s" s="2">
-        <v>879</v>
+        <v>889</v>
       </c>
       <c r="D360" s="2"/>
       <c r="E360" t="s" s="2">
@@ -43053,7 +43065,7 @@
       </c>
       <c r="F360" s="2"/>
       <c r="G360" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H360" t="s" s="2">
         <v>44</v>
@@ -43065,18 +43077,20 @@
         <v>36</v>
       </c>
       <c r="K360" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L360" t="s" s="2">
         <v>105</v>
       </c>
       <c r="M360" t="s" s="2">
-        <v>106</v>
+        <v>179</v>
       </c>
       <c r="N360" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O360" s="2"/>
+        <v>180</v>
+      </c>
+      <c r="O360" t="s" s="2">
+        <v>181</v>
+      </c>
       <c r="P360" s="2"/>
       <c r="Q360" t="s" s="2">
         <v>36</v>
@@ -43089,7 +43103,7 @@
         <v>36</v>
       </c>
       <c r="U360" t="s" s="2">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="V360" t="s" s="2">
         <v>36</v>
@@ -43125,7 +43139,7 @@
         <v>36</v>
       </c>
       <c r="AG360" t="s" s="2">
-        <v>108</v>
+        <v>183</v>
       </c>
       <c r="AH360" t="s" s="2">
         <v>37</v>
@@ -43134,32 +43148,32 @@
         <v>44</v>
       </c>
       <c r="AJ360" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK360" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="361">
       <c r="A361" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B361" t="s" s="2">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="C361" t="s" s="2">
-        <v>880</v>
+        <v>890</v>
       </c>
       <c r="D361" s="2"/>
       <c r="E361" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F361" s="2"/>
       <c r="G361" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H361" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I361" t="s" s="2">
         <v>36</v>
@@ -43168,19 +43182,19 @@
         <v>36</v>
       </c>
       <c r="K361" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L361" t="s" s="2">
-        <v>89</v>
+        <v>185</v>
       </c>
       <c r="M361" t="s" s="2">
-        <v>90</v>
+        <v>186</v>
       </c>
       <c r="N361" t="s" s="2">
-        <v>111</v>
+        <v>187</v>
       </c>
       <c r="O361" t="s" s="2">
-        <v>92</v>
+        <v>188</v>
       </c>
       <c r="P361" s="2"/>
       <c r="Q361" t="s" s="2">
@@ -43218,42 +43232,42 @@
         <v>36</v>
       </c>
       <c r="AC361" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD361" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE361" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF361" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG361" t="s" s="2">
-        <v>112</v>
+        <v>189</v>
       </c>
       <c r="AH361" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI361" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ361" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK361" t="s" s="2">
-        <v>97</v>
+        <v>190</v>
       </c>
     </row>
     <row r="362">
       <c r="A362" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B362" t="s" s="2">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="C362" t="s" s="2">
-        <v>881</v>
+        <v>891</v>
       </c>
       <c r="D362" s="2"/>
       <c r="E362" t="s" s="2">
@@ -43270,26 +43284,24 @@
         <v>36</v>
       </c>
       <c r="J362" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K362" t="s" s="2">
         <v>45</v>
       </c>
       <c r="L362" t="s" s="2">
-        <v>65</v>
+        <v>192</v>
       </c>
       <c r="M362" t="s" s="2">
-        <v>154</v>
+        <v>193</v>
       </c>
       <c r="N362" t="s" s="2">
-        <v>155</v>
+        <v>194</v>
       </c>
       <c r="O362" t="s" s="2">
-        <v>156</v>
-      </c>
-      <c r="P362" t="s" s="2">
-        <v>157</v>
-      </c>
+        <v>195</v>
+      </c>
+      <c r="P362" s="2"/>
       <c r="Q362" t="s" s="2">
         <v>36</v>
       </c>
@@ -43313,13 +43325,13 @@
         <v>36</v>
       </c>
       <c r="Y362" t="s" s="2">
-        <v>140</v>
+        <v>36</v>
       </c>
       <c r="Z362" t="s" s="2">
-        <v>158</v>
+        <v>36</v>
       </c>
       <c r="AA362" t="s" s="2">
-        <v>159</v>
+        <v>36</v>
       </c>
       <c r="AB362" t="s" s="2">
         <v>36</v>
@@ -43337,7 +43349,7 @@
         <v>36</v>
       </c>
       <c r="AG362" t="s" s="2">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="AH362" t="s" s="2">
         <v>37</v>
@@ -43349,26 +43361,28 @@
         <v>56</v>
       </c>
       <c r="AK362" t="s" s="2">
-        <v>57</v>
+        <v>197</v>
       </c>
     </row>
     <row r="363">
       <c r="A363" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B363" t="s" s="2">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="C363" t="s" s="2">
-        <v>882</v>
-      </c>
-      <c r="D363" s="2"/>
+        <v>877</v>
+      </c>
+      <c r="D363" t="s" s="2">
+        <v>918</v>
+      </c>
       <c r="E363" t="s" s="2">
         <v>36</v>
       </c>
       <c r="F363" s="2"/>
       <c r="G363" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H363" t="s" s="2">
         <v>44</v>
@@ -43383,19 +43397,17 @@
         <v>45</v>
       </c>
       <c r="L363" t="s" s="2">
-        <v>162</v>
+        <v>148</v>
       </c>
       <c r="M363" t="s" s="2">
-        <v>163</v>
+        <v>878</v>
       </c>
       <c r="N363" t="s" s="2">
-        <v>164</v>
-      </c>
-      <c r="O363" t="s" s="2">
-        <v>165</v>
-      </c>
+        <v>919</v>
+      </c>
+      <c r="O363" s="2"/>
       <c r="P363" t="s" s="2">
-        <v>166</v>
+        <v>880</v>
       </c>
       <c r="Q363" t="s" s="2">
         <v>36</v>
@@ -43420,13 +43432,13 @@
         <v>36</v>
       </c>
       <c r="Y363" t="s" s="2">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="Z363" t="s" s="2">
-        <v>168</v>
+        <v>36</v>
       </c>
       <c r="AA363" t="s" s="2">
-        <v>169</v>
+        <v>36</v>
       </c>
       <c r="AB363" t="s" s="2">
         <v>36</v>
@@ -43444,16 +43456,16 @@
         <v>36</v>
       </c>
       <c r="AG363" t="s" s="2">
-        <v>170</v>
+        <v>877</v>
       </c>
       <c r="AH363" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI363" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ363" t="s" s="2">
-        <v>56</v>
+        <v>882</v>
       </c>
       <c r="AK363" t="s" s="2">
         <v>57</v>
@@ -43461,7 +43473,7 @@
     </row>
     <row r="364">
       <c r="A364" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B364" t="s" s="2">
         <v>920</v>
@@ -43475,7 +43487,7 @@
       </c>
       <c r="F364" s="2"/>
       <c r="G364" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H364" t="s" s="2">
         <v>44</v>
@@ -43487,35 +43499,31 @@
         <v>36</v>
       </c>
       <c r="K364" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L364" t="s" s="2">
-        <v>59</v>
+        <v>105</v>
       </c>
       <c r="M364" t="s" s="2">
-        <v>921</v>
+        <v>106</v>
       </c>
       <c r="N364" t="s" s="2">
-        <v>173</v>
-      </c>
-      <c r="O364" t="s" s="2">
-        <v>174</v>
-      </c>
-      <c r="P364" t="s" s="2">
-        <v>175</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O364" s="2"/>
+      <c r="P364" s="2"/>
       <c r="Q364" t="s" s="2">
         <v>36</v>
       </c>
       <c r="R364" s="2"/>
       <c r="S364" t="s" s="2">
-        <v>922</v>
+        <v>36</v>
       </c>
       <c r="T364" t="s" s="2">
         <v>36</v>
       </c>
       <c r="U364" t="s" s="2">
-        <v>176</v>
+        <v>36</v>
       </c>
       <c r="V364" t="s" s="2">
         <v>36</v>
@@ -43551,7 +43559,7 @@
         <v>36</v>
       </c>
       <c r="AG364" t="s" s="2">
-        <v>177</v>
+        <v>108</v>
       </c>
       <c r="AH364" t="s" s="2">
         <v>37</v>
@@ -43560,32 +43568,32 @@
         <v>44</v>
       </c>
       <c r="AJ364" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK364" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="365">
       <c r="A365" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B365" t="s" s="2">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="C365" t="s" s="2">
-        <v>885</v>
+        <v>884</v>
       </c>
       <c r="D365" s="2"/>
       <c r="E365" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F365" s="2"/>
       <c r="G365" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H365" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I365" t="s" s="2">
         <v>36</v>
@@ -43594,19 +43602,19 @@
         <v>36</v>
       </c>
       <c r="K365" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L365" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M365" t="s" s="2">
-        <v>924</v>
+        <v>90</v>
       </c>
       <c r="N365" t="s" s="2">
-        <v>924</v>
+        <v>111</v>
       </c>
       <c r="O365" t="s" s="2">
-        <v>181</v>
+        <v>92</v>
       </c>
       <c r="P365" s="2"/>
       <c r="Q365" t="s" s="2">
@@ -43620,7 +43628,7 @@
         <v>36</v>
       </c>
       <c r="U365" t="s" s="2">
-        <v>182</v>
+        <v>36</v>
       </c>
       <c r="V365" t="s" s="2">
         <v>36</v>
@@ -43644,42 +43652,42 @@
         <v>36</v>
       </c>
       <c r="AC365" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD365" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE365" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF365" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG365" t="s" s="2">
-        <v>183</v>
+        <v>112</v>
       </c>
       <c r="AH365" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI365" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ365" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK365" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="366">
       <c r="A366" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B366" t="s" s="2">
-        <v>925</v>
+        <v>922</v>
       </c>
       <c r="C366" t="s" s="2">
-        <v>886</v>
+        <v>885</v>
       </c>
       <c r="D366" s="2"/>
       <c r="E366" t="s" s="2">
@@ -43696,24 +43704,26 @@
         <v>36</v>
       </c>
       <c r="J366" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K366" t="s" s="2">
         <v>45</v>
       </c>
       <c r="L366" t="s" s="2">
-        <v>185</v>
+        <v>65</v>
       </c>
       <c r="M366" t="s" s="2">
-        <v>186</v>
+        <v>154</v>
       </c>
       <c r="N366" t="s" s="2">
-        <v>187</v>
+        <v>155</v>
       </c>
       <c r="O366" t="s" s="2">
-        <v>188</v>
-      </c>
-      <c r="P366" s="2"/>
+        <v>156</v>
+      </c>
+      <c r="P366" t="s" s="2">
+        <v>157</v>
+      </c>
       <c r="Q366" t="s" s="2">
         <v>36</v>
       </c>
@@ -43737,13 +43747,13 @@
         <v>36</v>
       </c>
       <c r="Y366" t="s" s="2">
-        <v>36</v>
+        <v>140</v>
       </c>
       <c r="Z366" t="s" s="2">
-        <v>36</v>
+        <v>158</v>
       </c>
       <c r="AA366" t="s" s="2">
-        <v>36</v>
+        <v>159</v>
       </c>
       <c r="AB366" t="s" s="2">
         <v>36</v>
@@ -43761,7 +43771,7 @@
         <v>36</v>
       </c>
       <c r="AG366" t="s" s="2">
-        <v>189</v>
+        <v>160</v>
       </c>
       <c r="AH366" t="s" s="2">
         <v>37</v>
@@ -43773,18 +43783,18 @@
         <v>56</v>
       </c>
       <c r="AK366" t="s" s="2">
-        <v>190</v>
+        <v>57</v>
       </c>
     </row>
     <row r="367">
       <c r="A367" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B367" t="s" s="2">
-        <v>926</v>
+        <v>923</v>
       </c>
       <c r="C367" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="D367" s="2"/>
       <c r="E367" t="s" s="2">
@@ -43807,18 +43817,20 @@
         <v>45</v>
       </c>
       <c r="L367" t="s" s="2">
-        <v>192</v>
+        <v>162</v>
       </c>
       <c r="M367" t="s" s="2">
-        <v>193</v>
+        <v>163</v>
       </c>
       <c r="N367" t="s" s="2">
-        <v>194</v>
+        <v>164</v>
       </c>
       <c r="O367" t="s" s="2">
-        <v>195</v>
-      </c>
-      <c r="P367" s="2"/>
+        <v>165</v>
+      </c>
+      <c r="P367" t="s" s="2">
+        <v>166</v>
+      </c>
       <c r="Q367" t="s" s="2">
         <v>36</v>
       </c>
@@ -43842,13 +43854,13 @@
         <v>36</v>
       </c>
       <c r="Y367" t="s" s="2">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="Z367" t="s" s="2">
-        <v>36</v>
+        <v>168</v>
       </c>
       <c r="AA367" t="s" s="2">
-        <v>36</v>
+        <v>169</v>
       </c>
       <c r="AB367" t="s" s="2">
         <v>36</v>
@@ -43866,7 +43878,7 @@
         <v>36</v>
       </c>
       <c r="AG367" t="s" s="2">
-        <v>196</v>
+        <v>170</v>
       </c>
       <c r="AH367" t="s" s="2">
         <v>37</v>
@@ -43878,18 +43890,18 @@
         <v>56</v>
       </c>
       <c r="AK367" t="s" s="2">
-        <v>197</v>
+        <v>57</v>
       </c>
     </row>
     <row r="368">
       <c r="A368" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B368" t="s" s="2">
-        <v>927</v>
+        <v>924</v>
       </c>
       <c r="C368" t="s" s="2">
-        <v>927</v>
+        <v>887</v>
       </c>
       <c r="D368" s="2"/>
       <c r="E368" t="s" s="2">
@@ -43897,7 +43909,7 @@
       </c>
       <c r="F368" s="2"/>
       <c r="G368" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H368" t="s" s="2">
         <v>44</v>
@@ -43906,40 +43918,38 @@
         <v>36</v>
       </c>
       <c r="J368" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K368" t="s" s="2">
         <v>45</v>
       </c>
       <c r="L368" t="s" s="2">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="M368" t="s" s="2">
-        <v>928</v>
+        <v>925</v>
       </c>
       <c r="N368" t="s" s="2">
-        <v>929</v>
+        <v>173</v>
       </c>
       <c r="O368" t="s" s="2">
-        <v>930</v>
+        <v>174</v>
       </c>
       <c r="P368" t="s" s="2">
-        <v>931</v>
+        <v>175</v>
       </c>
       <c r="Q368" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="R368" t="s" s="2">
-        <v>747</v>
-      </c>
+      <c r="R368" s="2"/>
       <c r="S368" t="s" s="2">
-        <v>36</v>
+        <v>926</v>
       </c>
       <c r="T368" t="s" s="2">
         <v>36</v>
       </c>
       <c r="U368" t="s" s="2">
-        <v>36</v>
+        <v>176</v>
       </c>
       <c r="V368" t="s" s="2">
         <v>36</v>
@@ -43975,7 +43985,7 @@
         <v>36</v>
       </c>
       <c r="AG368" t="s" s="2">
-        <v>927</v>
+        <v>177</v>
       </c>
       <c r="AH368" t="s" s="2">
         <v>37</v>
@@ -43992,17 +44002,17 @@
     </row>
     <row r="369">
       <c r="A369" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B369" t="s" s="2">
-        <v>932</v>
+        <v>927</v>
       </c>
       <c r="C369" t="s" s="2">
-        <v>932</v>
+        <v>889</v>
       </c>
       <c r="D369" s="2"/>
       <c r="E369" t="s" s="2">
-        <v>933</v>
+        <v>36</v>
       </c>
       <c r="F369" s="2"/>
       <c r="G369" t="s" s="2">
@@ -44021,20 +44031,18 @@
         <v>45</v>
       </c>
       <c r="L369" t="s" s="2">
-        <v>162</v>
+        <v>105</v>
       </c>
       <c r="M369" t="s" s="2">
-        <v>934</v>
+        <v>928</v>
       </c>
       <c r="N369" t="s" s="2">
-        <v>935</v>
+        <v>928</v>
       </c>
       <c r="O369" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="P369" t="s" s="2">
-        <v>937</v>
-      </c>
+        <v>181</v>
+      </c>
+      <c r="P369" s="2"/>
       <c r="Q369" t="s" s="2">
         <v>36</v>
       </c>
@@ -44046,7 +44054,7 @@
         <v>36</v>
       </c>
       <c r="U369" t="s" s="2">
-        <v>36</v>
+        <v>182</v>
       </c>
       <c r="V369" t="s" s="2">
         <v>36</v>
@@ -44058,35 +44066,37 @@
         <v>36</v>
       </c>
       <c r="Y369" t="s" s="2">
-        <v>348</v>
+        <v>36</v>
       </c>
       <c r="Z369" t="s" s="2">
-        <v>938</v>
+        <v>36</v>
       </c>
       <c r="AA369" t="s" s="2">
-        <v>939</v>
+        <v>36</v>
       </c>
       <c r="AB369" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AC369" t="s" s="2">
-        <v>940</v>
-      </c>
-      <c r="AD369" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="AD369" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AE369" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF369" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG369" t="s" s="2">
-        <v>932</v>
+        <v>183</v>
       </c>
       <c r="AH369" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI369" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ369" t="s" s="2">
         <v>56</v>
@@ -44097,17 +44107,15 @@
     </row>
     <row r="370">
       <c r="A370" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B370" t="s" s="2">
-        <v>941</v>
+        <v>929</v>
       </c>
       <c r="C370" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="D370" t="s" s="2">
-        <v>942</v>
-      </c>
+        <v>890</v>
+      </c>
+      <c r="D370" s="2"/>
       <c r="E370" t="s" s="2">
         <v>36</v>
       </c>
@@ -44128,20 +44136,18 @@
         <v>45</v>
       </c>
       <c r="L370" t="s" s="2">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="M370" t="s" s="2">
-        <v>943</v>
+        <v>186</v>
       </c>
       <c r="N370" t="s" s="2">
-        <v>944</v>
+        <v>187</v>
       </c>
       <c r="O370" t="s" s="2">
-        <v>936</v>
-      </c>
-      <c r="P370" t="s" s="2">
-        <v>937</v>
-      </c>
+        <v>188</v>
+      </c>
+      <c r="P370" s="2"/>
       <c r="Q370" t="s" s="2">
         <v>36</v>
       </c>
@@ -44165,11 +44171,13 @@
         <v>36</v>
       </c>
       <c r="Y370" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="Z370" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="Z370" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AA370" t="s" s="2">
-        <v>945</v>
+        <v>36</v>
       </c>
       <c r="AB370" t="s" s="2">
         <v>36</v>
@@ -44187,30 +44195,30 @@
         <v>36</v>
       </c>
       <c r="AG370" t="s" s="2">
-        <v>932</v>
+        <v>189</v>
       </c>
       <c r="AH370" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI370" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ370" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK370" t="s" s="2">
-        <v>57</v>
+        <v>190</v>
       </c>
     </row>
     <row r="371">
       <c r="A371" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B371" t="s" s="2">
-        <v>946</v>
+        <v>930</v>
       </c>
       <c r="C371" t="s" s="2">
-        <v>947</v>
+        <v>891</v>
       </c>
       <c r="D371" s="2"/>
       <c r="E371" t="s" s="2">
@@ -44230,18 +44238,20 @@
         <v>36</v>
       </c>
       <c r="K371" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L371" t="s" s="2">
-        <v>105</v>
+        <v>192</v>
       </c>
       <c r="M371" t="s" s="2">
-        <v>106</v>
+        <v>193</v>
       </c>
       <c r="N371" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O371" s="2"/>
+        <v>194</v>
+      </c>
+      <c r="O371" t="s" s="2">
+        <v>195</v>
+      </c>
       <c r="P371" s="2"/>
       <c r="Q371" t="s" s="2">
         <v>36</v>
@@ -44290,7 +44300,7 @@
         <v>36</v>
       </c>
       <c r="AG371" t="s" s="2">
-        <v>108</v>
+        <v>196</v>
       </c>
       <c r="AH371" t="s" s="2">
         <v>37</v>
@@ -44299,59 +44309,63 @@
         <v>44</v>
       </c>
       <c r="AJ371" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK371" t="s" s="2">
-        <v>36</v>
+        <v>197</v>
       </c>
     </row>
     <row r="372">
       <c r="A372" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B372" t="s" s="2">
-        <v>948</v>
+        <v>931</v>
       </c>
       <c r="C372" t="s" s="2">
-        <v>949</v>
+        <v>931</v>
       </c>
       <c r="D372" s="2"/>
       <c r="E372" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F372" s="2"/>
       <c r="G372" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H372" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I372" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J372" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K372" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L372" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="M372" t="s" s="2">
-        <v>90</v>
+        <v>932</v>
       </c>
       <c r="N372" t="s" s="2">
-        <v>111</v>
+        <v>933</v>
       </c>
       <c r="O372" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="P372" s="2"/>
+        <v>934</v>
+      </c>
+      <c r="P372" t="s" s="2">
+        <v>935</v>
+      </c>
       <c r="Q372" t="s" s="2">
         <v>36</v>
       </c>
-      <c r="R372" s="2"/>
+      <c r="R372" t="s" s="2">
+        <v>747</v>
+      </c>
       <c r="S372" t="s" s="2">
         <v>36</v>
       </c>
@@ -44383,53 +44397,53 @@
         <v>36</v>
       </c>
       <c r="AC372" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD372" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE372" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF372" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG372" t="s" s="2">
-        <v>112</v>
+        <v>931</v>
       </c>
       <c r="AH372" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI372" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ372" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK372" t="s" s="2">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="373">
       <c r="A373" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B373" t="s" s="2">
-        <v>950</v>
+        <v>936</v>
       </c>
       <c r="C373" t="s" s="2">
-        <v>951</v>
+        <v>936</v>
       </c>
       <c r="D373" s="2"/>
       <c r="E373" t="s" s="2">
-        <v>36</v>
+        <v>937</v>
       </c>
       <c r="F373" s="2"/>
       <c r="G373" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H373" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I373" t="s" s="2">
         <v>36</v>
@@ -44441,19 +44455,19 @@
         <v>45</v>
       </c>
       <c r="L373" t="s" s="2">
-        <v>137</v>
+        <v>162</v>
       </c>
       <c r="M373" t="s" s="2">
-        <v>246</v>
+        <v>938</v>
       </c>
       <c r="N373" t="s" s="2">
-        <v>247</v>
+        <v>939</v>
       </c>
       <c r="O373" t="s" s="2">
-        <v>248</v>
+        <v>940</v>
       </c>
       <c r="P373" t="s" s="2">
-        <v>249</v>
+        <v>941</v>
       </c>
       <c r="Q373" t="s" s="2">
         <v>36</v>
@@ -44478,31 +44492,29 @@
         <v>36</v>
       </c>
       <c r="Y373" t="s" s="2">
-        <v>36</v>
+        <v>348</v>
       </c>
       <c r="Z373" t="s" s="2">
-        <v>36</v>
+        <v>942</v>
       </c>
       <c r="AA373" t="s" s="2">
-        <v>36</v>
+        <v>943</v>
       </c>
       <c r="AB373" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AC373" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="AD373" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>944</v>
+      </c>
+      <c r="AD373" s="2"/>
       <c r="AE373" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF373" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG373" t="s" s="2">
-        <v>250</v>
+        <v>936</v>
       </c>
       <c r="AH373" t="s" s="2">
         <v>37</v>
@@ -44519,15 +44531,17 @@
     </row>
     <row r="374">
       <c r="A374" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B374" t="s" s="2">
-        <v>952</v>
+        <v>945</v>
       </c>
       <c r="C374" t="s" s="2">
-        <v>953</v>
-      </c>
-      <c r="D374" s="2"/>
+        <v>936</v>
+      </c>
+      <c r="D374" t="s" s="2">
+        <v>946</v>
+      </c>
       <c r="E374" t="s" s="2">
         <v>36</v>
       </c>
@@ -44545,19 +44559,23 @@
         <v>36</v>
       </c>
       <c r="K374" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L374" t="s" s="2">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="M374" t="s" s="2">
-        <v>106</v>
+        <v>947</v>
       </c>
       <c r="N374" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O374" s="2"/>
-      <c r="P374" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="O374" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="P374" t="s" s="2">
+        <v>941</v>
+      </c>
       <c r="Q374" t="s" s="2">
         <v>36</v>
       </c>
@@ -44581,13 +44599,11 @@
         <v>36</v>
       </c>
       <c r="Y374" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z374" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="Z374" s="2"/>
       <c r="AA374" t="s" s="2">
-        <v>36</v>
+        <v>949</v>
       </c>
       <c r="AB374" t="s" s="2">
         <v>36</v>
@@ -44605,41 +44621,41 @@
         <v>36</v>
       </c>
       <c r="AG374" t="s" s="2">
-        <v>108</v>
+        <v>936</v>
       </c>
       <c r="AH374" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI374" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ374" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK374" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="375">
       <c r="A375" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B375" t="s" s="2">
-        <v>954</v>
+        <v>950</v>
       </c>
       <c r="C375" t="s" s="2">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D375" s="2"/>
       <c r="E375" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F375" s="2"/>
       <c r="G375" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H375" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I375" t="s" s="2">
         <v>36</v>
@@ -44651,17 +44667,15 @@
         <v>36</v>
       </c>
       <c r="L375" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="M375" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="N375" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O375" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O375" s="2"/>
       <c r="P375" s="2"/>
       <c r="Q375" t="s" s="2">
         <v>36</v>
@@ -44698,53 +44712,53 @@
         <v>36</v>
       </c>
       <c r="AC375" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD375" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE375" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF375" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG375" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AH375" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI375" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ375" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK375" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
     </row>
     <row r="376">
       <c r="A376" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B376" t="s" s="2">
-        <v>956</v>
+        <v>952</v>
       </c>
       <c r="C376" t="s" s="2">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D376" s="2"/>
       <c r="E376" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F376" s="2"/>
       <c r="G376" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H376" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I376" t="s" s="2">
         <v>36</v>
@@ -44753,29 +44767,27 @@
         <v>36</v>
       </c>
       <c r="K376" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L376" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="M376" t="s" s="2">
-        <v>684</v>
+        <v>90</v>
       </c>
       <c r="N376" t="s" s="2">
-        <v>685</v>
+        <v>111</v>
       </c>
       <c r="O376" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="P376" t="s" s="2">
-        <v>687</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P376" s="2"/>
       <c r="Q376" t="s" s="2">
         <v>36</v>
       </c>
       <c r="R376" s="2"/>
       <c r="S376" t="s" s="2">
-        <v>945</v>
+        <v>36</v>
       </c>
       <c r="T376" t="s" s="2">
         <v>36</v>
@@ -44805,42 +44817,42 @@
         <v>36</v>
       </c>
       <c r="AC376" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD376" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE376" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF376" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG376" t="s" s="2">
-        <v>688</v>
+        <v>112</v>
       </c>
       <c r="AH376" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI376" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ376" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK376" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="377">
       <c r="A377" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B377" t="s" s="2">
-        <v>958</v>
+        <v>954</v>
       </c>
       <c r="C377" t="s" s="2">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D377" s="2"/>
       <c r="E377" t="s" s="2">
@@ -44851,7 +44863,7 @@
         <v>37</v>
       </c>
       <c r="H377" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I377" t="s" s="2">
         <v>36</v>
@@ -44863,18 +44875,20 @@
         <v>45</v>
       </c>
       <c r="L377" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="M377" t="s" s="2">
-        <v>690</v>
+        <v>246</v>
       </c>
       <c r="N377" t="s" s="2">
-        <v>691</v>
+        <v>247</v>
       </c>
       <c r="O377" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="P377" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="P377" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="Q377" t="s" s="2">
         <v>36</v>
       </c>
@@ -44922,13 +44936,13 @@
         <v>36</v>
       </c>
       <c r="AG377" t="s" s="2">
-        <v>693</v>
+        <v>250</v>
       </c>
       <c r="AH377" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI377" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ377" t="s" s="2">
         <v>56</v>
@@ -44939,13 +44953,13 @@
     </row>
     <row r="378">
       <c r="A378" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B378" t="s" s="2">
-        <v>960</v>
+        <v>956</v>
       </c>
       <c r="C378" t="s" s="2">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D378" s="2"/>
       <c r="E378" t="s" s="2">
@@ -44953,7 +44967,7 @@
       </c>
       <c r="F378" s="2"/>
       <c r="G378" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H378" t="s" s="2">
         <v>44</v>
@@ -44965,23 +44979,19 @@
         <v>36</v>
       </c>
       <c r="K378" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L378" t="s" s="2">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="M378" t="s" s="2">
-        <v>695</v>
+        <v>106</v>
       </c>
       <c r="N378" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="O378" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="P378" t="s" s="2">
-        <v>697</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O378" s="2"/>
+      <c r="P378" s="2"/>
       <c r="Q378" t="s" s="2">
         <v>36</v>
       </c>
@@ -45029,7 +45039,7 @@
         <v>36</v>
       </c>
       <c r="AG378" t="s" s="2">
-        <v>698</v>
+        <v>108</v>
       </c>
       <c r="AH378" t="s" s="2">
         <v>37</v>
@@ -45038,32 +45048,32 @@
         <v>44</v>
       </c>
       <c r="AJ378" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK378" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="379">
       <c r="A379" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B379" t="s" s="2">
-        <v>962</v>
+        <v>958</v>
       </c>
       <c r="C379" t="s" s="2">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D379" s="2"/>
       <c r="E379" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F379" s="2"/>
       <c r="G379" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H379" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I379" t="s" s="2">
         <v>36</v>
@@ -45072,23 +45082,21 @@
         <v>36</v>
       </c>
       <c r="K379" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L379" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M379" t="s" s="2">
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="N379" t="s" s="2">
-        <v>701</v>
+        <v>111</v>
       </c>
       <c r="O379" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="P379" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P379" s="2"/>
       <c r="Q379" t="s" s="2">
         <v>36</v>
       </c>
@@ -45124,42 +45132,42 @@
         <v>36</v>
       </c>
       <c r="AC379" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD379" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE379" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF379" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG379" t="s" s="2">
-        <v>703</v>
+        <v>112</v>
       </c>
       <c r="AH379" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI379" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ379" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK379" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="380">
       <c r="A380" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B380" t="s" s="2">
-        <v>964</v>
+        <v>960</v>
       </c>
       <c r="C380" t="s" s="2">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D380" s="2"/>
       <c r="E380" t="s" s="2">
@@ -45167,7 +45175,7 @@
       </c>
       <c r="F380" s="2"/>
       <c r="G380" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H380" t="s" s="2">
         <v>44</v>
@@ -45182,26 +45190,26 @@
         <v>45</v>
       </c>
       <c r="L380" t="s" s="2">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="M380" t="s" s="2">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="N380" t="s" s="2">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="O380" t="s" s="2">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="P380" t="s" s="2">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="Q380" t="s" s="2">
         <v>36</v>
       </c>
       <c r="R380" s="2"/>
       <c r="S380" t="s" s="2">
-        <v>36</v>
+        <v>949</v>
       </c>
       <c r="T380" t="s" s="2">
         <v>36</v>
@@ -45243,7 +45251,7 @@
         <v>36</v>
       </c>
       <c r="AG380" t="s" s="2">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="AH380" t="s" s="2">
         <v>37</v>
@@ -45260,13 +45268,13 @@
     </row>
     <row r="381">
       <c r="A381" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B381" t="s" s="2">
-        <v>966</v>
+        <v>962</v>
       </c>
       <c r="C381" t="s" s="2">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D381" s="2"/>
       <c r="E381" t="s" s="2">
@@ -45292,17 +45300,15 @@
         <v>105</v>
       </c>
       <c r="M381" t="s" s="2">
-        <v>253</v>
+        <v>690</v>
       </c>
       <c r="N381" t="s" s="2">
-        <v>254</v>
+        <v>691</v>
       </c>
       <c r="O381" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="P381" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="P381" s="2"/>
       <c r="Q381" t="s" s="2">
         <v>36</v>
       </c>
@@ -45350,7 +45356,7 @@
         <v>36</v>
       </c>
       <c r="AG381" t="s" s="2">
-        <v>257</v>
+        <v>693</v>
       </c>
       <c r="AH381" t="s" s="2">
         <v>37</v>
@@ -45367,23 +45373,21 @@
     </row>
     <row r="382">
       <c r="A382" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B382" t="s" s="2">
-        <v>968</v>
+        <v>964</v>
       </c>
       <c r="C382" t="s" s="2">
-        <v>932</v>
-      </c>
-      <c r="D382" t="s" s="2">
-        <v>969</v>
-      </c>
+        <v>965</v>
+      </c>
+      <c r="D382" s="2"/>
       <c r="E382" t="s" s="2">
         <v>36</v>
       </c>
       <c r="F382" s="2"/>
       <c r="G382" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H382" t="s" s="2">
         <v>44</v>
@@ -45398,19 +45402,19 @@
         <v>45</v>
       </c>
       <c r="L382" t="s" s="2">
-        <v>162</v>
+        <v>65</v>
       </c>
       <c r="M382" t="s" s="2">
-        <v>970</v>
+        <v>695</v>
       </c>
       <c r="N382" t="s" s="2">
-        <v>944</v>
+        <v>696</v>
       </c>
       <c r="O382" t="s" s="2">
-        <v>936</v>
+        <v>602</v>
       </c>
       <c r="P382" t="s" s="2">
-        <v>937</v>
+        <v>697</v>
       </c>
       <c r="Q382" t="s" s="2">
         <v>36</v>
@@ -45435,11 +45439,13 @@
         <v>36</v>
       </c>
       <c r="Y382" t="s" s="2">
-        <v>140</v>
-      </c>
-      <c r="Z382" s="2"/>
+        <v>36</v>
+      </c>
+      <c r="Z382" t="s" s="2">
+        <v>36</v>
+      </c>
       <c r="AA382" t="s" s="2">
-        <v>971</v>
+        <v>36</v>
       </c>
       <c r="AB382" t="s" s="2">
         <v>36</v>
@@ -45457,13 +45463,13 @@
         <v>36</v>
       </c>
       <c r="AG382" t="s" s="2">
-        <v>932</v>
+        <v>698</v>
       </c>
       <c r="AH382" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI382" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ382" t="s" s="2">
         <v>56</v>
@@ -45474,13 +45480,13 @@
     </row>
     <row r="383">
       <c r="A383" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B383" t="s" s="2">
-        <v>972</v>
+        <v>966</v>
       </c>
       <c r="C383" t="s" s="2">
-        <v>947</v>
+        <v>967</v>
       </c>
       <c r="D383" s="2"/>
       <c r="E383" t="s" s="2">
@@ -45500,19 +45506,23 @@
         <v>36</v>
       </c>
       <c r="K383" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L383" t="s" s="2">
         <v>105</v>
       </c>
       <c r="M383" t="s" s="2">
-        <v>106</v>
+        <v>700</v>
       </c>
       <c r="N383" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O383" s="2"/>
-      <c r="P383" s="2"/>
+        <v>701</v>
+      </c>
+      <c r="O383" t="s" s="2">
+        <v>602</v>
+      </c>
+      <c r="P383" t="s" s="2">
+        <v>702</v>
+      </c>
       <c r="Q383" t="s" s="2">
         <v>36</v>
       </c>
@@ -45560,7 +45570,7 @@
         <v>36</v>
       </c>
       <c r="AG383" t="s" s="2">
-        <v>108</v>
+        <v>703</v>
       </c>
       <c r="AH383" t="s" s="2">
         <v>37</v>
@@ -45569,32 +45579,32 @@
         <v>44</v>
       </c>
       <c r="AJ383" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK383" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="384">
       <c r="A384" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B384" t="s" s="2">
-        <v>973</v>
+        <v>968</v>
       </c>
       <c r="C384" t="s" s="2">
-        <v>949</v>
+        <v>969</v>
       </c>
       <c r="D384" s="2"/>
       <c r="E384" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F384" s="2"/>
       <c r="G384" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H384" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I384" t="s" s="2">
         <v>36</v>
@@ -45603,21 +45613,23 @@
         <v>36</v>
       </c>
       <c r="K384" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L384" t="s" s="2">
-        <v>89</v>
+        <v>122</v>
       </c>
       <c r="M384" t="s" s="2">
-        <v>90</v>
+        <v>705</v>
       </c>
       <c r="N384" t="s" s="2">
-        <v>111</v>
+        <v>706</v>
       </c>
       <c r="O384" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="P384" s="2"/>
+        <v>707</v>
+      </c>
+      <c r="P384" t="s" s="2">
+        <v>708</v>
+      </c>
       <c r="Q384" t="s" s="2">
         <v>36</v>
       </c>
@@ -45653,42 +45665,42 @@
         <v>36</v>
       </c>
       <c r="AC384" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD384" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE384" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF384" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG384" t="s" s="2">
-        <v>112</v>
+        <v>709</v>
       </c>
       <c r="AH384" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI384" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ384" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK384" t="s" s="2">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="385">
       <c r="A385" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B385" t="s" s="2">
-        <v>974</v>
+        <v>970</v>
       </c>
       <c r="C385" t="s" s="2">
-        <v>951</v>
+        <v>971</v>
       </c>
       <c r="D385" s="2"/>
       <c r="E385" t="s" s="2">
@@ -45699,7 +45711,7 @@
         <v>37</v>
       </c>
       <c r="H385" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I385" t="s" s="2">
         <v>36</v>
@@ -45711,19 +45723,19 @@
         <v>45</v>
       </c>
       <c r="L385" t="s" s="2">
-        <v>137</v>
+        <v>105</v>
       </c>
       <c r="M385" t="s" s="2">
-        <v>246</v>
+        <v>253</v>
       </c>
       <c r="N385" t="s" s="2">
-        <v>247</v>
+        <v>254</v>
       </c>
       <c r="O385" t="s" s="2">
-        <v>248</v>
+        <v>255</v>
       </c>
       <c r="P385" t="s" s="2">
-        <v>249</v>
+        <v>256</v>
       </c>
       <c r="Q385" t="s" s="2">
         <v>36</v>
@@ -45772,13 +45784,13 @@
         <v>36</v>
       </c>
       <c r="AG385" t="s" s="2">
-        <v>250</v>
+        <v>257</v>
       </c>
       <c r="AH385" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI385" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ385" t="s" s="2">
         <v>56</v>
@@ -45789,15 +45801,17 @@
     </row>
     <row r="386">
       <c r="A386" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B386" t="s" s="2">
-        <v>975</v>
+        <v>972</v>
       </c>
       <c r="C386" t="s" s="2">
-        <v>953</v>
-      </c>
-      <c r="D386" s="2"/>
+        <v>936</v>
+      </c>
+      <c r="D386" t="s" s="2">
+        <v>973</v>
+      </c>
       <c r="E386" t="s" s="2">
         <v>36</v>
       </c>
@@ -45815,19 +45829,23 @@
         <v>36</v>
       </c>
       <c r="K386" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L386" t="s" s="2">
-        <v>105</v>
+        <v>162</v>
       </c>
       <c r="M386" t="s" s="2">
-        <v>106</v>
+        <v>974</v>
       </c>
       <c r="N386" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O386" s="2"/>
-      <c r="P386" s="2"/>
+        <v>948</v>
+      </c>
+      <c r="O386" t="s" s="2">
+        <v>940</v>
+      </c>
+      <c r="P386" t="s" s="2">
+        <v>941</v>
+      </c>
       <c r="Q386" t="s" s="2">
         <v>36</v>
       </c>
@@ -45851,13 +45869,11 @@
         <v>36</v>
       </c>
       <c r="Y386" t="s" s="2">
-        <v>36</v>
-      </c>
-      <c r="Z386" t="s" s="2">
-        <v>36</v>
-      </c>
+        <v>140</v>
+      </c>
+      <c r="Z386" s="2"/>
       <c r="AA386" t="s" s="2">
-        <v>36</v>
+        <v>975</v>
       </c>
       <c r="AB386" t="s" s="2">
         <v>36</v>
@@ -45875,41 +45891,41 @@
         <v>36</v>
       </c>
       <c r="AG386" t="s" s="2">
-        <v>108</v>
+        <v>936</v>
       </c>
       <c r="AH386" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI386" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ386" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK386" t="s" s="2">
-        <v>36</v>
+        <v>57</v>
       </c>
     </row>
     <row r="387">
       <c r="A387" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B387" t="s" s="2">
         <v>976</v>
       </c>
       <c r="C387" t="s" s="2">
-        <v>955</v>
+        <v>951</v>
       </c>
       <c r="D387" s="2"/>
       <c r="E387" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F387" s="2"/>
       <c r="G387" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H387" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I387" t="s" s="2">
         <v>36</v>
@@ -45921,17 +45937,15 @@
         <v>36</v>
       </c>
       <c r="L387" t="s" s="2">
-        <v>89</v>
+        <v>105</v>
       </c>
       <c r="M387" t="s" s="2">
-        <v>90</v>
+        <v>106</v>
       </c>
       <c r="N387" t="s" s="2">
-        <v>111</v>
-      </c>
-      <c r="O387" t="s" s="2">
-        <v>92</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O387" s="2"/>
       <c r="P387" s="2"/>
       <c r="Q387" t="s" s="2">
         <v>36</v>
@@ -45968,53 +45982,53 @@
         <v>36</v>
       </c>
       <c r="AC387" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD387" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE387" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF387" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG387" t="s" s="2">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="AH387" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI387" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ387" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK387" t="s" s="2">
-        <v>97</v>
+        <v>36</v>
       </c>
     </row>
     <row r="388">
       <c r="A388" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B388" t="s" s="2">
         <v>977</v>
       </c>
       <c r="C388" t="s" s="2">
-        <v>957</v>
+        <v>953</v>
       </c>
       <c r="D388" s="2"/>
       <c r="E388" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F388" s="2"/>
       <c r="G388" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H388" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I388" t="s" s="2">
         <v>36</v>
@@ -46023,29 +46037,27 @@
         <v>36</v>
       </c>
       <c r="K388" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L388" t="s" s="2">
-        <v>59</v>
+        <v>89</v>
       </c>
       <c r="M388" t="s" s="2">
-        <v>684</v>
+        <v>90</v>
       </c>
       <c r="N388" t="s" s="2">
-        <v>685</v>
+        <v>111</v>
       </c>
       <c r="O388" t="s" s="2">
-        <v>686</v>
-      </c>
-      <c r="P388" t="s" s="2">
-        <v>687</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P388" s="2"/>
       <c r="Q388" t="s" s="2">
         <v>36</v>
       </c>
       <c r="R388" s="2"/>
       <c r="S388" t="s" s="2">
-        <v>971</v>
+        <v>36</v>
       </c>
       <c r="T388" t="s" s="2">
         <v>36</v>
@@ -46075,42 +46087,42 @@
         <v>36</v>
       </c>
       <c r="AC388" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD388" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE388" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF388" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG388" t="s" s="2">
-        <v>688</v>
+        <v>112</v>
       </c>
       <c r="AH388" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI388" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ388" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK388" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="389">
       <c r="A389" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B389" t="s" s="2">
         <v>978</v>
       </c>
       <c r="C389" t="s" s="2">
-        <v>959</v>
+        <v>955</v>
       </c>
       <c r="D389" s="2"/>
       <c r="E389" t="s" s="2">
@@ -46121,7 +46133,7 @@
         <v>37</v>
       </c>
       <c r="H389" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I389" t="s" s="2">
         <v>36</v>
@@ -46133,18 +46145,20 @@
         <v>45</v>
       </c>
       <c r="L389" t="s" s="2">
-        <v>105</v>
+        <v>137</v>
       </c>
       <c r="M389" t="s" s="2">
-        <v>690</v>
+        <v>246</v>
       </c>
       <c r="N389" t="s" s="2">
-        <v>691</v>
+        <v>247</v>
       </c>
       <c r="O389" t="s" s="2">
-        <v>692</v>
-      </c>
-      <c r="P389" s="2"/>
+        <v>248</v>
+      </c>
+      <c r="P389" t="s" s="2">
+        <v>249</v>
+      </c>
       <c r="Q389" t="s" s="2">
         <v>36</v>
       </c>
@@ -46192,13 +46206,13 @@
         <v>36</v>
       </c>
       <c r="AG389" t="s" s="2">
-        <v>693</v>
+        <v>250</v>
       </c>
       <c r="AH389" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI389" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ389" t="s" s="2">
         <v>56</v>
@@ -46209,13 +46223,13 @@
     </row>
     <row r="390">
       <c r="A390" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B390" t="s" s="2">
         <v>979</v>
       </c>
       <c r="C390" t="s" s="2">
-        <v>961</v>
+        <v>957</v>
       </c>
       <c r="D390" s="2"/>
       <c r="E390" t="s" s="2">
@@ -46223,7 +46237,7 @@
       </c>
       <c r="F390" s="2"/>
       <c r="G390" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H390" t="s" s="2">
         <v>44</v>
@@ -46235,23 +46249,19 @@
         <v>36</v>
       </c>
       <c r="K390" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L390" t="s" s="2">
-        <v>65</v>
+        <v>105</v>
       </c>
       <c r="M390" t="s" s="2">
-        <v>695</v>
+        <v>106</v>
       </c>
       <c r="N390" t="s" s="2">
-        <v>696</v>
-      </c>
-      <c r="O390" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="P390" t="s" s="2">
-        <v>697</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O390" s="2"/>
+      <c r="P390" s="2"/>
       <c r="Q390" t="s" s="2">
         <v>36</v>
       </c>
@@ -46299,7 +46309,7 @@
         <v>36</v>
       </c>
       <c r="AG390" t="s" s="2">
-        <v>698</v>
+        <v>108</v>
       </c>
       <c r="AH390" t="s" s="2">
         <v>37</v>
@@ -46308,32 +46318,32 @@
         <v>44</v>
       </c>
       <c r="AJ390" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK390" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="391">
       <c r="A391" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B391" t="s" s="2">
         <v>980</v>
       </c>
       <c r="C391" t="s" s="2">
-        <v>963</v>
+        <v>959</v>
       </c>
       <c r="D391" s="2"/>
       <c r="E391" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F391" s="2"/>
       <c r="G391" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H391" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I391" t="s" s="2">
         <v>36</v>
@@ -46342,23 +46352,21 @@
         <v>36</v>
       </c>
       <c r="K391" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="L391" t="s" s="2">
-        <v>105</v>
+        <v>89</v>
       </c>
       <c r="M391" t="s" s="2">
-        <v>700</v>
+        <v>90</v>
       </c>
       <c r="N391" t="s" s="2">
-        <v>701</v>
+        <v>111</v>
       </c>
       <c r="O391" t="s" s="2">
-        <v>602</v>
-      </c>
-      <c r="P391" t="s" s="2">
-        <v>702</v>
-      </c>
+        <v>92</v>
+      </c>
+      <c r="P391" s="2"/>
       <c r="Q391" t="s" s="2">
         <v>36</v>
       </c>
@@ -46394,42 +46402,42 @@
         <v>36</v>
       </c>
       <c r="AC391" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD391" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE391" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF391" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG391" t="s" s="2">
-        <v>703</v>
+        <v>112</v>
       </c>
       <c r="AH391" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI391" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ391" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK391" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="392">
       <c r="A392" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B392" t="s" s="2">
         <v>981</v>
       </c>
       <c r="C392" t="s" s="2">
-        <v>965</v>
+        <v>961</v>
       </c>
       <c r="D392" s="2"/>
       <c r="E392" t="s" s="2">
@@ -46437,7 +46445,7 @@
       </c>
       <c r="F392" s="2"/>
       <c r="G392" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H392" t="s" s="2">
         <v>44</v>
@@ -46452,26 +46460,26 @@
         <v>45</v>
       </c>
       <c r="L392" t="s" s="2">
-        <v>122</v>
+        <v>59</v>
       </c>
       <c r="M392" t="s" s="2">
-        <v>705</v>
+        <v>684</v>
       </c>
       <c r="N392" t="s" s="2">
-        <v>706</v>
+        <v>685</v>
       </c>
       <c r="O392" t="s" s="2">
-        <v>707</v>
+        <v>686</v>
       </c>
       <c r="P392" t="s" s="2">
-        <v>708</v>
+        <v>687</v>
       </c>
       <c r="Q392" t="s" s="2">
         <v>36</v>
       </c>
       <c r="R392" s="2"/>
       <c r="S392" t="s" s="2">
-        <v>36</v>
+        <v>975</v>
       </c>
       <c r="T392" t="s" s="2">
         <v>36</v>
@@ -46513,7 +46521,7 @@
         <v>36</v>
       </c>
       <c r="AG392" t="s" s="2">
-        <v>709</v>
+        <v>688</v>
       </c>
       <c r="AH392" t="s" s="2">
         <v>37</v>
@@ -46530,13 +46538,13 @@
     </row>
     <row r="393">
       <c r="A393" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B393" t="s" s="2">
         <v>982</v>
       </c>
       <c r="C393" t="s" s="2">
-        <v>967</v>
+        <v>963</v>
       </c>
       <c r="D393" s="2"/>
       <c r="E393" t="s" s="2">
@@ -46562,17 +46570,15 @@
         <v>105</v>
       </c>
       <c r="M393" t="s" s="2">
-        <v>253</v>
+        <v>690</v>
       </c>
       <c r="N393" t="s" s="2">
-        <v>254</v>
+        <v>691</v>
       </c>
       <c r="O393" t="s" s="2">
-        <v>255</v>
-      </c>
-      <c r="P393" t="s" s="2">
-        <v>256</v>
-      </c>
+        <v>692</v>
+      </c>
+      <c r="P393" s="2"/>
       <c r="Q393" t="s" s="2">
         <v>36</v>
       </c>
@@ -46620,7 +46626,7 @@
         <v>36</v>
       </c>
       <c r="AG393" t="s" s="2">
-        <v>257</v>
+        <v>693</v>
       </c>
       <c r="AH393" t="s" s="2">
         <v>37</v>
@@ -46637,13 +46643,13 @@
     </row>
     <row r="394">
       <c r="A394" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B394" t="s" s="2">
         <v>983</v>
       </c>
       <c r="C394" t="s" s="2">
-        <v>983</v>
+        <v>965</v>
       </c>
       <c r="D394" s="2"/>
       <c r="E394" t="s" s="2">
@@ -46651,7 +46657,7 @@
       </c>
       <c r="F394" s="2"/>
       <c r="G394" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H394" t="s" s="2">
         <v>44</v>
@@ -46666,19 +46672,19 @@
         <v>45</v>
       </c>
       <c r="L394" t="s" s="2">
-        <v>105</v>
+        <v>65</v>
       </c>
       <c r="M394" t="s" s="2">
-        <v>984</v>
+        <v>695</v>
       </c>
       <c r="N394" t="s" s="2">
-        <v>985</v>
+        <v>696</v>
       </c>
       <c r="O394" t="s" s="2">
-        <v>986</v>
+        <v>602</v>
       </c>
       <c r="P394" t="s" s="2">
-        <v>987</v>
+        <v>697</v>
       </c>
       <c r="Q394" t="s" s="2">
         <v>36</v>
@@ -46727,7 +46733,7 @@
         <v>36</v>
       </c>
       <c r="AG394" t="s" s="2">
-        <v>983</v>
+        <v>698</v>
       </c>
       <c r="AH394" t="s" s="2">
         <v>37</v>
@@ -46736,7 +46742,7 @@
         <v>44</v>
       </c>
       <c r="AJ394" t="s" s="2">
-        <v>878</v>
+        <v>56</v>
       </c>
       <c r="AK394" t="s" s="2">
         <v>57</v>
@@ -46744,13 +46750,13 @@
     </row>
     <row r="395">
       <c r="A395" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B395" t="s" s="2">
-        <v>988</v>
+        <v>984</v>
       </c>
       <c r="C395" t="s" s="2">
-        <v>988</v>
+        <v>967</v>
       </c>
       <c r="D395" s="2"/>
       <c r="E395" t="s" s="2">
@@ -46761,7 +46767,7 @@
         <v>37</v>
       </c>
       <c r="H395" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I395" t="s" s="2">
         <v>36</v>
@@ -46770,22 +46776,22 @@
         <v>36</v>
       </c>
       <c r="K395" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L395" t="s" s="2">
         <v>105</v>
       </c>
       <c r="M395" t="s" s="2">
-        <v>989</v>
+        <v>700</v>
       </c>
       <c r="N395" t="s" s="2">
-        <v>990</v>
+        <v>701</v>
       </c>
       <c r="O395" t="s" s="2">
-        <v>991</v>
+        <v>602</v>
       </c>
       <c r="P395" t="s" s="2">
-        <v>992</v>
+        <v>702</v>
       </c>
       <c r="Q395" t="s" s="2">
         <v>36</v>
@@ -46834,13 +46840,13 @@
         <v>36</v>
       </c>
       <c r="AG395" t="s" s="2">
-        <v>988</v>
+        <v>703</v>
       </c>
       <c r="AH395" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI395" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ395" t="s" s="2">
         <v>56</v>
@@ -46851,13 +46857,13 @@
     </row>
     <row r="396">
       <c r="A396" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B396" t="s" s="2">
-        <v>993</v>
+        <v>985</v>
       </c>
       <c r="C396" t="s" s="2">
-        <v>993</v>
+        <v>969</v>
       </c>
       <c r="D396" s="2"/>
       <c r="E396" t="s" s="2">
@@ -46868,7 +46874,7 @@
         <v>37</v>
       </c>
       <c r="H396" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I396" t="s" s="2">
         <v>36</v>
@@ -46877,22 +46883,22 @@
         <v>36</v>
       </c>
       <c r="K396" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L396" t="s" s="2">
-        <v>994</v>
+        <v>122</v>
       </c>
       <c r="M396" t="s" s="2">
-        <v>995</v>
+        <v>705</v>
       </c>
       <c r="N396" t="s" s="2">
-        <v>996</v>
+        <v>706</v>
       </c>
       <c r="O396" t="s" s="2">
-        <v>997</v>
+        <v>707</v>
       </c>
       <c r="P396" t="s" s="2">
-        <v>998</v>
+        <v>708</v>
       </c>
       <c r="Q396" t="s" s="2">
         <v>36</v>
@@ -46941,30 +46947,30 @@
         <v>36</v>
       </c>
       <c r="AG396" t="s" s="2">
-        <v>993</v>
+        <v>709</v>
       </c>
       <c r="AH396" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI396" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ396" t="s" s="2">
-        <v>999</v>
+        <v>56</v>
       </c>
       <c r="AK396" t="s" s="2">
-        <v>1000</v>
+        <v>57</v>
       </c>
     </row>
     <row r="397">
       <c r="A397" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B397" t="s" s="2">
-        <v>1001</v>
+        <v>986</v>
       </c>
       <c r="C397" t="s" s="2">
-        <v>1001</v>
+        <v>971</v>
       </c>
       <c r="D397" s="2"/>
       <c r="E397" t="s" s="2">
@@ -46975,7 +46981,7 @@
         <v>37</v>
       </c>
       <c r="H397" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I397" t="s" s="2">
         <v>36</v>
@@ -46984,22 +46990,22 @@
         <v>36</v>
       </c>
       <c r="K397" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L397" t="s" s="2">
-        <v>1002</v>
+        <v>105</v>
       </c>
       <c r="M397" t="s" s="2">
-        <v>1003</v>
+        <v>253</v>
       </c>
       <c r="N397" t="s" s="2">
-        <v>1004</v>
+        <v>254</v>
       </c>
       <c r="O397" t="s" s="2">
-        <v>1005</v>
+        <v>255</v>
       </c>
       <c r="P397" t="s" s="2">
-        <v>1006</v>
+        <v>256</v>
       </c>
       <c r="Q397" t="s" s="2">
         <v>36</v>
@@ -47048,30 +47054,30 @@
         <v>36</v>
       </c>
       <c r="AG397" t="s" s="2">
-        <v>1001</v>
+        <v>257</v>
       </c>
       <c r="AH397" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI397" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ397" t="s" s="2">
-        <v>1007</v>
+        <v>56</v>
       </c>
       <c r="AK397" t="s" s="2">
-        <v>1008</v>
+        <v>57</v>
       </c>
     </row>
     <row r="398">
       <c r="A398" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B398" t="s" s="2">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="C398" t="s" s="2">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="D398" s="2"/>
       <c r="E398" t="s" s="2">
@@ -47079,7 +47085,7 @@
       </c>
       <c r="F398" s="2"/>
       <c r="G398" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H398" t="s" s="2">
         <v>44</v>
@@ -47094,19 +47100,19 @@
         <v>45</v>
       </c>
       <c r="L398" t="s" s="2">
-        <v>509</v>
+        <v>105</v>
       </c>
       <c r="M398" t="s" s="2">
-        <v>1010</v>
+        <v>988</v>
       </c>
       <c r="N398" t="s" s="2">
-        <v>1011</v>
+        <v>989</v>
       </c>
       <c r="O398" t="s" s="2">
-        <v>202</v>
+        <v>990</v>
       </c>
       <c r="P398" t="s" s="2">
-        <v>1012</v>
+        <v>991</v>
       </c>
       <c r="Q398" t="s" s="2">
         <v>36</v>
@@ -47155,7 +47161,7 @@
         <v>36</v>
       </c>
       <c r="AG398" t="s" s="2">
-        <v>1009</v>
+        <v>987</v>
       </c>
       <c r="AH398" t="s" s="2">
         <v>37</v>
@@ -47164,21 +47170,21 @@
         <v>44</v>
       </c>
       <c r="AJ398" t="s" s="2">
-        <v>56</v>
+        <v>882</v>
       </c>
       <c r="AK398" t="s" s="2">
-        <v>197</v>
+        <v>57</v>
       </c>
     </row>
     <row r="399">
       <c r="A399" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B399" t="s" s="2">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="C399" t="s" s="2">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="D399" s="2"/>
       <c r="E399" t="s" s="2">
@@ -47201,19 +47207,19 @@
         <v>36</v>
       </c>
       <c r="L399" t="s" s="2">
-        <v>639</v>
+        <v>105</v>
       </c>
       <c r="M399" t="s" s="2">
-        <v>1014</v>
+        <v>993</v>
       </c>
       <c r="N399" t="s" s="2">
-        <v>1015</v>
+        <v>994</v>
       </c>
       <c r="O399" t="s" s="2">
-        <v>1016</v>
+        <v>995</v>
       </c>
       <c r="P399" t="s" s="2">
-        <v>1017</v>
+        <v>996</v>
       </c>
       <c r="Q399" t="s" s="2">
         <v>36</v>
@@ -47262,7 +47268,7 @@
         <v>36</v>
       </c>
       <c r="AG399" t="s" s="2">
-        <v>1013</v>
+        <v>992</v>
       </c>
       <c r="AH399" t="s" s="2">
         <v>37</v>
@@ -47279,13 +47285,13 @@
     </row>
     <row r="400">
       <c r="A400" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B400" t="s" s="2">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="C400" t="s" s="2">
-        <v>1018</v>
+        <v>997</v>
       </c>
       <c r="D400" s="2"/>
       <c r="E400" t="s" s="2">
@@ -47296,7 +47302,7 @@
         <v>37</v>
       </c>
       <c r="H400" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I400" t="s" s="2">
         <v>36</v>
@@ -47308,16 +47314,20 @@
         <v>36</v>
       </c>
       <c r="L400" t="s" s="2">
-        <v>105</v>
+        <v>998</v>
       </c>
       <c r="M400" t="s" s="2">
-        <v>106</v>
+        <v>999</v>
       </c>
       <c r="N400" t="s" s="2">
-        <v>107</v>
-      </c>
-      <c r="O400" s="2"/>
-      <c r="P400" s="2"/>
+        <v>1000</v>
+      </c>
+      <c r="O400" t="s" s="2">
+        <v>1001</v>
+      </c>
+      <c r="P400" t="s" s="2">
+        <v>1002</v>
+      </c>
       <c r="Q400" t="s" s="2">
         <v>36</v>
       </c>
@@ -47365,34 +47375,34 @@
         <v>36</v>
       </c>
       <c r="AG400" t="s" s="2">
-        <v>108</v>
+        <v>997</v>
       </c>
       <c r="AH400" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI400" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ400" t="s" s="2">
-        <v>36</v>
+        <v>1003</v>
       </c>
       <c r="AK400" t="s" s="2">
-        <v>36</v>
+        <v>1004</v>
       </c>
     </row>
     <row r="401">
       <c r="A401" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B401" t="s" s="2">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="C401" t="s" s="2">
-        <v>1019</v>
+        <v>1005</v>
       </c>
       <c r="D401" s="2"/>
       <c r="E401" t="s" s="2">
-        <v>88</v>
+        <v>36</v>
       </c>
       <c r="F401" s="2"/>
       <c r="G401" t="s" s="2">
@@ -47411,18 +47421,20 @@
         <v>36</v>
       </c>
       <c r="L401" t="s" s="2">
-        <v>89</v>
+        <v>1006</v>
       </c>
       <c r="M401" t="s" s="2">
-        <v>90</v>
+        <v>1007</v>
       </c>
       <c r="N401" t="s" s="2">
-        <v>111</v>
+        <v>1008</v>
       </c>
       <c r="O401" t="s" s="2">
-        <v>92</v>
-      </c>
-      <c r="P401" s="2"/>
+        <v>1009</v>
+      </c>
+      <c r="P401" t="s" s="2">
+        <v>1010</v>
+      </c>
       <c r="Q401" t="s" s="2">
         <v>36</v>
       </c>
@@ -47458,19 +47470,19 @@
         <v>36</v>
       </c>
       <c r="AC401" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD401" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE401" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF401" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG401" t="s" s="2">
-        <v>112</v>
+        <v>1005</v>
       </c>
       <c r="AH401" t="s" s="2">
         <v>37</v>
@@ -47479,56 +47491,56 @@
         <v>38</v>
       </c>
       <c r="AJ401" t="s" s="2">
-        <v>56</v>
+        <v>1011</v>
       </c>
       <c r="AK401" t="s" s="2">
-        <v>97</v>
+        <v>1012</v>
       </c>
     </row>
     <row r="402">
       <c r="A402" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B402" t="s" s="2">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="C402" t="s" s="2">
-        <v>1020</v>
+        <v>1013</v>
       </c>
       <c r="D402" s="2"/>
       <c r="E402" t="s" s="2">
-        <v>646</v>
+        <v>36</v>
       </c>
       <c r="F402" s="2"/>
       <c r="G402" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H402" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I402" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J402" t="s" s="2">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="K402" t="s" s="2">
         <v>45</v>
       </c>
       <c r="L402" t="s" s="2">
-        <v>89</v>
+        <v>509</v>
       </c>
       <c r="M402" t="s" s="2">
-        <v>647</v>
+        <v>1014</v>
       </c>
       <c r="N402" t="s" s="2">
-        <v>648</v>
+        <v>1015</v>
       </c>
       <c r="O402" t="s" s="2">
-        <v>92</v>
+        <v>202</v>
       </c>
       <c r="P402" t="s" s="2">
-        <v>145</v>
+        <v>1016</v>
       </c>
       <c r="Q402" t="s" s="2">
         <v>36</v>
@@ -47577,30 +47589,30 @@
         <v>36</v>
       </c>
       <c r="AG402" t="s" s="2">
-        <v>649</v>
+        <v>1013</v>
       </c>
       <c r="AH402" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI402" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ402" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK402" t="s" s="2">
-        <v>97</v>
+        <v>197</v>
       </c>
     </row>
     <row r="403">
       <c r="A403" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B403" t="s" s="2">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="C403" t="s" s="2">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="D403" s="2"/>
       <c r="E403" t="s" s="2">
@@ -47611,7 +47623,7 @@
         <v>37</v>
       </c>
       <c r="H403" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I403" t="s" s="2">
         <v>36</v>
@@ -47623,19 +47635,19 @@
         <v>36</v>
       </c>
       <c r="L403" t="s" s="2">
-        <v>162</v>
+        <v>639</v>
       </c>
       <c r="M403" t="s" s="2">
-        <v>1022</v>
+        <v>1018</v>
       </c>
       <c r="N403" t="s" s="2">
-        <v>1023</v>
+        <v>1019</v>
       </c>
       <c r="O403" t="s" s="2">
-        <v>519</v>
+        <v>1020</v>
       </c>
       <c r="P403" t="s" s="2">
-        <v>1024</v>
+        <v>1021</v>
       </c>
       <c r="Q403" t="s" s="2">
         <v>36</v>
@@ -47660,13 +47672,13 @@
         <v>36</v>
       </c>
       <c r="Y403" t="s" s="2">
-        <v>167</v>
+        <v>36</v>
       </c>
       <c r="Z403" t="s" s="2">
-        <v>1025</v>
+        <v>36</v>
       </c>
       <c r="AA403" t="s" s="2">
-        <v>1026</v>
+        <v>36</v>
       </c>
       <c r="AB403" t="s" s="2">
         <v>36</v>
@@ -47684,13 +47696,13 @@
         <v>36</v>
       </c>
       <c r="AG403" t="s" s="2">
-        <v>1021</v>
+        <v>1017</v>
       </c>
       <c r="AH403" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI403" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ403" t="s" s="2">
         <v>56</v>
@@ -47701,13 +47713,13 @@
     </row>
     <row r="404">
       <c r="A404" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B404" t="s" s="2">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="C404" t="s" s="2">
-        <v>1027</v>
+        <v>1022</v>
       </c>
       <c r="D404" s="2"/>
       <c r="E404" t="s" s="2">
@@ -47730,20 +47742,16 @@
         <v>36</v>
       </c>
       <c r="L404" t="s" s="2">
-        <v>1028</v>
+        <v>105</v>
       </c>
       <c r="M404" t="s" s="2">
-        <v>1029</v>
+        <v>106</v>
       </c>
       <c r="N404" t="s" s="2">
-        <v>1030</v>
-      </c>
-      <c r="O404" t="s" s="2">
-        <v>1031</v>
-      </c>
-      <c r="P404" t="s" s="2">
-        <v>1032</v>
-      </c>
+        <v>107</v>
+      </c>
+      <c r="O404" s="2"/>
+      <c r="P404" s="2"/>
       <c r="Q404" t="s" s="2">
         <v>36</v>
       </c>
@@ -47791,7 +47799,7 @@
         <v>36</v>
       </c>
       <c r="AG404" t="s" s="2">
-        <v>1027</v>
+        <v>108</v>
       </c>
       <c r="AH404" t="s" s="2">
         <v>37</v>
@@ -47800,25 +47808,25 @@
         <v>44</v>
       </c>
       <c r="AJ404" t="s" s="2">
-        <v>56</v>
+        <v>36</v>
       </c>
       <c r="AK404" t="s" s="2">
-        <v>57</v>
+        <v>36</v>
       </c>
     </row>
     <row r="405">
       <c r="A405" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B405" t="s" s="2">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="C405" t="s" s="2">
-        <v>1033</v>
+        <v>1023</v>
       </c>
       <c r="D405" s="2"/>
       <c r="E405" t="s" s="2">
-        <v>36</v>
+        <v>88</v>
       </c>
       <c r="F405" s="2"/>
       <c r="G405" t="s" s="2">
@@ -47837,18 +47845,18 @@
         <v>36</v>
       </c>
       <c r="L405" t="s" s="2">
-        <v>994</v>
+        <v>89</v>
       </c>
       <c r="M405" t="s" s="2">
-        <v>1034</v>
+        <v>90</v>
       </c>
       <c r="N405" t="s" s="2">
-        <v>1035</v>
-      </c>
-      <c r="O405" s="2"/>
-      <c r="P405" t="s" s="2">
-        <v>1036</v>
-      </c>
+        <v>111</v>
+      </c>
+      <c r="O405" t="s" s="2">
+        <v>92</v>
+      </c>
+      <c r="P405" s="2"/>
       <c r="Q405" t="s" s="2">
         <v>36</v>
       </c>
@@ -47884,19 +47892,19 @@
         <v>36</v>
       </c>
       <c r="AC405" t="s" s="2">
-        <v>36</v>
+        <v>93</v>
       </c>
       <c r="AD405" t="s" s="2">
-        <v>36</v>
+        <v>94</v>
       </c>
       <c r="AE405" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF405" t="s" s="2">
-        <v>36</v>
+        <v>95</v>
       </c>
       <c r="AG405" t="s" s="2">
-        <v>1033</v>
+        <v>112</v>
       </c>
       <c r="AH405" t="s" s="2">
         <v>37</v>
@@ -47908,53 +47916,53 @@
         <v>56</v>
       </c>
       <c r="AK405" t="s" s="2">
-        <v>1037</v>
+        <v>97</v>
       </c>
     </row>
     <row r="406">
       <c r="A406" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B406" t="s" s="2">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="C406" t="s" s="2">
-        <v>1038</v>
+        <v>1024</v>
       </c>
       <c r="D406" s="2"/>
       <c r="E406" t="s" s="2">
-        <v>36</v>
+        <v>646</v>
       </c>
       <c r="F406" s="2"/>
       <c r="G406" t="s" s="2">
         <v>37</v>
       </c>
       <c r="H406" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I406" t="s" s="2">
         <v>36</v>
       </c>
       <c r="J406" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="K406" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="L406" t="s" s="2">
-        <v>1002</v>
+        <v>89</v>
       </c>
       <c r="M406" t="s" s="2">
-        <v>1003</v>
+        <v>647</v>
       </c>
       <c r="N406" t="s" s="2">
-        <v>1004</v>
+        <v>648</v>
       </c>
       <c r="O406" t="s" s="2">
-        <v>1005</v>
+        <v>92</v>
       </c>
       <c r="P406" t="s" s="2">
-        <v>1039</v>
+        <v>145</v>
       </c>
       <c r="Q406" t="s" s="2">
         <v>36</v>
@@ -48003,30 +48011,30 @@
         <v>36</v>
       </c>
       <c r="AG406" t="s" s="2">
-        <v>1038</v>
+        <v>649</v>
       </c>
       <c r="AH406" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI406" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ406" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK406" t="s" s="2">
-        <v>57</v>
+        <v>97</v>
       </c>
     </row>
     <row r="407">
       <c r="A407" t="s" s="2">
-        <v>848</v>
+        <v>852</v>
       </c>
       <c r="B407" t="s" s="2">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="C407" t="s" s="2">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="D407" s="2"/>
       <c r="E407" t="s" s="2">
@@ -48049,19 +48057,19 @@
         <v>36</v>
       </c>
       <c r="L407" t="s" s="2">
-        <v>1041</v>
+        <v>162</v>
       </c>
       <c r="M407" t="s" s="2">
-        <v>1042</v>
+        <v>1026</v>
       </c>
       <c r="N407" t="s" s="2">
-        <v>1043</v>
+        <v>1027</v>
       </c>
       <c r="O407" t="s" s="2">
-        <v>202</v>
+        <v>519</v>
       </c>
       <c r="P407" t="s" s="2">
-        <v>1044</v>
+        <v>1028</v>
       </c>
       <c r="Q407" t="s" s="2">
         <v>36</v>
@@ -48086,13 +48094,13 @@
         <v>36</v>
       </c>
       <c r="Y407" t="s" s="2">
-        <v>36</v>
+        <v>167</v>
       </c>
       <c r="Z407" t="s" s="2">
-        <v>36</v>
+        <v>1029</v>
       </c>
       <c r="AA407" t="s" s="2">
-        <v>36</v>
+        <v>1030</v>
       </c>
       <c r="AB407" t="s" s="2">
         <v>36</v>
@@ -48110,30 +48118,30 @@
         <v>36</v>
       </c>
       <c r="AG407" t="s" s="2">
-        <v>1040</v>
+        <v>1025</v>
       </c>
       <c r="AH407" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI407" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ407" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK407" t="s" s="2">
-        <v>197</v>
+        <v>57</v>
       </c>
     </row>
     <row r="408">
       <c r="A408" t="s" s="2">
-        <v>1045</v>
+        <v>852</v>
       </c>
       <c r="B408" t="s" s="2">
-        <v>132</v>
+        <v>1031</v>
       </c>
       <c r="C408" t="s" s="2">
-        <v>132</v>
+        <v>1031</v>
       </c>
       <c r="D408" s="2"/>
       <c r="E408" t="s" s="2">
@@ -48144,7 +48152,7 @@
         <v>37</v>
       </c>
       <c r="H408" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I408" t="s" s="2">
         <v>36</v>
@@ -48156,16 +48164,20 @@
         <v>36</v>
       </c>
       <c r="L408" t="s" s="2">
-        <v>39</v>
+        <v>1032</v>
       </c>
       <c r="M408" t="s" s="2">
-        <v>132</v>
+        <v>1033</v>
       </c>
       <c r="N408" t="s" s="2">
-        <v>871</v>
-      </c>
-      <c r="O408" s="2"/>
-      <c r="P408" s="2"/>
+        <v>1034</v>
+      </c>
+      <c r="O408" t="s" s="2">
+        <v>1035</v>
+      </c>
+      <c r="P408" t="s" s="2">
+        <v>1036</v>
+      </c>
       <c r="Q408" t="s" s="2">
         <v>36</v>
       </c>
@@ -48213,30 +48225,30 @@
         <v>36</v>
       </c>
       <c r="AG408" t="s" s="2">
-        <v>132</v>
+        <v>1031</v>
       </c>
       <c r="AH408" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI408" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ408" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK408" t="s" s="2">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="409">
       <c r="A409" t="s" s="2">
-        <v>1045</v>
+        <v>852</v>
       </c>
       <c r="B409" t="s" s="2">
-        <v>390</v>
+        <v>1037</v>
       </c>
       <c r="C409" t="s" s="2">
-        <v>390</v>
+        <v>1037</v>
       </c>
       <c r="D409" s="2"/>
       <c r="E409" t="s" s="2">
@@ -48247,7 +48259,7 @@
         <v>37</v>
       </c>
       <c r="H409" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I409" t="s" s="2">
         <v>36</v>
@@ -48259,16 +48271,18 @@
         <v>36</v>
       </c>
       <c r="L409" t="s" s="2">
-        <v>105</v>
+        <v>998</v>
       </c>
       <c r="M409" t="s" s="2">
-        <v>106</v>
+        <v>1038</v>
       </c>
       <c r="N409" t="s" s="2">
-        <v>107</v>
+        <v>1039</v>
       </c>
       <c r="O409" s="2"/>
-      <c r="P409" s="2"/>
+      <c r="P409" t="s" s="2">
+        <v>1040</v>
+      </c>
       <c r="Q409" t="s" s="2">
         <v>36</v>
       </c>
@@ -48316,30 +48330,30 @@
         <v>36</v>
       </c>
       <c r="AG409" t="s" s="2">
-        <v>108</v>
+        <v>1037</v>
       </c>
       <c r="AH409" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI409" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ409" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK409" t="s" s="2">
-        <v>36</v>
+        <v>1041</v>
       </c>
     </row>
     <row r="410">
       <c r="A410" t="s" s="2">
-        <v>1045</v>
+        <v>852</v>
       </c>
       <c r="B410" t="s" s="2">
-        <v>391</v>
+        <v>1042</v>
       </c>
       <c r="C410" t="s" s="2">
-        <v>391</v>
+        <v>1042</v>
       </c>
       <c r="D410" s="2"/>
       <c r="E410" t="s" s="2">
@@ -48350,7 +48364,7 @@
         <v>37</v>
       </c>
       <c r="H410" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="I410" t="s" s="2">
         <v>36</v>
@@ -48362,16 +48376,20 @@
         <v>36</v>
       </c>
       <c r="L410" t="s" s="2">
-        <v>89</v>
+        <v>1006</v>
       </c>
       <c r="M410" t="s" s="2">
-        <v>132</v>
+        <v>1007</v>
       </c>
       <c r="N410" t="s" s="2">
-        <v>133</v>
-      </c>
-      <c r="O410" s="2"/>
-      <c r="P410" s="2"/>
+        <v>1008</v>
+      </c>
+      <c r="O410" t="s" s="2">
+        <v>1009</v>
+      </c>
+      <c r="P410" t="s" s="2">
+        <v>1043</v>
+      </c>
       <c r="Q410" t="s" s="2">
         <v>36</v>
       </c>
@@ -48407,42 +48425,42 @@
         <v>36</v>
       </c>
       <c r="AC410" t="s" s="2">
-        <v>93</v>
+        <v>36</v>
       </c>
       <c r="AD410" t="s" s="2">
-        <v>94</v>
+        <v>36</v>
       </c>
       <c r="AE410" t="s" s="2">
         <v>36</v>
       </c>
       <c r="AF410" t="s" s="2">
-        <v>95</v>
+        <v>36</v>
       </c>
       <c r="AG410" t="s" s="2">
-        <v>112</v>
+        <v>1042</v>
       </c>
       <c r="AH410" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI410" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="AJ410" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK410" t="s" s="2">
-        <v>97</v>
+        <v>57</v>
       </c>
     </row>
     <row r="411">
       <c r="A411" t="s" s="2">
-        <v>1045</v>
+        <v>852</v>
       </c>
       <c r="B411" t="s" s="2">
-        <v>119</v>
+        <v>1044</v>
       </c>
       <c r="C411" t="s" s="2">
-        <v>119</v>
+        <v>1044</v>
       </c>
       <c r="D411" s="2"/>
       <c r="E411" t="s" s="2">
@@ -48450,7 +48468,7 @@
       </c>
       <c r="F411" s="2"/>
       <c r="G411" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H411" t="s" s="2">
         <v>44</v>
@@ -48465,24 +48483,26 @@
         <v>36</v>
       </c>
       <c r="L411" t="s" s="2">
-        <v>59</v>
+        <v>1045</v>
       </c>
       <c r="M411" t="s" s="2">
-        <v>115</v>
+        <v>1046</v>
       </c>
       <c r="N411" t="s" s="2">
-        <v>116</v>
+        <v>1047</v>
       </c>
       <c r="O411" t="s" s="2">
-        <v>117</v>
-      </c>
-      <c r="P411" s="2"/>
+        <v>202</v>
+      </c>
+      <c r="P411" t="s" s="2">
+        <v>1048</v>
+      </c>
       <c r="Q411" t="s" s="2">
         <v>36</v>
       </c>
       <c r="R411" s="2"/>
       <c r="S411" t="s" s="2">
-        <v>1046</v>
+        <v>36</v>
       </c>
       <c r="T411" t="s" s="2">
         <v>36</v>
@@ -48524,30 +48544,30 @@
         <v>36</v>
       </c>
       <c r="AG411" t="s" s="2">
-        <v>119</v>
+        <v>1044</v>
       </c>
       <c r="AH411" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="AI411" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ411" t="s" s="2">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="AK411" t="s" s="2">
-        <v>36</v>
+        <v>197</v>
       </c>
     </row>
     <row r="412">
       <c r="A412" t="s" s="2">
-        <v>1045</v>
+        <v>1049</v>
       </c>
       <c r="B412" t="s" s="2">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="C412" t="s" s="2">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="D412" s="2"/>
       <c r="E412" t="s" s="2">
@@ -48558,7 +48578,7 @@
         <v>37</v>
       </c>
       <c r="H412" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I412" t="s" s="2">
         <v>36</v>
@@ -48570,13 +48590,13 @@
         <v>36</v>
       </c>
       <c r="L412" t="s" s="2">
-        <v>1049</v>
+        <v>39</v>
       </c>
       <c r="M412" t="s" s="2">
-        <v>443</v>
+        <v>132</v>
       </c>
       <c r="N412" t="s" s="2">
-        <v>393</v>
+        <v>875</v>
       </c>
       <c r="O412" s="2"/>
       <c r="P412" s="2"/>
@@ -48627,18 +48647,432 @@
         <v>36</v>
       </c>
       <c r="AG412" t="s" s="2">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="AH412" t="s" s="2">
         <v>37</v>
       </c>
       <c r="AI412" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="AJ412" t="s" s="2">
         <v>56</v>
       </c>
       <c r="AK412" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="413">
+      <c r="A413" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="B413" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="C413" t="s" s="2">
+        <v>390</v>
+      </c>
+      <c r="D413" s="2"/>
+      <c r="E413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F413" s="2"/>
+      <c r="G413" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H413" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="L413" t="s" s="2">
+        <v>105</v>
+      </c>
+      <c r="M413" t="s" s="2">
+        <v>106</v>
+      </c>
+      <c r="N413" t="s" s="2">
+        <v>107</v>
+      </c>
+      <c r="O413" s="2"/>
+      <c r="P413" s="2"/>
+      <c r="Q413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R413" s="2"/>
+      <c r="S413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AG413" t="s" s="2">
+        <v>108</v>
+      </c>
+      <c r="AH413" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI413" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ413" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AK413" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="414">
+      <c r="A414" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="B414" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="C414" t="s" s="2">
+        <v>391</v>
+      </c>
+      <c r="D414" s="2"/>
+      <c r="E414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F414" s="2"/>
+      <c r="G414" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H414" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="I414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="L414" t="s" s="2">
+        <v>89</v>
+      </c>
+      <c r="M414" t="s" s="2">
+        <v>132</v>
+      </c>
+      <c r="N414" t="s" s="2">
+        <v>133</v>
+      </c>
+      <c r="O414" s="2"/>
+      <c r="P414" s="2"/>
+      <c r="Q414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R414" s="2"/>
+      <c r="S414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC414" t="s" s="2">
+        <v>93</v>
+      </c>
+      <c r="AD414" t="s" s="2">
+        <v>94</v>
+      </c>
+      <c r="AE414" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF414" t="s" s="2">
+        <v>95</v>
+      </c>
+      <c r="AG414" t="s" s="2">
+        <v>112</v>
+      </c>
+      <c r="AH414" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI414" t="s" s="2">
+        <v>38</v>
+      </c>
+      <c r="AJ414" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK414" t="s" s="2">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="415">
+      <c r="A415" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="B415" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="C415" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="D415" s="2"/>
+      <c r="E415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F415" s="2"/>
+      <c r="G415" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="H415" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="L415" t="s" s="2">
+        <v>59</v>
+      </c>
+      <c r="M415" t="s" s="2">
+        <v>115</v>
+      </c>
+      <c r="N415" t="s" s="2">
+        <v>116</v>
+      </c>
+      <c r="O415" t="s" s="2">
+        <v>117</v>
+      </c>
+      <c r="P415" s="2"/>
+      <c r="Q415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R415" s="2"/>
+      <c r="S415" t="s" s="2">
+        <v>1050</v>
+      </c>
+      <c r="T415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AG415" t="s" s="2">
+        <v>119</v>
+      </c>
+      <c r="AH415" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AI415" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ415" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AK415" t="s" s="2">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="416">
+      <c r="A416" t="s" s="2">
+        <v>1049</v>
+      </c>
+      <c r="B416" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="C416" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="D416" s="2"/>
+      <c r="E416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="F416" s="2"/>
+      <c r="G416" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="H416" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="I416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="J416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="K416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="L416" t="s" s="2">
+        <v>1053</v>
+      </c>
+      <c r="M416" t="s" s="2">
+        <v>443</v>
+      </c>
+      <c r="N416" t="s" s="2">
+        <v>393</v>
+      </c>
+      <c r="O416" s="2"/>
+      <c r="P416" s="2"/>
+      <c r="Q416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="R416" s="2"/>
+      <c r="S416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="T416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="U416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="V416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="W416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="X416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Y416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="Z416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AA416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AB416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AC416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AD416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AE416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AF416" t="s" s="2">
+        <v>36</v>
+      </c>
+      <c r="AG416" t="s" s="2">
+        <v>124</v>
+      </c>
+      <c r="AH416" t="s" s="2">
+        <v>37</v>
+      </c>
+      <c r="AI416" t="s" s="2">
+        <v>44</v>
+      </c>
+      <c r="AJ416" t="s" s="2">
+        <v>56</v>
+      </c>
+      <c r="AK416" t="s" s="2">
         <v>57</v>
       </c>
     </row>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-04T09:08:22+01:00</t>
+    <t>2023-12-07T13:24:46+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -38798,7 +38798,7 @@
         <v>36</v>
       </c>
       <c r="Y319" t="s" s="2">
-        <v>69</v>
+        <v>140</v>
       </c>
       <c r="Z319" s="2"/>
       <c r="AA319" t="s" s="2">

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T13:24:46+01:00</t>
+    <t>2023-12-07T15:19:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -37171,10 +37171,10 @@
       </c>
       <c r="F304" s="2"/>
       <c r="G304" t="s" s="2">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="H304" t="s" s="2">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="I304" t="s" s="2">
         <v>36</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-07T15:19:19+01:00</t>
+    <t>2023-12-08T09:35:25+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -24056,7 +24056,7 @@
       </c>
       <c r="F179" s="2"/>
       <c r="G179" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H179" t="s" s="2">
         <v>38</v>
@@ -24490,13 +24490,13 @@
       </c>
       <c r="F183" s="2"/>
       <c r="G183" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H183" t="s" s="2">
         <v>44</v>
       </c>
       <c r="I183" t="s" s="2">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="J183" t="s" s="2">
         <v>36</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T09:35:25+01:00</t>
+    <t>2023-12-08T12:58:44+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-08T12:58:44+01:00</t>
+    <t>2023-12-08T15:31:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-13T23:52:19+01:00</t>
+    <t>2023-12-15T20:08:30+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2023-12-15T20:08:30+01:00</t>
+    <t>2023-12-19T12:28:54+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-15T07:10:14+01:00</t>
+    <t>2024-01-16T01:24:21+01:00</t>
   </si>
   <si>
     <t>Publisher</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:24:21+01:00</t>
+    <t>2024-01-16T01:49:14+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -3072,14 +3072,15 @@
     <t>Organization.endpoint</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(http://hl7.no/fhir/StructureDefinition/no-basis-Endpoint)
+    <t xml:space="preserve">Reference(Endpoint)
 </t>
   </si>
   <si>
-    <t>There is a change in cardinality from NO draft profile</t>
-  </si>
-  <si>
-    <t>There is a change in cardinality from NO draft profile. As there is not a need to have endpoint to communicate.</t>
+    <t>Technical endpoints providing access to services operated for the organization</t>
+  </si>
+  <si>
+    <t>Technical endpoints providing access to services operated for the organization.
+no-basis don't use this element to reference endpoints registered in the Norwegian Address register (endpoints connected to a kommunikasjonspart in tjenestebasert adressering). Endpoints registered in the Norwegian Address register should only be referenced through a kommunikasjonspart-Organization resource.</t>
   </si>
   <si>
     <t>Organizations have multiple systems that provide various services and need to be able to define the technical connection details for how to connect to them, and for what purpose.</t>
@@ -43915,7 +43916,7 @@
         <v>37</v>
       </c>
       <c r="H371" t="s" s="2">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="I371" t="s" s="2">
         <v>36</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2024-01-16T01:49:14+01:00</t>
+    <t>2024-02-09T14:16:42+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -7876,7 +7876,7 @@
       </c>
       <c r="F28" s="2"/>
       <c r="G28" t="s" s="2">
-        <v>44</v>
+        <v>37</v>
       </c>
       <c r="H28" t="s" s="2">
         <v>44</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11727" uniqueCount="993">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11727" uniqueCount="992">
   <si>
     <t>Property</t>
   </si>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T12:01:35+01:00</t>
+    <t>2025-01-31T15:15:59+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -2122,7 +2122,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-must-be-max-100-chars:Length MUST be &lt;=1000. {$this.length() &lt;= 1000}</t>
+must-be-max-1000-chars:Length MUST be &lt;= 1000 {$this.length() &lt;= 1000}</t>
   </si>
   <si>
     <t>Appointment.supportingInformation</t>
@@ -2212,10 +2212,6 @@
   </si>
   <si>
     <t>While Appointment.comment contains information for internal use, Appointment.patientInstructions is used to capture patient facing information about the Appointment (e.g. please bring your referral or fast from 8pm night before).</t>
-  </si>
-  <si>
-    <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-must-be-max-500-chars:Length MUST be &lt;= 1000 {$this.length() &lt;= 1000}</t>
   </si>
   <si>
     <t>Appointment.basedOn</t>
@@ -3953,7 +3949,7 @@
         <v>8</v>
       </c>
       <c r="B90" t="s" s="2">
-        <v>748</v>
+        <v>747</v>
       </c>
     </row>
     <row r="91">
@@ -4015,7 +4011,7 @@
         <v>22</v>
       </c>
       <c r="B98" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
     </row>
     <row r="99">
@@ -4083,7 +4079,7 @@
         <v>424</v>
       </c>
       <c r="B107" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="108">
@@ -4107,7 +4103,7 @@
         <v>4</v>
       </c>
       <c r="B110" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
     </row>
     <row r="111">
@@ -4123,7 +4119,7 @@
         <v>8</v>
       </c>
       <c r="B112" t="s" s="2">
-        <v>752</v>
+        <v>751</v>
       </c>
     </row>
     <row r="113">
@@ -4293,7 +4289,7 @@
         <v>8</v>
       </c>
       <c r="B134" t="s" s="2">
-        <v>784</v>
+        <v>783</v>
       </c>
     </row>
     <row r="135">
@@ -4355,7 +4351,7 @@
         <v>22</v>
       </c>
       <c r="B142" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
     </row>
     <row r="143">
@@ -4423,7 +4419,7 @@
         <v>424</v>
       </c>
       <c r="B151" t="s" s="2">
-        <v>750</v>
+        <v>749</v>
       </c>
     </row>
     <row r="152">
@@ -4447,7 +4443,7 @@
         <v>4</v>
       </c>
       <c r="B154" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
     </row>
     <row r="155">
@@ -4463,7 +4459,7 @@
         <v>8</v>
       </c>
       <c r="B156" t="s" s="2">
-        <v>787</v>
+        <v>786</v>
       </c>
     </row>
     <row r="157">
@@ -4609,7 +4605,7 @@
         <v>2</v>
       </c>
       <c r="B175" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="176">
@@ -4617,7 +4613,7 @@
         <v>4</v>
       </c>
       <c r="B176" t="s" s="2">
-        <v>791</v>
+        <v>790</v>
       </c>
     </row>
     <row r="177">
@@ -4633,7 +4629,7 @@
         <v>8</v>
       </c>
       <c r="B178" t="s" s="2">
-        <v>792</v>
+        <v>791</v>
       </c>
     </row>
     <row r="179">
@@ -4641,7 +4637,7 @@
         <v>10</v>
       </c>
       <c r="B179" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
     </row>
     <row r="180">
@@ -4663,7 +4659,7 @@
         <v>14</v>
       </c>
       <c r="B182" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="183">
@@ -4695,7 +4691,7 @@
         <v>22</v>
       </c>
       <c r="B186" t="s" s="2">
-        <v>794</v>
+        <v>793</v>
       </c>
     </row>
     <row r="187">
@@ -4731,7 +4727,7 @@
         <v>30</v>
       </c>
       <c r="B191" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
     </row>
     <row r="192">
@@ -4739,7 +4735,7 @@
         <v>32</v>
       </c>
       <c r="B192" t="s" s="2">
-        <v>796</v>
+        <v>795</v>
       </c>
     </row>
     <row r="193">
@@ -4771,7 +4767,7 @@
         <v>2</v>
       </c>
       <c r="B196" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
     </row>
     <row r="197">
@@ -4779,7 +4775,7 @@
         <v>4</v>
       </c>
       <c r="B197" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
     </row>
     <row r="198">
@@ -4795,7 +4791,7 @@
         <v>8</v>
       </c>
       <c r="B199" t="s" s="2">
-        <v>990</v>
+        <v>989</v>
       </c>
     </row>
     <row r="200">
@@ -4823,7 +4819,7 @@
         <v>14</v>
       </c>
       <c r="B203" t="s" s="2">
-        <v>793</v>
+        <v>792</v>
       </c>
     </row>
     <row r="204">
@@ -4855,7 +4851,7 @@
         <v>22</v>
       </c>
       <c r="B207" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
     </row>
     <row r="208">
@@ -4923,7 +4919,7 @@
         <v>424</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>991</v>
+        <v>990</v>
       </c>
     </row>
   </sheetData>
@@ -26905,7 +26901,7 @@
         <v>93</v>
       </c>
       <c r="AK209" t="s" s="2">
-        <v>706</v>
+        <v>677</v>
       </c>
     </row>
     <row r="210">
@@ -26913,14 +26909,14 @@
         <v>431</v>
       </c>
       <c r="B210" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="C210" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="D210" s="2"/>
       <c r="E210" t="s" s="2">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="F210" s="2"/>
       <c r="G210" t="s" s="2">
@@ -26939,13 +26935,13 @@
         <v>21</v>
       </c>
       <c r="L210" t="s" s="2">
+        <v>708</v>
+      </c>
+      <c r="M210" t="s" s="2">
         <v>709</v>
       </c>
-      <c r="M210" t="s" s="2">
+      <c r="N210" t="s" s="2">
         <v>710</v>
-      </c>
-      <c r="N210" t="s" s="2">
-        <v>711</v>
       </c>
       <c r="O210" t="s" s="2">
         <v>239</v>
@@ -26998,7 +26994,7 @@
         <v>21</v>
       </c>
       <c r="AG210" t="s" s="2">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="AH210" t="s" s="2">
         <v>74</v>
@@ -27018,10 +27014,10 @@
         <v>431</v>
       </c>
       <c r="B211" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="C211" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="D211" s="2"/>
       <c r="E211" t="s" s="2">
@@ -27044,13 +27040,13 @@
         <v>21</v>
       </c>
       <c r="L211" t="s" s="2">
+        <v>712</v>
+      </c>
+      <c r="M211" t="s" s="2">
         <v>713</v>
       </c>
-      <c r="M211" t="s" s="2">
+      <c r="N211" t="s" s="2">
         <v>714</v>
-      </c>
-      <c r="N211" t="s" s="2">
-        <v>715</v>
       </c>
       <c r="O211" s="2"/>
       <c r="P211" s="2"/>
@@ -27101,7 +27097,7 @@
         <v>21</v>
       </c>
       <c r="AG211" t="s" s="2">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="AH211" t="s" s="2">
         <v>81</v>
@@ -27113,7 +27109,7 @@
         <v>93</v>
       </c>
       <c r="AK211" t="s" s="2">
-        <v>716</v>
+        <v>715</v>
       </c>
     </row>
     <row r="212">
@@ -27121,10 +27117,10 @@
         <v>431</v>
       </c>
       <c r="B212" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="C212" t="s" s="2">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="D212" s="2"/>
       <c r="E212" t="s" s="2">
@@ -27224,10 +27220,10 @@
         <v>431</v>
       </c>
       <c r="B213" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="C213" t="s" s="2">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="D213" s="2"/>
       <c r="E213" t="s" s="2">
@@ -27329,14 +27325,14 @@
         <v>431</v>
       </c>
       <c r="B214" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="C214" t="s" s="2">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="D214" s="2"/>
       <c r="E214" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F214" s="2"/>
       <c r="G214" t="s" s="2">
@@ -27358,10 +27354,10 @@
         <v>126</v>
       </c>
       <c r="M214" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="N214" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="N214" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="O214" t="s" s="2">
         <v>129</v>
@@ -27416,7 +27412,7 @@
         <v>21</v>
       </c>
       <c r="AG214" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AH214" t="s" s="2">
         <v>74</v>
@@ -27436,10 +27432,10 @@
         <v>431</v>
       </c>
       <c r="B215" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="C215" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="D215" s="2"/>
       <c r="E215" t="s" s="2">
@@ -27471,7 +27467,7 @@
         <v>276</v>
       </c>
       <c r="O215" t="s" s="2">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="P215" s="2"/>
       <c r="Q215" t="s" s="2">
@@ -27521,7 +27517,7 @@
         <v>21</v>
       </c>
       <c r="AG215" t="s" s="2">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="AH215" t="s" s="2">
         <v>74</v>
@@ -27541,10 +27537,10 @@
         <v>431</v>
       </c>
       <c r="B216" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="C216" t="s" s="2">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="D216" s="2"/>
       <c r="E216" t="s" s="2">
@@ -27644,10 +27640,10 @@
         <v>431</v>
       </c>
       <c r="B217" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="C217" t="s" s="2">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="D217" s="2"/>
       <c r="E217" t="s" s="2">
@@ -27749,10 +27745,10 @@
         <v>431</v>
       </c>
       <c r="B218" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="C218" t="s" s="2">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="D218" s="2"/>
       <c r="E218" t="s" s="2">
@@ -27856,10 +27852,10 @@
         <v>431</v>
       </c>
       <c r="B219" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="C219" t="s" s="2">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="D219" s="2"/>
       <c r="E219" t="s" s="2">
@@ -27963,10 +27959,10 @@
         <v>431</v>
       </c>
       <c r="B220" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="C220" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="D220" s="2"/>
       <c r="E220" t="s" s="2">
@@ -27989,13 +27985,13 @@
         <v>82</v>
       </c>
       <c r="L220" t="s" s="2">
+        <v>730</v>
+      </c>
+      <c r="M220" t="s" s="2">
         <v>731</v>
       </c>
-      <c r="M220" t="s" s="2">
+      <c r="N220" t="s" s="2">
         <v>732</v>
-      </c>
-      <c r="N220" t="s" s="2">
-        <v>733</v>
       </c>
       <c r="O220" t="s" s="2">
         <v>239</v>
@@ -28048,7 +28044,7 @@
         <v>21</v>
       </c>
       <c r="AG220" t="s" s="2">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="AH220" t="s" s="2">
         <v>74</v>
@@ -28068,10 +28064,10 @@
         <v>431</v>
       </c>
       <c r="B221" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="C221" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="D221" s="2"/>
       <c r="E221" t="s" s="2">
@@ -28097,10 +28093,10 @@
         <v>102</v>
       </c>
       <c r="M221" t="s" s="2">
+        <v>734</v>
+      </c>
+      <c r="N221" t="s" s="2">
         <v>735</v>
-      </c>
-      <c r="N221" t="s" s="2">
-        <v>736</v>
       </c>
       <c r="O221" t="s" s="2">
         <v>676</v>
@@ -28132,11 +28128,11 @@
         <v>177</v>
       </c>
       <c r="Z221" t="s" s="2">
+        <v>736</v>
+      </c>
+      <c r="AA221" t="s" s="2">
         <v>737</v>
       </c>
-      <c r="AA221" t="s" s="2">
-        <v>738</v>
-      </c>
       <c r="AB221" t="s" s="2">
         <v>21</v>
       </c>
@@ -28153,7 +28149,7 @@
         <v>21</v>
       </c>
       <c r="AG221" t="s" s="2">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="AH221" t="s" s="2">
         <v>74</v>
@@ -28173,10 +28169,10 @@
         <v>431</v>
       </c>
       <c r="B222" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="C222" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="D222" s="2"/>
       <c r="E222" t="s" s="2">
@@ -28205,7 +28201,7 @@
         <v>321</v>
       </c>
       <c r="N222" t="s" s="2">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="O222" t="s" s="2">
         <v>676</v>
@@ -28258,7 +28254,7 @@
         <v>21</v>
       </c>
       <c r="AG222" t="s" s="2">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="AH222" t="s" s="2">
         <v>81</v>
@@ -28278,10 +28274,10 @@
         <v>431</v>
       </c>
       <c r="B223" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="C223" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="D223" s="2"/>
       <c r="E223" t="s" s="2">
@@ -28307,10 +28303,10 @@
         <v>222</v>
       </c>
       <c r="M223" t="s" s="2">
+        <v>741</v>
+      </c>
+      <c r="N223" t="s" s="2">
         <v>742</v>
-      </c>
-      <c r="N223" t="s" s="2">
-        <v>743</v>
       </c>
       <c r="O223" t="s" s="2">
         <v>225</v>
@@ -28363,7 +28359,7 @@
         <v>21</v>
       </c>
       <c r="AG223" t="s" s="2">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="AH223" t="s" s="2">
         <v>74</v>
@@ -28383,10 +28379,10 @@
         <v>431</v>
       </c>
       <c r="B224" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="C224" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="D224" s="2"/>
       <c r="E224" t="s" s="2">
@@ -28412,13 +28408,13 @@
         <v>222</v>
       </c>
       <c r="M224" t="s" s="2">
+        <v>744</v>
+      </c>
+      <c r="N224" t="s" s="2">
         <v>745</v>
       </c>
-      <c r="N224" t="s" s="2">
+      <c r="O224" t="s" s="2">
         <v>746</v>
-      </c>
-      <c r="O224" t="s" s="2">
-        <v>747</v>
       </c>
       <c r="P224" s="2"/>
       <c r="Q224" t="s" s="2">
@@ -28468,7 +28464,7 @@
         <v>21</v>
       </c>
       <c r="AG224" t="s" s="2">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="AH224" t="s" s="2">
         <v>74</v>
@@ -28520,7 +28516,7 @@
         <v>165</v>
       </c>
       <c r="N225" t="s" s="2">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="O225" s="2"/>
       <c r="P225" s="2"/>
@@ -29355,7 +29351,7 @@
       </c>
       <c r="R233" s="2"/>
       <c r="S233" t="s" s="2">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="T233" t="s" s="2">
         <v>21</v>
@@ -29446,7 +29442,7 @@
         <v>174</v>
       </c>
       <c r="M234" t="s" s="2">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="N234" t="s" s="2">
         <v>430</v>
@@ -29480,7 +29476,7 @@
       </c>
       <c r="Z234" s="2"/>
       <c r="AA234" t="s" s="2">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="AB234" t="s" s="2">
         <v>21</v>
@@ -29518,10 +29514,10 @@
         <v>570</v>
       </c>
       <c r="B235" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="C235" t="s" s="2">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="D235" s="2"/>
       <c r="E235" t="s" s="2">
@@ -29621,10 +29617,10 @@
         <v>570</v>
       </c>
       <c r="B236" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="C236" t="s" s="2">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="D236" s="2"/>
       <c r="E236" t="s" s="2">
@@ -29726,10 +29722,10 @@
         <v>570</v>
       </c>
       <c r="B237" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="C237" t="s" s="2">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="D237" s="2"/>
       <c r="E237" t="s" s="2">
@@ -29755,16 +29751,16 @@
         <v>96</v>
       </c>
       <c r="M237" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="N237" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="N237" t="s" s="2">
+      <c r="O237" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="O237" t="s" s="2">
+      <c r="P237" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="P237" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="Q237" t="s" s="2">
         <v>21</v>
@@ -29813,7 +29809,7 @@
         <v>21</v>
       </c>
       <c r="AG237" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AH237" t="s" s="2">
         <v>74</v>
@@ -29833,10 +29829,10 @@
         <v>570</v>
       </c>
       <c r="B238" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="C238" t="s" s="2">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="D238" s="2"/>
       <c r="E238" t="s" s="2">
@@ -29862,13 +29858,13 @@
         <v>142</v>
       </c>
       <c r="M238" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N238" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="N238" t="s" s="2">
+      <c r="O238" t="s" s="2">
         <v>765</v>
-      </c>
-      <c r="O238" t="s" s="2">
-        <v>766</v>
       </c>
       <c r="P238" s="2"/>
       <c r="Q238" t="s" s="2">
@@ -29918,7 +29914,7 @@
         <v>21</v>
       </c>
       <c r="AG238" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AH238" t="s" s="2">
         <v>74</v>
@@ -29938,10 +29934,10 @@
         <v>570</v>
       </c>
       <c r="B239" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="C239" t="s" s="2">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="D239" s="2"/>
       <c r="E239" t="s" s="2">
@@ -29967,16 +29963,16 @@
         <v>102</v>
       </c>
       <c r="M239" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N239" t="s" s="2">
         <v>769</v>
-      </c>
-      <c r="N239" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="O239" t="s" s="2">
         <v>676</v>
       </c>
       <c r="P239" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q239" t="s" s="2">
         <v>21</v>
@@ -30025,7 +30021,7 @@
         <v>21</v>
       </c>
       <c r="AG239" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AH239" t="s" s="2">
         <v>74</v>
@@ -30045,10 +30041,10 @@
         <v>570</v>
       </c>
       <c r="B240" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="C240" t="s" s="2">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="D240" s="2"/>
       <c r="E240" t="s" s="2">
@@ -30074,16 +30070,16 @@
         <v>142</v>
       </c>
       <c r="M240" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="N240" t="s" s="2">
         <v>774</v>
-      </c>
-      <c r="N240" t="s" s="2">
-        <v>775</v>
       </c>
       <c r="O240" t="s" s="2">
         <v>676</v>
       </c>
       <c r="P240" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q240" t="s" s="2">
         <v>21</v>
@@ -30132,7 +30128,7 @@
         <v>21</v>
       </c>
       <c r="AG240" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AH240" t="s" s="2">
         <v>74</v>
@@ -30152,10 +30148,10 @@
         <v>570</v>
       </c>
       <c r="B241" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="C241" t="s" s="2">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="D241" s="2"/>
       <c r="E241" t="s" s="2">
@@ -30181,16 +30177,16 @@
         <v>159</v>
       </c>
       <c r="M241" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N241" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="N241" t="s" s="2">
+      <c r="O241" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="O241" t="s" s="2">
+      <c r="P241" t="s" s="2">
         <v>781</v>
-      </c>
-      <c r="P241" t="s" s="2">
-        <v>782</v>
       </c>
       <c r="Q241" t="s" s="2">
         <v>21</v>
@@ -30239,7 +30235,7 @@
         <v>21</v>
       </c>
       <c r="AG241" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AH241" t="s" s="2">
         <v>74</v>
@@ -30291,7 +30287,7 @@
         <v>365</v>
       </c>
       <c r="N242" t="s" s="2">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="O242" s="2"/>
       <c r="P242" s="2"/>
@@ -31128,7 +31124,7 @@
       </c>
       <c r="R250" s="2"/>
       <c r="S250" t="s" s="2">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="T250" t="s" s="2">
         <v>21</v>
@@ -31219,10 +31215,10 @@
         <v>174</v>
       </c>
       <c r="M251" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="N251" t="s" s="2">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="O251" s="2"/>
       <c r="P251" s="2"/>
@@ -31255,7 +31251,7 @@
         <v>638</v>
       </c>
       <c r="AA251" t="s" s="2">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="AB251" t="s" s="2">
         <v>21</v>
@@ -31290,17 +31286,17 @@
     </row>
     <row r="252">
       <c r="A252" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B252" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="C252" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="D252" s="2"/>
       <c r="E252" t="s" s="2">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="F252" s="2"/>
       <c r="G252" t="s" s="2">
@@ -31322,13 +31318,13 @@
         <v>76</v>
       </c>
       <c r="M252" t="s" s="2">
+        <v>797</v>
+      </c>
+      <c r="N252" t="s" s="2">
         <v>798</v>
       </c>
-      <c r="N252" t="s" s="2">
+      <c r="O252" t="s" s="2">
         <v>799</v>
-      </c>
-      <c r="O252" t="s" s="2">
-        <v>800</v>
       </c>
       <c r="P252" s="2"/>
       <c r="Q252" t="s" s="2">
@@ -31378,7 +31374,7 @@
         <v>21</v>
       </c>
       <c r="AG252" t="s" s="2">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="AH252" t="s" s="2">
         <v>74</v>
@@ -31390,18 +31386,18 @@
         <v>21</v>
       </c>
       <c r="AK252" t="s" s="2">
-        <v>801</v>
+        <v>800</v>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B253" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="C253" t="s" s="2">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="D253" s="2"/>
       <c r="E253" t="s" s="2">
@@ -31500,13 +31496,13 @@
     </row>
     <row r="254">
       <c r="A254" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B254" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="C254" t="s" s="2">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="D254" s="2"/>
       <c r="E254" t="s" s="2">
@@ -31603,13 +31599,13 @@
     </row>
     <row r="255">
       <c r="A255" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B255" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="C255" t="s" s="2">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="D255" s="2"/>
       <c r="E255" t="s" s="2">
@@ -31708,13 +31704,13 @@
     </row>
     <row r="256">
       <c r="A256" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B256" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="C256" t="s" s="2">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="D256" s="2"/>
       <c r="E256" t="s" s="2">
@@ -31813,13 +31809,13 @@
     </row>
     <row r="257">
       <c r="A257" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B257" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="C257" t="s" s="2">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="D257" s="2"/>
       <c r="E257" t="s" s="2">
@@ -31918,13 +31914,13 @@
     </row>
     <row r="258">
       <c r="A258" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B258" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="C258" t="s" s="2">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="D258" s="2"/>
       <c r="E258" t="s" s="2">
@@ -32023,13 +32019,13 @@
     </row>
     <row r="259">
       <c r="A259" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B259" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="C259" t="s" s="2">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="D259" s="2"/>
       <c r="E259" t="s" s="2">
@@ -32128,19 +32124,19 @@
     </row>
     <row r="260">
       <c r="A260" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B260" t="s" s="2">
+        <v>808</v>
+      </c>
+      <c r="C260" t="s" s="2">
+        <v>807</v>
+      </c>
+      <c r="D260" t="s" s="2">
         <v>809</v>
       </c>
-      <c r="C260" t="s" s="2">
-        <v>808</v>
-      </c>
-      <c r="D260" t="s" s="2">
+      <c r="E260" t="s" s="2">
         <v>810</v>
-      </c>
-      <c r="E260" t="s" s="2">
-        <v>811</v>
       </c>
       <c r="F260" s="2"/>
       <c r="G260" t="s" s="2">
@@ -32159,13 +32155,13 @@
         <v>21</v>
       </c>
       <c r="L260" t="s" s="2">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="M260" t="s" s="2">
         <v>169</v>
       </c>
       <c r="N260" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O260" s="2"/>
       <c r="P260" s="2"/>
@@ -32233,13 +32229,13 @@
     </row>
     <row r="261">
       <c r="A261" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B261" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="C261" t="s" s="2">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="D261" s="2"/>
       <c r="E261" t="s" s="2">
@@ -32340,13 +32336,13 @@
     </row>
     <row r="262">
       <c r="A262" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B262" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="C262" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="D262" s="2"/>
       <c r="E262" t="s" s="2">
@@ -32372,14 +32368,14 @@
         <v>185</v>
       </c>
       <c r="M262" t="s" s="2">
+        <v>815</v>
+      </c>
+      <c r="N262" t="s" s="2">
         <v>816</v>
-      </c>
-      <c r="N262" t="s" s="2">
-        <v>817</v>
       </c>
       <c r="O262" s="2"/>
       <c r="P262" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q262" t="s" s="2">
         <v>21</v>
@@ -32416,7 +32412,7 @@
         <v>21</v>
       </c>
       <c r="AC262" t="s" s="2">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="AD262" s="2"/>
       <c r="AE262" t="s" s="2">
@@ -32426,7 +32422,7 @@
         <v>132</v>
       </c>
       <c r="AG262" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AH262" t="s" s="2">
         <v>74</v>
@@ -32435,7 +32431,7 @@
         <v>75</v>
       </c>
       <c r="AJ262" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AK262" t="s" s="2">
         <v>94</v>
@@ -32443,13 +32439,13 @@
     </row>
     <row r="263">
       <c r="A263" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B263" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="C263" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D263" s="2"/>
       <c r="E263" t="s" s="2">
@@ -32546,13 +32542,13 @@
     </row>
     <row r="264">
       <c r="A264" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B264" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="C264" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D264" s="2"/>
       <c r="E264" t="s" s="2">
@@ -32651,13 +32647,13 @@
     </row>
     <row r="265">
       <c r="A265" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B265" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="C265" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D265" s="2"/>
       <c r="E265" t="s" s="2">
@@ -32758,13 +32754,13 @@
     </row>
     <row r="266">
       <c r="A266" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B266" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="C266" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D266" s="2"/>
       <c r="E266" t="s" s="2">
@@ -32865,13 +32861,13 @@
     </row>
     <row r="267">
       <c r="A267" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B267" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="C267" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D267" s="2"/>
       <c r="E267" t="s" s="2">
@@ -32897,7 +32893,7 @@
         <v>96</v>
       </c>
       <c r="M267" t="s" s="2">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="N267" t="s" s="2">
         <v>210</v>
@@ -32972,13 +32968,13 @@
     </row>
     <row r="268">
       <c r="A268" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B268" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="C268" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D268" s="2"/>
       <c r="E268" t="s" s="2">
@@ -33077,13 +33073,13 @@
     </row>
     <row r="269">
       <c r="A269" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B269" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="C269" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D269" s="2"/>
       <c r="E269" t="s" s="2">
@@ -33182,13 +33178,13 @@
     </row>
     <row r="270">
       <c r="A270" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B270" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="C270" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D270" s="2"/>
       <c r="E270" t="s" s="2">
@@ -33287,19 +33283,19 @@
     </row>
     <row r="271">
       <c r="A271" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B271" t="s" s="2">
+        <v>829</v>
+      </c>
+      <c r="C271" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="D271" t="s" s="2">
         <v>830</v>
       </c>
-      <c r="C271" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="D271" t="s" s="2">
+      <c r="E271" t="s" s="2">
         <v>831</v>
-      </c>
-      <c r="E271" t="s" s="2">
-        <v>832</v>
       </c>
       <c r="F271" s="2"/>
       <c r="G271" t="s" s="2">
@@ -33321,14 +33317,14 @@
         <v>185</v>
       </c>
       <c r="M271" t="s" s="2">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="N271" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O271" s="2"/>
       <c r="P271" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q271" t="s" s="2">
         <v>21</v>
@@ -33377,7 +33373,7 @@
         <v>21</v>
       </c>
       <c r="AG271" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AH271" t="s" s="2">
         <v>74</v>
@@ -33386,7 +33382,7 @@
         <v>75</v>
       </c>
       <c r="AJ271" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AK271" t="s" s="2">
         <v>94</v>
@@ -33394,13 +33390,13 @@
     </row>
     <row r="272">
       <c r="A272" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B272" t="s" s="2">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="C272" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D272" s="2"/>
       <c r="E272" t="s" s="2">
@@ -33497,13 +33493,13 @@
     </row>
     <row r="273">
       <c r="A273" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B273" t="s" s="2">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="C273" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D273" s="2"/>
       <c r="E273" t="s" s="2">
@@ -33602,13 +33598,13 @@
     </row>
     <row r="274">
       <c r="A274" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B274" t="s" s="2">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="C274" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D274" s="2"/>
       <c r="E274" t="s" s="2">
@@ -33709,13 +33705,13 @@
     </row>
     <row r="275">
       <c r="A275" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B275" t="s" s="2">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="C275" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D275" s="2"/>
       <c r="E275" t="s" s="2">
@@ -33816,13 +33812,13 @@
     </row>
     <row r="276">
       <c r="A276" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B276" t="s" s="2">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="C276" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D276" s="2"/>
       <c r="E276" t="s" s="2">
@@ -33864,7 +33860,7 @@
       </c>
       <c r="R276" s="2"/>
       <c r="S276" t="s" s="2">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="T276" t="s" s="2">
         <v>21</v>
@@ -33923,13 +33919,13 @@
     </row>
     <row r="277">
       <c r="A277" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B277" t="s" s="2">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="C277" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D277" s="2"/>
       <c r="E277" t="s" s="2">
@@ -34028,13 +34024,13 @@
     </row>
     <row r="278">
       <c r="A278" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B278" t="s" s="2">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="C278" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D278" s="2"/>
       <c r="E278" t="s" s="2">
@@ -34133,13 +34129,13 @@
     </row>
     <row r="279">
       <c r="A279" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B279" t="s" s="2">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="C279" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D279" s="2"/>
       <c r="E279" t="s" s="2">
@@ -34238,16 +34234,16 @@
     </row>
     <row r="280">
       <c r="A280" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B280" t="s" s="2">
+        <v>842</v>
+      </c>
+      <c r="C280" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="D280" t="s" s="2">
         <v>843</v>
-      </c>
-      <c r="C280" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="D280" t="s" s="2">
-        <v>844</v>
       </c>
       <c r="E280" t="s" s="2">
         <v>21</v>
@@ -34272,14 +34268,14 @@
         <v>185</v>
       </c>
       <c r="M280" t="s" s="2">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="N280" t="s" s="2">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="O280" s="2"/>
       <c r="P280" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q280" t="s" s="2">
         <v>21</v>
@@ -34328,7 +34324,7 @@
         <v>21</v>
       </c>
       <c r="AG280" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AH280" t="s" s="2">
         <v>74</v>
@@ -34337,7 +34333,7 @@
         <v>75</v>
       </c>
       <c r="AJ280" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AK280" t="s" s="2">
         <v>94</v>
@@ -34345,13 +34341,13 @@
     </row>
     <row r="281">
       <c r="A281" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B281" t="s" s="2">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="C281" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D281" s="2"/>
       <c r="E281" t="s" s="2">
@@ -34448,13 +34444,13 @@
     </row>
     <row r="282">
       <c r="A282" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B282" t="s" s="2">
-        <v>847</v>
+        <v>846</v>
       </c>
       <c r="C282" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D282" s="2"/>
       <c r="E282" t="s" s="2">
@@ -34553,13 +34549,13 @@
     </row>
     <row r="283">
       <c r="A283" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B283" t="s" s="2">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C283" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D283" s="2"/>
       <c r="E283" t="s" s="2">
@@ -34660,13 +34656,13 @@
     </row>
     <row r="284">
       <c r="A284" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B284" t="s" s="2">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C284" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D284" s="2"/>
       <c r="E284" t="s" s="2">
@@ -34767,13 +34763,13 @@
     </row>
     <row r="285">
       <c r="A285" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B285" t="s" s="2">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C285" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D285" s="2"/>
       <c r="E285" t="s" s="2">
@@ -34815,7 +34811,7 @@
       </c>
       <c r="R285" s="2"/>
       <c r="S285" t="s" s="2">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="T285" t="s" s="2">
         <v>21</v>
@@ -34874,13 +34870,13 @@
     </row>
     <row r="286">
       <c r="A286" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B286" t="s" s="2">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="C286" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D286" s="2"/>
       <c r="E286" t="s" s="2">
@@ -34979,13 +34975,13 @@
     </row>
     <row r="287">
       <c r="A287" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B287" t="s" s="2">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="C287" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D287" s="2"/>
       <c r="E287" t="s" s="2">
@@ -35084,13 +35080,13 @@
     </row>
     <row r="288">
       <c r="A288" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B288" t="s" s="2">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="C288" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D288" s="2"/>
       <c r="E288" t="s" s="2">
@@ -35189,16 +35185,16 @@
     </row>
     <row r="289">
       <c r="A289" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B289" t="s" s="2">
+        <v>854</v>
+      </c>
+      <c r="C289" t="s" s="2">
+        <v>814</v>
+      </c>
+      <c r="D289" t="s" s="2">
         <v>855</v>
-      </c>
-      <c r="C289" t="s" s="2">
-        <v>815</v>
-      </c>
-      <c r="D289" t="s" s="2">
-        <v>856</v>
       </c>
       <c r="E289" t="s" s="2">
         <v>21</v>
@@ -35223,14 +35219,14 @@
         <v>185</v>
       </c>
       <c r="M289" t="s" s="2">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="N289" t="s" s="2">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="O289" s="2"/>
       <c r="P289" t="s" s="2">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="Q289" t="s" s="2">
         <v>21</v>
@@ -35279,7 +35275,7 @@
         <v>21</v>
       </c>
       <c r="AG289" t="s" s="2">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="AH289" t="s" s="2">
         <v>74</v>
@@ -35288,7 +35284,7 @@
         <v>75</v>
       </c>
       <c r="AJ289" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AK289" t="s" s="2">
         <v>94</v>
@@ -35296,13 +35292,13 @@
     </row>
     <row r="290">
       <c r="A290" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B290" t="s" s="2">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="C290" t="s" s="2">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="D290" s="2"/>
       <c r="E290" t="s" s="2">
@@ -35399,13 +35395,13 @@
     </row>
     <row r="291">
       <c r="A291" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B291" t="s" s="2">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="C291" t="s" s="2">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="D291" s="2"/>
       <c r="E291" t="s" s="2">
@@ -35504,13 +35500,13 @@
     </row>
     <row r="292">
       <c r="A292" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B292" t="s" s="2">
-        <v>860</v>
+        <v>859</v>
       </c>
       <c r="C292" t="s" s="2">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="D292" s="2"/>
       <c r="E292" t="s" s="2">
@@ -35611,13 +35607,13 @@
     </row>
     <row r="293">
       <c r="A293" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B293" t="s" s="2">
-        <v>861</v>
+        <v>860</v>
       </c>
       <c r="C293" t="s" s="2">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="D293" s="2"/>
       <c r="E293" t="s" s="2">
@@ -35718,13 +35714,13 @@
     </row>
     <row r="294">
       <c r="A294" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B294" t="s" s="2">
-        <v>862</v>
+        <v>861</v>
       </c>
       <c r="C294" t="s" s="2">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="D294" s="2"/>
       <c r="E294" t="s" s="2">
@@ -35750,7 +35746,7 @@
         <v>96</v>
       </c>
       <c r="M294" t="s" s="2">
-        <v>863</v>
+        <v>862</v>
       </c>
       <c r="N294" t="s" s="2">
         <v>210</v>
@@ -35766,7 +35762,7 @@
       </c>
       <c r="R294" s="2"/>
       <c r="S294" t="s" s="2">
-        <v>864</v>
+        <v>863</v>
       </c>
       <c r="T294" t="s" s="2">
         <v>21</v>
@@ -35825,13 +35821,13 @@
     </row>
     <row r="295">
       <c r="A295" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B295" t="s" s="2">
-        <v>865</v>
+        <v>864</v>
       </c>
       <c r="C295" t="s" s="2">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="D295" s="2"/>
       <c r="E295" t="s" s="2">
@@ -35857,10 +35853,10 @@
         <v>142</v>
       </c>
       <c r="M295" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="N295" t="s" s="2">
-        <v>866</v>
+        <v>865</v>
       </c>
       <c r="O295" t="s" s="2">
         <v>218</v>
@@ -35930,13 +35926,13 @@
     </row>
     <row r="296">
       <c r="A296" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B296" t="s" s="2">
-        <v>867</v>
+        <v>866</v>
       </c>
       <c r="C296" t="s" s="2">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="D296" s="2"/>
       <c r="E296" t="s" s="2">
@@ -36035,13 +36031,13 @@
     </row>
     <row r="297">
       <c r="A297" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B297" t="s" s="2">
-        <v>868</v>
+        <v>867</v>
       </c>
       <c r="C297" t="s" s="2">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="D297" s="2"/>
       <c r="E297" t="s" s="2">
@@ -36140,13 +36136,13 @@
     </row>
     <row r="298">
       <c r="A298" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B298" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="C298" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="D298" s="2"/>
       <c r="E298" t="s" s="2">
@@ -36172,23 +36168,23 @@
         <v>159</v>
       </c>
       <c r="M298" t="s" s="2">
+        <v>869</v>
+      </c>
+      <c r="N298" t="s" s="2">
         <v>870</v>
       </c>
-      <c r="N298" t="s" s="2">
+      <c r="O298" t="s" s="2">
         <v>871</v>
       </c>
-      <c r="O298" t="s" s="2">
+      <c r="P298" t="s" s="2">
         <v>872</v>
       </c>
-      <c r="P298" t="s" s="2">
+      <c r="Q298" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="R298" t="s" s="2">
         <v>873</v>
       </c>
-      <c r="Q298" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="R298" t="s" s="2">
-        <v>874</v>
-      </c>
       <c r="S298" t="s" s="2">
         <v>21</v>
       </c>
@@ -36232,7 +36228,7 @@
         <v>21</v>
       </c>
       <c r="AG298" t="s" s="2">
-        <v>869</v>
+        <v>868</v>
       </c>
       <c r="AH298" t="s" s="2">
         <v>74</v>
@@ -36249,17 +36245,17 @@
     </row>
     <row r="299">
       <c r="A299" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B299" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="C299" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="D299" s="2"/>
       <c r="E299" t="s" s="2">
-        <v>876</v>
+        <v>875</v>
       </c>
       <c r="F299" s="2"/>
       <c r="G299" t="s" s="2">
@@ -36281,16 +36277,16 @@
         <v>199</v>
       </c>
       <c r="M299" t="s" s="2">
+        <v>876</v>
+      </c>
+      <c r="N299" t="s" s="2">
         <v>877</v>
       </c>
-      <c r="N299" t="s" s="2">
+      <c r="O299" t="s" s="2">
         <v>878</v>
       </c>
-      <c r="O299" t="s" s="2">
+      <c r="P299" t="s" s="2">
         <v>879</v>
-      </c>
-      <c r="P299" t="s" s="2">
-        <v>880</v>
       </c>
       <c r="Q299" t="s" s="2">
         <v>21</v>
@@ -36318,16 +36314,16 @@
         <v>385</v>
       </c>
       <c r="Z299" t="s" s="2">
+        <v>880</v>
+      </c>
+      <c r="AA299" t="s" s="2">
         <v>881</v>
       </c>
-      <c r="AA299" t="s" s="2">
+      <c r="AB299" t="s" s="2">
+        <v>21</v>
+      </c>
+      <c r="AC299" t="s" s="2">
         <v>882</v>
-      </c>
-      <c r="AB299" t="s" s="2">
-        <v>21</v>
-      </c>
-      <c r="AC299" t="s" s="2">
-        <v>883</v>
       </c>
       <c r="AD299" s="2"/>
       <c r="AE299" t="s" s="2">
@@ -36337,7 +36333,7 @@
         <v>132</v>
       </c>
       <c r="AG299" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH299" t="s" s="2">
         <v>74</v>
@@ -36354,16 +36350,16 @@
     </row>
     <row r="300">
       <c r="A300" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B300" t="s" s="2">
+        <v>883</v>
+      </c>
+      <c r="C300" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="D300" t="s" s="2">
         <v>884</v>
-      </c>
-      <c r="C300" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="D300" t="s" s="2">
-        <v>885</v>
       </c>
       <c r="E300" t="s" s="2">
         <v>21</v>
@@ -36388,16 +36384,16 @@
         <v>199</v>
       </c>
       <c r="M300" t="s" s="2">
+        <v>885</v>
+      </c>
+      <c r="N300" t="s" s="2">
         <v>886</v>
       </c>
-      <c r="N300" t="s" s="2">
-        <v>887</v>
-      </c>
       <c r="O300" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="P300" t="s" s="2">
         <v>879</v>
-      </c>
-      <c r="P300" t="s" s="2">
-        <v>880</v>
       </c>
       <c r="Q300" t="s" s="2">
         <v>21</v>
@@ -36426,7 +36422,7 @@
       </c>
       <c r="Z300" s="2"/>
       <c r="AA300" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="AB300" t="s" s="2">
         <v>21</v>
@@ -36444,7 +36440,7 @@
         <v>21</v>
       </c>
       <c r="AG300" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH300" t="s" s="2">
         <v>74</v>
@@ -36461,13 +36457,13 @@
     </row>
     <row r="301">
       <c r="A301" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B301" t="s" s="2">
+        <v>888</v>
+      </c>
+      <c r="C301" t="s" s="2">
         <v>889</v>
-      </c>
-      <c r="C301" t="s" s="2">
-        <v>890</v>
       </c>
       <c r="D301" s="2"/>
       <c r="E301" t="s" s="2">
@@ -36564,13 +36560,13 @@
     </row>
     <row r="302">
       <c r="A302" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B302" t="s" s="2">
+        <v>890</v>
+      </c>
+      <c r="C302" t="s" s="2">
         <v>891</v>
-      </c>
-      <c r="C302" t="s" s="2">
-        <v>892</v>
       </c>
       <c r="D302" s="2"/>
       <c r="E302" t="s" s="2">
@@ -36669,13 +36665,13 @@
     </row>
     <row r="303">
       <c r="A303" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B303" t="s" s="2">
+        <v>892</v>
+      </c>
+      <c r="C303" t="s" s="2">
         <v>893</v>
-      </c>
-      <c r="C303" t="s" s="2">
-        <v>894</v>
       </c>
       <c r="D303" s="2"/>
       <c r="E303" t="s" s="2">
@@ -36776,13 +36772,13 @@
     </row>
     <row r="304">
       <c r="A304" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B304" t="s" s="2">
+        <v>894</v>
+      </c>
+      <c r="C304" t="s" s="2">
         <v>895</v>
-      </c>
-      <c r="C304" t="s" s="2">
-        <v>896</v>
       </c>
       <c r="D304" s="2"/>
       <c r="E304" t="s" s="2">
@@ -36879,13 +36875,13 @@
     </row>
     <row r="305">
       <c r="A305" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B305" t="s" s="2">
+        <v>896</v>
+      </c>
+      <c r="C305" t="s" s="2">
         <v>897</v>
-      </c>
-      <c r="C305" t="s" s="2">
-        <v>898</v>
       </c>
       <c r="D305" s="2"/>
       <c r="E305" t="s" s="2">
@@ -36984,13 +36980,13 @@
     </row>
     <row r="306">
       <c r="A306" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B306" t="s" s="2">
+        <v>898</v>
+      </c>
+      <c r="C306" t="s" s="2">
         <v>899</v>
-      </c>
-      <c r="C306" t="s" s="2">
-        <v>900</v>
       </c>
       <c r="D306" s="2"/>
       <c r="E306" t="s" s="2">
@@ -37016,23 +37012,23 @@
         <v>96</v>
       </c>
       <c r="M306" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="N306" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="N306" t="s" s="2">
+      <c r="O306" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="O306" t="s" s="2">
+      <c r="P306" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="P306" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="Q306" t="s" s="2">
         <v>21</v>
       </c>
       <c r="R306" s="2"/>
       <c r="S306" t="s" s="2">
-        <v>888</v>
+        <v>887</v>
       </c>
       <c r="T306" t="s" s="2">
         <v>21</v>
@@ -37074,7 +37070,7 @@
         <v>21</v>
       </c>
       <c r="AG306" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AH306" t="s" s="2">
         <v>74</v>
@@ -37091,13 +37087,13 @@
     </row>
     <row r="307">
       <c r="A307" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B307" t="s" s="2">
+        <v>900</v>
+      </c>
+      <c r="C307" t="s" s="2">
         <v>901</v>
-      </c>
-      <c r="C307" t="s" s="2">
-        <v>902</v>
       </c>
       <c r="D307" s="2"/>
       <c r="E307" t="s" s="2">
@@ -37123,13 +37119,13 @@
         <v>142</v>
       </c>
       <c r="M307" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N307" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="N307" t="s" s="2">
+      <c r="O307" t="s" s="2">
         <v>765</v>
-      </c>
-      <c r="O307" t="s" s="2">
-        <v>766</v>
       </c>
       <c r="P307" s="2"/>
       <c r="Q307" t="s" s="2">
@@ -37179,7 +37175,7 @@
         <v>21</v>
       </c>
       <c r="AG307" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AH307" t="s" s="2">
         <v>74</v>
@@ -37196,13 +37192,13 @@
     </row>
     <row r="308">
       <c r="A308" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B308" t="s" s="2">
+        <v>902</v>
+      </c>
+      <c r="C308" t="s" s="2">
         <v>903</v>
-      </c>
-      <c r="C308" t="s" s="2">
-        <v>904</v>
       </c>
       <c r="D308" s="2"/>
       <c r="E308" t="s" s="2">
@@ -37228,16 +37224,16 @@
         <v>102</v>
       </c>
       <c r="M308" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N308" t="s" s="2">
         <v>769</v>
-      </c>
-      <c r="N308" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="O308" t="s" s="2">
         <v>676</v>
       </c>
       <c r="P308" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q308" t="s" s="2">
         <v>21</v>
@@ -37286,7 +37282,7 @@
         <v>21</v>
       </c>
       <c r="AG308" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AH308" t="s" s="2">
         <v>74</v>
@@ -37303,13 +37299,13 @@
     </row>
     <row r="309">
       <c r="A309" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B309" t="s" s="2">
+        <v>904</v>
+      </c>
+      <c r="C309" t="s" s="2">
         <v>905</v>
-      </c>
-      <c r="C309" t="s" s="2">
-        <v>906</v>
       </c>
       <c r="D309" s="2"/>
       <c r="E309" t="s" s="2">
@@ -37335,16 +37331,16 @@
         <v>142</v>
       </c>
       <c r="M309" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="N309" t="s" s="2">
         <v>774</v>
-      </c>
-      <c r="N309" t="s" s="2">
-        <v>775</v>
       </c>
       <c r="O309" t="s" s="2">
         <v>676</v>
       </c>
       <c r="P309" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q309" t="s" s="2">
         <v>21</v>
@@ -37393,7 +37389,7 @@
         <v>21</v>
       </c>
       <c r="AG309" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AH309" t="s" s="2">
         <v>74</v>
@@ -37410,13 +37406,13 @@
     </row>
     <row r="310">
       <c r="A310" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B310" t="s" s="2">
+        <v>906</v>
+      </c>
+      <c r="C310" t="s" s="2">
         <v>907</v>
-      </c>
-      <c r="C310" t="s" s="2">
-        <v>908</v>
       </c>
       <c r="D310" s="2"/>
       <c r="E310" t="s" s="2">
@@ -37442,16 +37438,16 @@
         <v>159</v>
       </c>
       <c r="M310" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N310" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="N310" t="s" s="2">
+      <c r="O310" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="O310" t="s" s="2">
+      <c r="P310" t="s" s="2">
         <v>781</v>
-      </c>
-      <c r="P310" t="s" s="2">
-        <v>782</v>
       </c>
       <c r="Q310" t="s" s="2">
         <v>21</v>
@@ -37500,7 +37496,7 @@
         <v>21</v>
       </c>
       <c r="AG310" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AH310" t="s" s="2">
         <v>74</v>
@@ -37517,13 +37513,13 @@
     </row>
     <row r="311">
       <c r="A311" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B311" t="s" s="2">
+        <v>908</v>
+      </c>
+      <c r="C311" t="s" s="2">
         <v>909</v>
-      </c>
-      <c r="C311" t="s" s="2">
-        <v>910</v>
       </c>
       <c r="D311" s="2"/>
       <c r="E311" t="s" s="2">
@@ -37624,16 +37620,16 @@
     </row>
     <row r="312">
       <c r="A312" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B312" t="s" s="2">
+        <v>910</v>
+      </c>
+      <c r="C312" t="s" s="2">
+        <v>874</v>
+      </c>
+      <c r="D312" t="s" s="2">
         <v>911</v>
-      </c>
-      <c r="C312" t="s" s="2">
-        <v>875</v>
-      </c>
-      <c r="D312" t="s" s="2">
-        <v>912</v>
       </c>
       <c r="E312" t="s" s="2">
         <v>21</v>
@@ -37658,16 +37654,16 @@
         <v>199</v>
       </c>
       <c r="M312" t="s" s="2">
-        <v>913</v>
+        <v>912</v>
       </c>
       <c r="N312" t="s" s="2">
-        <v>887</v>
+        <v>886</v>
       </c>
       <c r="O312" t="s" s="2">
+        <v>878</v>
+      </c>
+      <c r="P312" t="s" s="2">
         <v>879</v>
-      </c>
-      <c r="P312" t="s" s="2">
-        <v>880</v>
       </c>
       <c r="Q312" t="s" s="2">
         <v>21</v>
@@ -37696,7 +37692,7 @@
       </c>
       <c r="Z312" s="2"/>
       <c r="AA312" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="AB312" t="s" s="2">
         <v>21</v>
@@ -37714,7 +37710,7 @@
         <v>21</v>
       </c>
       <c r="AG312" t="s" s="2">
-        <v>875</v>
+        <v>874</v>
       </c>
       <c r="AH312" t="s" s="2">
         <v>74</v>
@@ -37731,13 +37727,13 @@
     </row>
     <row r="313">
       <c r="A313" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B313" t="s" s="2">
-        <v>915</v>
+        <v>914</v>
       </c>
       <c r="C313" t="s" s="2">
-        <v>890</v>
+        <v>889</v>
       </c>
       <c r="D313" s="2"/>
       <c r="E313" t="s" s="2">
@@ -37834,13 +37830,13 @@
     </row>
     <row r="314">
       <c r="A314" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B314" t="s" s="2">
-        <v>916</v>
+        <v>915</v>
       </c>
       <c r="C314" t="s" s="2">
-        <v>892</v>
+        <v>891</v>
       </c>
       <c r="D314" s="2"/>
       <c r="E314" t="s" s="2">
@@ -37939,13 +37935,13 @@
     </row>
     <row r="315">
       <c r="A315" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B315" t="s" s="2">
-        <v>917</v>
+        <v>916</v>
       </c>
       <c r="C315" t="s" s="2">
-        <v>894</v>
+        <v>893</v>
       </c>
       <c r="D315" s="2"/>
       <c r="E315" t="s" s="2">
@@ -38046,13 +38042,13 @@
     </row>
     <row r="316">
       <c r="A316" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B316" t="s" s="2">
-        <v>918</v>
+        <v>917</v>
       </c>
       <c r="C316" t="s" s="2">
-        <v>896</v>
+        <v>895</v>
       </c>
       <c r="D316" s="2"/>
       <c r="E316" t="s" s="2">
@@ -38149,13 +38145,13 @@
     </row>
     <row r="317">
       <c r="A317" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B317" t="s" s="2">
-        <v>919</v>
+        <v>918</v>
       </c>
       <c r="C317" t="s" s="2">
-        <v>898</v>
+        <v>897</v>
       </c>
       <c r="D317" s="2"/>
       <c r="E317" t="s" s="2">
@@ -38254,13 +38250,13 @@
     </row>
     <row r="318">
       <c r="A318" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B318" t="s" s="2">
-        <v>920</v>
+        <v>919</v>
       </c>
       <c r="C318" t="s" s="2">
-        <v>900</v>
+        <v>899</v>
       </c>
       <c r="D318" s="2"/>
       <c r="E318" t="s" s="2">
@@ -38286,23 +38282,23 @@
         <v>96</v>
       </c>
       <c r="M318" t="s" s="2">
+        <v>757</v>
+      </c>
+      <c r="N318" t="s" s="2">
         <v>758</v>
       </c>
-      <c r="N318" t="s" s="2">
+      <c r="O318" t="s" s="2">
         <v>759</v>
       </c>
-      <c r="O318" t="s" s="2">
+      <c r="P318" t="s" s="2">
         <v>760</v>
-      </c>
-      <c r="P318" t="s" s="2">
-        <v>761</v>
       </c>
       <c r="Q318" t="s" s="2">
         <v>21</v>
       </c>
       <c r="R318" s="2"/>
       <c r="S318" t="s" s="2">
-        <v>914</v>
+        <v>913</v>
       </c>
       <c r="T318" t="s" s="2">
         <v>21</v>
@@ -38344,7 +38340,7 @@
         <v>21</v>
       </c>
       <c r="AG318" t="s" s="2">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="AH318" t="s" s="2">
         <v>74</v>
@@ -38361,13 +38357,13 @@
     </row>
     <row r="319">
       <c r="A319" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B319" t="s" s="2">
-        <v>921</v>
+        <v>920</v>
       </c>
       <c r="C319" t="s" s="2">
-        <v>902</v>
+        <v>901</v>
       </c>
       <c r="D319" s="2"/>
       <c r="E319" t="s" s="2">
@@ -38393,13 +38389,13 @@
         <v>142</v>
       </c>
       <c r="M319" t="s" s="2">
+        <v>763</v>
+      </c>
+      <c r="N319" t="s" s="2">
         <v>764</v>
       </c>
-      <c r="N319" t="s" s="2">
+      <c r="O319" t="s" s="2">
         <v>765</v>
-      </c>
-      <c r="O319" t="s" s="2">
-        <v>766</v>
       </c>
       <c r="P319" s="2"/>
       <c r="Q319" t="s" s="2">
@@ -38449,7 +38445,7 @@
         <v>21</v>
       </c>
       <c r="AG319" t="s" s="2">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="AH319" t="s" s="2">
         <v>74</v>
@@ -38466,13 +38462,13 @@
     </row>
     <row r="320">
       <c r="A320" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B320" t="s" s="2">
-        <v>922</v>
+        <v>921</v>
       </c>
       <c r="C320" t="s" s="2">
-        <v>904</v>
+        <v>903</v>
       </c>
       <c r="D320" s="2"/>
       <c r="E320" t="s" s="2">
@@ -38498,16 +38494,16 @@
         <v>102</v>
       </c>
       <c r="M320" t="s" s="2">
+        <v>768</v>
+      </c>
+      <c r="N320" t="s" s="2">
         <v>769</v>
-      </c>
-      <c r="N320" t="s" s="2">
-        <v>770</v>
       </c>
       <c r="O320" t="s" s="2">
         <v>676</v>
       </c>
       <c r="P320" t="s" s="2">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="Q320" t="s" s="2">
         <v>21</v>
@@ -38556,7 +38552,7 @@
         <v>21</v>
       </c>
       <c r="AG320" t="s" s="2">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="AH320" t="s" s="2">
         <v>74</v>
@@ -38573,13 +38569,13 @@
     </row>
     <row r="321">
       <c r="A321" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B321" t="s" s="2">
-        <v>923</v>
+        <v>922</v>
       </c>
       <c r="C321" t="s" s="2">
-        <v>906</v>
+        <v>905</v>
       </c>
       <c r="D321" s="2"/>
       <c r="E321" t="s" s="2">
@@ -38605,16 +38601,16 @@
         <v>142</v>
       </c>
       <c r="M321" t="s" s="2">
+        <v>773</v>
+      </c>
+      <c r="N321" t="s" s="2">
         <v>774</v>
-      </c>
-      <c r="N321" t="s" s="2">
-        <v>775</v>
       </c>
       <c r="O321" t="s" s="2">
         <v>676</v>
       </c>
       <c r="P321" t="s" s="2">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="Q321" t="s" s="2">
         <v>21</v>
@@ -38663,7 +38659,7 @@
         <v>21</v>
       </c>
       <c r="AG321" t="s" s="2">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="AH321" t="s" s="2">
         <v>74</v>
@@ -38680,13 +38676,13 @@
     </row>
     <row r="322">
       <c r="A322" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B322" t="s" s="2">
-        <v>924</v>
+        <v>923</v>
       </c>
       <c r="C322" t="s" s="2">
-        <v>908</v>
+        <v>907</v>
       </c>
       <c r="D322" s="2"/>
       <c r="E322" t="s" s="2">
@@ -38712,16 +38708,16 @@
         <v>159</v>
       </c>
       <c r="M322" t="s" s="2">
+        <v>778</v>
+      </c>
+      <c r="N322" t="s" s="2">
         <v>779</v>
       </c>
-      <c r="N322" t="s" s="2">
+      <c r="O322" t="s" s="2">
         <v>780</v>
       </c>
-      <c r="O322" t="s" s="2">
+      <c r="P322" t="s" s="2">
         <v>781</v>
-      </c>
-      <c r="P322" t="s" s="2">
-        <v>782</v>
       </c>
       <c r="Q322" t="s" s="2">
         <v>21</v>
@@ -38770,7 +38766,7 @@
         <v>21</v>
       </c>
       <c r="AG322" t="s" s="2">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="AH322" t="s" s="2">
         <v>74</v>
@@ -38787,13 +38783,13 @@
     </row>
     <row r="323">
       <c r="A323" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B323" t="s" s="2">
-        <v>925</v>
+        <v>924</v>
       </c>
       <c r="C323" t="s" s="2">
-        <v>910</v>
+        <v>909</v>
       </c>
       <c r="D323" s="2"/>
       <c r="E323" t="s" s="2">
@@ -38894,13 +38890,13 @@
     </row>
     <row r="324">
       <c r="A324" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B324" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="C324" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="D324" s="2"/>
       <c r="E324" t="s" s="2">
@@ -38926,16 +38922,16 @@
         <v>142</v>
       </c>
       <c r="M324" t="s" s="2">
+        <v>926</v>
+      </c>
+      <c r="N324" t="s" s="2">
         <v>927</v>
       </c>
-      <c r="N324" t="s" s="2">
+      <c r="O324" t="s" s="2">
         <v>928</v>
       </c>
-      <c r="O324" t="s" s="2">
+      <c r="P324" t="s" s="2">
         <v>929</v>
-      </c>
-      <c r="P324" t="s" s="2">
-        <v>930</v>
       </c>
       <c r="Q324" t="s" s="2">
         <v>21</v>
@@ -38984,7 +38980,7 @@
         <v>21</v>
       </c>
       <c r="AG324" t="s" s="2">
-        <v>926</v>
+        <v>925</v>
       </c>
       <c r="AH324" t="s" s="2">
         <v>74</v>
@@ -38993,7 +38989,7 @@
         <v>81</v>
       </c>
       <c r="AJ324" t="s" s="2">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="AK324" t="s" s="2">
         <v>94</v>
@@ -39001,13 +38997,13 @@
     </row>
     <row r="325">
       <c r="A325" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B325" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="C325" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="D325" s="2"/>
       <c r="E325" t="s" s="2">
@@ -39033,16 +39029,16 @@
         <v>142</v>
       </c>
       <c r="M325" t="s" s="2">
+        <v>931</v>
+      </c>
+      <c r="N325" t="s" s="2">
         <v>932</v>
       </c>
-      <c r="N325" t="s" s="2">
+      <c r="O325" t="s" s="2">
         <v>933</v>
       </c>
-      <c r="O325" t="s" s="2">
+      <c r="P325" t="s" s="2">
         <v>934</v>
-      </c>
-      <c r="P325" t="s" s="2">
-        <v>935</v>
       </c>
       <c r="Q325" t="s" s="2">
         <v>21</v>
@@ -39091,7 +39087,7 @@
         <v>21</v>
       </c>
       <c r="AG325" t="s" s="2">
-        <v>931</v>
+        <v>930</v>
       </c>
       <c r="AH325" t="s" s="2">
         <v>74</v>
@@ -39108,13 +39104,13 @@
     </row>
     <row r="326">
       <c r="A326" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B326" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="C326" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="D326" s="2"/>
       <c r="E326" t="s" s="2">
@@ -39137,19 +39133,19 @@
         <v>21</v>
       </c>
       <c r="L326" t="s" s="2">
+        <v>936</v>
+      </c>
+      <c r="M326" t="s" s="2">
         <v>937</v>
       </c>
-      <c r="M326" t="s" s="2">
+      <c r="N326" t="s" s="2">
         <v>938</v>
       </c>
-      <c r="N326" t="s" s="2">
+      <c r="O326" t="s" s="2">
         <v>939</v>
       </c>
-      <c r="O326" t="s" s="2">
+      <c r="P326" t="s" s="2">
         <v>940</v>
-      </c>
-      <c r="P326" t="s" s="2">
-        <v>941</v>
       </c>
       <c r="Q326" t="s" s="2">
         <v>21</v>
@@ -39198,7 +39194,7 @@
         <v>21</v>
       </c>
       <c r="AG326" t="s" s="2">
-        <v>936</v>
+        <v>935</v>
       </c>
       <c r="AH326" t="s" s="2">
         <v>74</v>
@@ -39207,21 +39203,21 @@
         <v>75</v>
       </c>
       <c r="AJ326" t="s" s="2">
+        <v>941</v>
+      </c>
+      <c r="AK326" t="s" s="2">
         <v>942</v>
-      </c>
-      <c r="AK326" t="s" s="2">
-        <v>943</v>
       </c>
     </row>
     <row r="327">
       <c r="A327" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B327" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="C327" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="D327" s="2"/>
       <c r="E327" t="s" s="2">
@@ -39244,19 +39240,19 @@
         <v>21</v>
       </c>
       <c r="L327" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="M327" t="s" s="2">
         <v>945</v>
       </c>
-      <c r="M327" t="s" s="2">
+      <c r="N327" t="s" s="2">
         <v>946</v>
       </c>
-      <c r="N327" t="s" s="2">
+      <c r="O327" t="s" s="2">
         <v>947</v>
       </c>
-      <c r="O327" t="s" s="2">
+      <c r="P327" t="s" s="2">
         <v>948</v>
-      </c>
-      <c r="P327" t="s" s="2">
-        <v>949</v>
       </c>
       <c r="Q327" t="s" s="2">
         <v>21</v>
@@ -39305,7 +39301,7 @@
         <v>21</v>
       </c>
       <c r="AG327" t="s" s="2">
-        <v>944</v>
+        <v>943</v>
       </c>
       <c r="AH327" t="s" s="2">
         <v>74</v>
@@ -39314,21 +39310,21 @@
         <v>75</v>
       </c>
       <c r="AJ327" t="s" s="2">
+        <v>949</v>
+      </c>
+      <c r="AK327" t="s" s="2">
         <v>950</v>
-      </c>
-      <c r="AK327" t="s" s="2">
-        <v>951</v>
       </c>
     </row>
     <row r="328">
       <c r="A328" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B328" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="C328" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="D328" s="2"/>
       <c r="E328" t="s" s="2">
@@ -39354,16 +39350,16 @@
         <v>583</v>
       </c>
       <c r="M328" t="s" s="2">
+        <v>952</v>
+      </c>
+      <c r="N328" t="s" s="2">
         <v>953</v>
-      </c>
-      <c r="N328" t="s" s="2">
-        <v>954</v>
       </c>
       <c r="O328" t="s" s="2">
         <v>239</v>
       </c>
       <c r="P328" t="s" s="2">
-        <v>955</v>
+        <v>954</v>
       </c>
       <c r="Q328" t="s" s="2">
         <v>21</v>
@@ -39412,7 +39408,7 @@
         <v>21</v>
       </c>
       <c r="AG328" t="s" s="2">
-        <v>952</v>
+        <v>951</v>
       </c>
       <c r="AH328" t="s" s="2">
         <v>74</v>
@@ -39429,13 +39425,13 @@
     </row>
     <row r="329">
       <c r="A329" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B329" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="C329" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="D329" s="2"/>
       <c r="E329" t="s" s="2">
@@ -39458,19 +39454,19 @@
         <v>21</v>
       </c>
       <c r="L329" t="s" s="2">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="M329" t="s" s="2">
+        <v>956</v>
+      </c>
+      <c r="N329" t="s" s="2">
         <v>957</v>
       </c>
-      <c r="N329" t="s" s="2">
+      <c r="O329" t="s" s="2">
         <v>958</v>
       </c>
-      <c r="O329" t="s" s="2">
+      <c r="P329" t="s" s="2">
         <v>959</v>
-      </c>
-      <c r="P329" t="s" s="2">
-        <v>960</v>
       </c>
       <c r="Q329" t="s" s="2">
         <v>21</v>
@@ -39519,7 +39515,7 @@
         <v>21</v>
       </c>
       <c r="AG329" t="s" s="2">
-        <v>956</v>
+        <v>955</v>
       </c>
       <c r="AH329" t="s" s="2">
         <v>74</v>
@@ -39536,13 +39532,13 @@
     </row>
     <row r="330">
       <c r="A330" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B330" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="C330" t="s" s="2">
-        <v>961</v>
+        <v>960</v>
       </c>
       <c r="D330" s="2"/>
       <c r="E330" t="s" s="2">
@@ -39639,13 +39635,13 @@
     </row>
     <row r="331">
       <c r="A331" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B331" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="C331" t="s" s="2">
-        <v>962</v>
+        <v>961</v>
       </c>
       <c r="D331" s="2"/>
       <c r="E331" t="s" s="2">
@@ -39744,17 +39740,17 @@
     </row>
     <row r="332">
       <c r="A332" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B332" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="C332" t="s" s="2">
-        <v>963</v>
+        <v>962</v>
       </c>
       <c r="D332" s="2"/>
       <c r="E332" t="s" s="2">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="F332" s="2"/>
       <c r="G332" t="s" s="2">
@@ -39776,10 +39772,10 @@
         <v>126</v>
       </c>
       <c r="M332" t="s" s="2">
+        <v>720</v>
+      </c>
+      <c r="N332" t="s" s="2">
         <v>721</v>
-      </c>
-      <c r="N332" t="s" s="2">
-        <v>722</v>
       </c>
       <c r="O332" t="s" s="2">
         <v>129</v>
@@ -39834,7 +39830,7 @@
         <v>21</v>
       </c>
       <c r="AG332" t="s" s="2">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="AH332" t="s" s="2">
         <v>74</v>
@@ -39851,13 +39847,13 @@
     </row>
     <row r="333">
       <c r="A333" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B333" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="C333" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="D333" s="2"/>
       <c r="E333" t="s" s="2">
@@ -39883,16 +39879,16 @@
         <v>199</v>
       </c>
       <c r="M333" t="s" s="2">
+        <v>964</v>
+      </c>
+      <c r="N333" t="s" s="2">
         <v>965</v>
-      </c>
-      <c r="N333" t="s" s="2">
-        <v>966</v>
       </c>
       <c r="O333" t="s" s="2">
         <v>593</v>
       </c>
       <c r="P333" t="s" s="2">
-        <v>967</v>
+        <v>966</v>
       </c>
       <c r="Q333" t="s" s="2">
         <v>21</v>
@@ -39920,11 +39916,11 @@
         <v>204</v>
       </c>
       <c r="Z333" t="s" s="2">
+        <v>967</v>
+      </c>
+      <c r="AA333" t="s" s="2">
         <v>968</v>
       </c>
-      <c r="AA333" t="s" s="2">
-        <v>969</v>
-      </c>
       <c r="AB333" t="s" s="2">
         <v>21</v>
       </c>
@@ -39941,7 +39937,7 @@
         <v>21</v>
       </c>
       <c r="AG333" t="s" s="2">
-        <v>964</v>
+        <v>963</v>
       </c>
       <c r="AH333" t="s" s="2">
         <v>74</v>
@@ -39958,13 +39954,13 @@
     </row>
     <row r="334">
       <c r="A334" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B334" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="C334" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="D334" s="2"/>
       <c r="E334" t="s" s="2">
@@ -39987,19 +39983,19 @@
         <v>21</v>
       </c>
       <c r="L334" t="s" s="2">
+        <v>970</v>
+      </c>
+      <c r="M334" t="s" s="2">
         <v>971</v>
       </c>
-      <c r="M334" t="s" s="2">
+      <c r="N334" t="s" s="2">
         <v>972</v>
       </c>
-      <c r="N334" t="s" s="2">
+      <c r="O334" t="s" s="2">
         <v>973</v>
       </c>
-      <c r="O334" t="s" s="2">
+      <c r="P334" t="s" s="2">
         <v>974</v>
-      </c>
-      <c r="P334" t="s" s="2">
-        <v>975</v>
       </c>
       <c r="Q334" t="s" s="2">
         <v>21</v>
@@ -40048,7 +40044,7 @@
         <v>21</v>
       </c>
       <c r="AG334" t="s" s="2">
-        <v>970</v>
+        <v>969</v>
       </c>
       <c r="AH334" t="s" s="2">
         <v>74</v>
@@ -40065,13 +40061,13 @@
     </row>
     <row r="335">
       <c r="A335" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B335" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="C335" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="D335" s="2"/>
       <c r="E335" t="s" s="2">
@@ -40094,17 +40090,17 @@
         <v>21</v>
       </c>
       <c r="L335" t="s" s="2">
-        <v>937</v>
+        <v>936</v>
       </c>
       <c r="M335" t="s" s="2">
+        <v>976</v>
+      </c>
+      <c r="N335" t="s" s="2">
         <v>977</v>
-      </c>
-      <c r="N335" t="s" s="2">
-        <v>978</v>
       </c>
       <c r="O335" s="2"/>
       <c r="P335" t="s" s="2">
-        <v>979</v>
+        <v>978</v>
       </c>
       <c r="Q335" t="s" s="2">
         <v>21</v>
@@ -40153,7 +40149,7 @@
         <v>21</v>
       </c>
       <c r="AG335" t="s" s="2">
-        <v>976</v>
+        <v>975</v>
       </c>
       <c r="AH335" t="s" s="2">
         <v>74</v>
@@ -40165,18 +40161,18 @@
         <v>93</v>
       </c>
       <c r="AK335" t="s" s="2">
-        <v>980</v>
+        <v>979</v>
       </c>
     </row>
     <row r="336">
       <c r="A336" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B336" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="C336" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="D336" s="2"/>
       <c r="E336" t="s" s="2">
@@ -40199,19 +40195,19 @@
         <v>21</v>
       </c>
       <c r="L336" t="s" s="2">
+        <v>944</v>
+      </c>
+      <c r="M336" t="s" s="2">
         <v>945</v>
       </c>
-      <c r="M336" t="s" s="2">
+      <c r="N336" t="s" s="2">
         <v>946</v>
       </c>
-      <c r="N336" t="s" s="2">
+      <c r="O336" t="s" s="2">
         <v>947</v>
       </c>
-      <c r="O336" t="s" s="2">
-        <v>948</v>
-      </c>
       <c r="P336" t="s" s="2">
-        <v>982</v>
+        <v>981</v>
       </c>
       <c r="Q336" t="s" s="2">
         <v>21</v>
@@ -40260,7 +40256,7 @@
         <v>21</v>
       </c>
       <c r="AG336" t="s" s="2">
-        <v>981</v>
+        <v>980</v>
       </c>
       <c r="AH336" t="s" s="2">
         <v>74</v>
@@ -40277,13 +40273,13 @@
     </row>
     <row r="337">
       <c r="A337" t="s" s="2">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="B337" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="C337" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="D337" s="2"/>
       <c r="E337" t="s" s="2">
@@ -40306,19 +40302,19 @@
         <v>21</v>
       </c>
       <c r="L337" t="s" s="2">
+        <v>983</v>
+      </c>
+      <c r="M337" t="s" s="2">
         <v>984</v>
       </c>
-      <c r="M337" t="s" s="2">
+      <c r="N337" t="s" s="2">
         <v>985</v>
-      </c>
-      <c r="N337" t="s" s="2">
-        <v>986</v>
       </c>
       <c r="O337" t="s" s="2">
         <v>239</v>
       </c>
       <c r="P337" t="s" s="2">
-        <v>987</v>
+        <v>986</v>
       </c>
       <c r="Q337" t="s" s="2">
         <v>21</v>
@@ -40367,7 +40363,7 @@
         <v>21</v>
       </c>
       <c r="AG337" t="s" s="2">
-        <v>983</v>
+        <v>982</v>
       </c>
       <c r="AH337" t="s" s="2">
         <v>74</v>
@@ -40384,7 +40380,7 @@
     </row>
     <row r="338">
       <c r="A338" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B338" t="s" s="2">
         <v>169</v>
@@ -40419,7 +40415,7 @@
         <v>169</v>
       </c>
       <c r="N338" t="s" s="2">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="O338" s="2"/>
       <c r="P338" s="2"/>
@@ -40487,7 +40483,7 @@
     </row>
     <row r="339">
       <c r="A339" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B339" t="s" s="2">
         <v>427</v>
@@ -40590,7 +40586,7 @@
     </row>
     <row r="340">
       <c r="A340" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B340" t="s" s="2">
         <v>428</v>
@@ -40693,7 +40689,7 @@
     </row>
     <row r="341">
       <c r="A341" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B341" t="s" s="2">
         <v>156</v>
@@ -40739,7 +40735,7 @@
       </c>
       <c r="R341" s="2"/>
       <c r="S341" t="s" s="2">
-        <v>989</v>
+        <v>988</v>
       </c>
       <c r="T341" t="s" s="2">
         <v>21</v>
@@ -40798,7 +40794,7 @@
     </row>
     <row r="342">
       <c r="A342" t="s" s="2">
-        <v>988</v>
+        <v>987</v>
       </c>
       <c r="B342" t="s" s="2">
         <v>161</v>
@@ -40827,7 +40823,7 @@
         <v>21</v>
       </c>
       <c r="L342" t="s" s="2">
-        <v>992</v>
+        <v>991</v>
       </c>
       <c r="M342" t="s" s="2">
         <v>517</v>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -36,7 +36,7 @@
     <t>Version</t>
   </si>
   <si>
-    <t>0.1.0</t>
+    <t>0.9.0</t>
   </si>
   <si>
     <t>Name</t>
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T15:15:59+01:00</t>
+    <t>2025-01-31T16:07:19+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -973,7 +973,7 @@
   </si>
   <si>
     <t>ele-1:All FHIR elements must have a @value or children {hasValue() or (children().count() &gt; id.count())}
-inv-2:Only urn:oid:2.16.578.1.12.4.1.4.1 (FNR) or urn:oid:2.16.578.1.12.4.1.4.2 (DNR) are allowed as systems to identify patient in this profile. {system = 'urn:oid:2.16.578.1.12.4.1.4.1' or system = 'urn:oid:2.16.578.1.12.4.1.4.2'}</t>
+inv-a:Only urn:oid:2.16.578.1.12.4.1.4.1 (FNR) or urn:oid:2.16.578.1.12.4.1.4.2 (DNR) are allowed as systems to identify patient in this profile. {system = 'urn:oid:2.16.578.1.12.4.1.4.1' or system = 'urn:oid:2.16.578.1.12.4.1.4.2'}</t>
   </si>
   <si>
     <t>AppointmentResponse.actor.identifier.id</t>
@@ -1433,7 +1433,7 @@
     <t>LastUpdated should always be present to show when the resource was created or changed</t>
   </si>
   <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a [read](http://hl7.org/fhir/R4/http.html#read) interaction.</t>
+    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a read interaction.</t>
   </si>
   <si>
     <t>Meta.lastUpdated</t>

--- a/all-profiles.xlsx
+++ b/all-profiles.xlsx
@@ -60,7 +60,7 @@
     <t>Date</t>
   </si>
   <si>
-    <t>2025-01-31T16:07:19+01:00</t>
+    <t>2025-02-01T23:53:20+01:00</t>
   </si>
   <si>
     <t>Publisher</t>
@@ -1433,7 +1433,7 @@
     <t>LastUpdated should always be present to show when the resource was created or changed</t>
   </si>
   <si>
-    <t>This value is always populated except when the resource is first being created. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a read interaction.</t>
+    <t>This value is always populated. The server / resource manager sets this value; what a client provides is irrelevant. This is equivalent to the HTTP Last-Modified and SHOULD have the same value on a read interaction.</t>
   </si>
   <si>
     <t>Meta.lastUpdated</t>
